--- a/data/final_data/unrolled_weddings_timeseries.xlsx
+++ b/data/final_data/unrolled_weddings_timeseries.xlsx
@@ -993,13 +993,13 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>270.912728667704</v>
+        <v>253.4857605279691</v>
       </c>
       <c r="E23">
-        <v>211.3897466636383</v>
+        <v>177.679136837211</v>
       </c>
       <c r="F23">
-        <v>330.4357106717696</v>
+        <v>329.2923842187271</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1013,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>240.8768162432284</v>
+        <v>245.9791097833971</v>
       </c>
       <c r="E24">
-        <v>168.3771619283758</v>
+        <v>139.0106928486236</v>
       </c>
       <c r="F24">
-        <v>313.3764705580811</v>
+        <v>352.9475267181705</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1033,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>211.1377782623428</v>
+        <v>238.4800139866086</v>
       </c>
       <c r="E25">
-        <v>134.2445074642851</v>
+        <v>107.7618151379088</v>
       </c>
       <c r="F25">
-        <v>288.0310490604005</v>
+        <v>369.1982128353085</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>190.8898322647736</v>
+        <v>230.9884395082918</v>
       </c>
       <c r="E26">
-        <v>94.56540340486049</v>
+        <v>80.38263130144358</v>
       </c>
       <c r="F26">
-        <v>287.2142611246868</v>
+        <v>381.59424771514</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1073,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>159.0675510179298</v>
+        <v>223.5043528688284</v>
       </c>
       <c r="E27">
-        <v>48.85067978618125</v>
+        <v>55.49461059225962</v>
       </c>
       <c r="F27">
-        <v>269.2844222496783</v>
+        <v>391.5140951453972</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1093,13 +1093,13 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>152.7982934755298</v>
+        <v>216.0277207376283</v>
       </c>
       <c r="E28">
-        <v>12.25807633442179</v>
+        <v>32.38899642139759</v>
       </c>
       <c r="F28">
-        <v>293.3385106166377</v>
+        <v>399.666445053859</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1113,13 +1113,13 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>137.2154165733613</v>
+        <v>208.5585099324654</v>
       </c>
       <c r="E29">
-        <v>-29.0318091670662</v>
+        <v>10.64370577197172</v>
       </c>
       <c r="F29">
-        <v>303.4626423137888</v>
+        <v>406.4733140929591</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>129.7309278569318</v>
+        <v>201.0966874188179</v>
       </c>
       <c r="E30">
-        <v>-61.59915379368357</v>
+        <v>-10.01696221044915</v>
       </c>
       <c r="F30">
-        <v>321.0610095075472</v>
+        <v>412.2103370480849</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1153,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>121.7169734259729</v>
+        <v>193.6422203092099</v>
       </c>
       <c r="E31">
-        <v>-94.97895116724864</v>
+        <v>-29.78499586189622</v>
       </c>
       <c r="F31">
-        <v>338.4128980191944</v>
+        <v>417.069436480316</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1173,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>110.7323025800316</v>
+        <v>186.1950758625579</v>
       </c>
       <c r="E32">
-        <v>-127.5762577479375</v>
+        <v>-48.80053959105064</v>
       </c>
       <c r="F32">
-        <v>349.0408629080006</v>
+        <v>421.1906913161664</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1613,13 +1613,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>457.0322709425503</v>
+        <v>459.4142654394807</v>
       </c>
       <c r="E54">
-        <v>360.7349856130404</v>
+        <v>376.1374024801929</v>
       </c>
       <c r="F54">
-        <v>553.3295562720604</v>
+        <v>542.6911283987685</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1633,13 +1633,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>408.7228497130404</v>
+        <v>391.5299532559658</v>
       </c>
       <c r="E55">
-        <v>302.987842598281</v>
+        <v>234.0191786150644</v>
       </c>
       <c r="F55">
-        <v>514.4578568277999</v>
+        <v>549.0407278968672</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1653,13 +1653,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>415.8898967584174</v>
+        <v>463.1204574411295</v>
       </c>
       <c r="E56">
-        <v>275.6962854774205</v>
+        <v>227.3273846702943</v>
       </c>
       <c r="F56">
-        <v>556.0835080394143</v>
+        <v>698.9135302119648</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1673,13 +1673,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>390.5518713065694</v>
+        <v>426.1393059575884</v>
       </c>
       <c r="E57">
-        <v>231.2376004062038</v>
+        <v>118.0619790527266</v>
       </c>
       <c r="F57">
-        <v>549.866142206935</v>
+        <v>734.2166328624501</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1693,13 +1693,13 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>383.2224955562836</v>
+        <v>488.5169053111331</v>
       </c>
       <c r="E58">
-        <v>197.7286025643136</v>
+        <v>113.0331121080453</v>
       </c>
       <c r="F58">
-        <v>568.7163885482536</v>
+        <v>864.0006985142211</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1713,13 +1713,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>370.6364817613517</v>
+        <v>500.1092487704533</v>
       </c>
       <c r="E59">
-        <v>160.7094311888927</v>
+        <v>62.55566434168475</v>
       </c>
       <c r="F59">
-        <v>580.5635323338107</v>
+        <v>937.662833199222</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1733,13 +1733,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>357.0278272943271</v>
+        <v>526.3952753521007</v>
       </c>
       <c r="E60">
-        <v>123.2834251730245</v>
+        <v>34.15912182707388</v>
       </c>
       <c r="F60">
-        <v>590.7722294156297</v>
+        <v>1018.631428877128</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1753,13 +1753,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>350.3600693294622</v>
+        <v>589.7375296954003</v>
       </c>
       <c r="E61">
-        <v>90.14591497549657</v>
+        <v>46.55817407252937</v>
       </c>
       <c r="F61">
-        <v>610.5742236834278</v>
+        <v>1132.916885318271</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1773,13 +1773,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>335.4621015416145</v>
+        <v>578.8933759558427</v>
       </c>
       <c r="E62">
-        <v>51.75121319233574</v>
+        <v>-7.952496417178622</v>
       </c>
       <c r="F62">
-        <v>619.1729898908932</v>
+        <v>1165.739248328864</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1793,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>330.8175041911504</v>
+        <v>676.3462158570835</v>
       </c>
       <c r="E63">
-        <v>20.28392216137905</v>
+        <v>48.68135538306979</v>
       </c>
       <c r="F63">
-        <v>641.3510862209218</v>
+        <v>1304.011076331097</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2233,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="D85">
-        <v>393.7167277596103</v>
+        <v>397.1534796550158</v>
       </c>
       <c r="E85">
-        <v>295.3289096802086</v>
+        <v>295.1792612595121</v>
       </c>
       <c r="F85">
-        <v>492.104545839012</v>
+        <v>499.1276980505194</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2253,13 +2253,13 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>352.381214057202</v>
+        <v>386.6429319889492</v>
       </c>
       <c r="E86">
-        <v>217.816694320915</v>
+        <v>255.1080628437954</v>
       </c>
       <c r="F86">
-        <v>486.945733793489</v>
+        <v>518.177801134103</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2273,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>384.3189403040851</v>
+        <v>376.1356822901196</v>
       </c>
       <c r="E87">
-        <v>202.4770035155973</v>
+        <v>220.6631559382842</v>
       </c>
       <c r="F87">
-        <v>566.1608770925728</v>
+        <v>531.6082086419551</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2293,13 +2293,13 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>367.6092327796089</v>
+        <v>365.6317228103501</v>
       </c>
       <c r="E88">
-        <v>159.8747834444229</v>
+        <v>189.5358761619196</v>
       </c>
       <c r="F88">
-        <v>575.3436821147949</v>
+        <v>541.7275694587806</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2313,13 +2313,13 @@
         <v>7</v>
       </c>
       <c r="D89">
-        <v>385.9725269045243</v>
+        <v>355.131045819667</v>
       </c>
       <c r="E89">
-        <v>149.7727746545407</v>
+        <v>160.6684648454207</v>
       </c>
       <c r="F89">
-        <v>622.1722791545078</v>
+        <v>549.5936267939132</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2333,13 +2333,13 @@
         <v>7</v>
       </c>
       <c r="D90">
-        <v>373.8536029988226</v>
+        <v>344.6336436062571</v>
       </c>
       <c r="E90">
-        <v>117.5892668912084</v>
+        <v>133.4709062558154</v>
       </c>
       <c r="F90">
-        <v>630.1179391064368</v>
+        <v>555.7963809566988</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2353,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="D91">
-        <v>383.3021477946496</v>
+        <v>334.1395084764255</v>
       </c>
       <c r="E91">
-        <v>105.2502071995212</v>
+        <v>107.5740303988152</v>
       </c>
       <c r="F91">
-        <v>661.3540883897779</v>
+        <v>560.7049865540359</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2373,13 +2373,13 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <v>375.6410235590444</v>
+        <v>323.6486327545527</v>
       </c>
       <c r="E92">
-        <v>79.75116770565239</v>
+        <v>82.72854799527198</v>
       </c>
       <c r="F92">
-        <v>671.5308794124363</v>
+        <v>564.5687175138335</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2393,13 +2393,13 @@
         <v>7</v>
       </c>
       <c r="D93">
-        <v>381.2357096583679</v>
+        <v>313.1610087830518</v>
       </c>
       <c r="E93">
-        <v>66.73498401770928</v>
+        <v>58.75667646075567</v>
       </c>
       <c r="F93">
-        <v>695.7364352990264</v>
+        <v>567.5653411053479</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2413,13 +2413,13 @@
         <v>7</v>
       </c>
       <c r="D94">
-        <v>376.8091235706486</v>
+        <v>302.6766289223268</v>
       </c>
       <c r="E94">
-        <v>45.98579540666231</v>
+        <v>35.52630633459103</v>
       </c>
       <c r="F94">
-        <v>707.6324517346349</v>
+        <v>569.8269515100626</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2853,13 +2853,13 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>466.1253946455384</v>
+        <v>471.8114616402486</v>
       </c>
       <c r="E116">
-        <v>334.4348692559789</v>
+        <v>355.5633599436979</v>
       </c>
       <c r="F116">
-        <v>597.8159200350979</v>
+        <v>588.0595633367993</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2873,13 +2873,13 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <v>477.9676964389325</v>
+        <v>477.6914861179868</v>
       </c>
       <c r="E117">
-        <v>321.6631431781378</v>
+        <v>355.2748464037181</v>
       </c>
       <c r="F117">
-        <v>634.2722496997271</v>
+        <v>600.1081258322554</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2893,13 +2893,13 @@
         <v>8</v>
       </c>
       <c r="D118">
-        <v>477.9676964389325</v>
+        <v>460.4919002891933</v>
       </c>
       <c r="E118">
-        <v>304.1598283189663</v>
+        <v>336.7531548930166</v>
       </c>
       <c r="F118">
-        <v>651.7755645588986</v>
+        <v>584.23064568537</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2913,13 +2913,13 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>477.9676964389325</v>
+        <v>442.8986226138647</v>
       </c>
       <c r="E119">
-        <v>288.2646741362859</v>
+        <v>317.7509244502388</v>
       </c>
       <c r="F119">
-        <v>667.6707187415791</v>
+        <v>568.0463207774908</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2933,13 +2933,13 @@
         <v>8</v>
       </c>
       <c r="D120">
-        <v>477.9676964389325</v>
+        <v>424.9166812407323</v>
       </c>
       <c r="E120">
-        <v>273.6020967869623</v>
+        <v>298.277855349777</v>
       </c>
       <c r="F120">
-        <v>682.3332960909026</v>
+        <v>551.5555071316875</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2953,13 +2953,13 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>477.9676964389325</v>
+        <v>406.5513300154528</v>
       </c>
       <c r="E121">
-        <v>259.9232973559469</v>
+        <v>278.3440451826623</v>
       </c>
       <c r="F121">
-        <v>696.012095521918</v>
+        <v>534.7586148482433</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2973,13 +2973,13 @@
         <v>8</v>
       </c>
       <c r="D122">
-        <v>477.9676964389325</v>
+        <v>387.8080453889432</v>
       </c>
       <c r="E122">
-        <v>247.0533798151874</v>
+        <v>257.9599415844715</v>
       </c>
       <c r="F122">
-        <v>708.8820130626775</v>
+        <v>517.656149193415</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2993,13 +2993,13 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <v>477.9676964389325</v>
+        <v>368.6925231964785</v>
       </c>
       <c r="E123">
-        <v>234.8638435855437</v>
+        <v>237.1362981127265</v>
       </c>
       <c r="F123">
-        <v>721.0715492923213</v>
+        <v>500.2487482802305</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3013,13 +3013,13 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>477.9676964389325</v>
+        <v>349.2106753094449</v>
       </c>
       <c r="E124">
-        <v>223.2569881392753</v>
+        <v>215.8841336400018</v>
       </c>
       <c r="F124">
-        <v>732.6784047385896</v>
+        <v>482.5372169788881</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3033,13 +3033,13 @@
         <v>8</v>
       </c>
       <c r="D125">
-        <v>477.9676964389325</v>
+        <v>329.3686261617191</v>
       </c>
       <c r="E125">
-        <v>212.1564728744186</v>
+        <v>194.2146954623791</v>
       </c>
       <c r="F125">
-        <v>743.7789200034463</v>
+        <v>464.5225568610592</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3473,13 +3473,13 @@
         <v>9</v>
       </c>
       <c r="D147">
-        <v>380.8252353767979</v>
+        <v>383.6529105195378</v>
       </c>
       <c r="E147">
-        <v>309.3083953825889</v>
+        <v>309.8340330267631</v>
       </c>
       <c r="F147">
-        <v>452.3420753710068</v>
+        <v>457.4717880123126</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3493,13 +3493,13 @@
         <v>9</v>
       </c>
       <c r="D148">
-        <v>356.9020096640659</v>
+        <v>359.6588727326447</v>
       </c>
       <c r="E148">
-        <v>275.3136121739358</v>
+        <v>278.6618772717254</v>
       </c>
       <c r="F148">
-        <v>438.490407154196</v>
+        <v>440.6558681935641</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3513,13 +3513,13 @@
         <v>9</v>
       </c>
       <c r="D149">
-        <v>327.4083300137298</v>
+        <v>331.5915584648712</v>
       </c>
       <c r="E149">
-        <v>225.9249221801437</v>
+        <v>242.896839883073</v>
       </c>
       <c r="F149">
-        <v>428.8917378473159</v>
+        <v>420.2862770466694</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3533,13 +3533,13 @@
         <v>9</v>
       </c>
       <c r="D150">
-        <v>302.6525099398185</v>
+        <v>320.3787685762707</v>
       </c>
       <c r="E150">
-        <v>189.5722814126026</v>
+        <v>220.8128299857442</v>
       </c>
       <c r="F150">
-        <v>415.7327384670343</v>
+        <v>419.9447071667972</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3553,13 +3553,13 @@
         <v>9</v>
       </c>
       <c r="D151">
-        <v>316.7913689955742</v>
+        <v>300.9930259984818</v>
       </c>
       <c r="E151">
-        <v>185.9430458241394</v>
+        <v>193.8731700790826</v>
       </c>
       <c r="F151">
-        <v>447.639692167009</v>
+        <v>408.1128819178811</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3573,13 +3573,13 @@
         <v>9</v>
       </c>
       <c r="D152">
-        <v>277.6495606169611</v>
+        <v>281.6610361520897</v>
       </c>
       <c r="E152">
-        <v>135.847064795267</v>
+        <v>167.2241827082588</v>
       </c>
       <c r="F152">
-        <v>419.4520564386552</v>
+        <v>396.0978895959205</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3593,13 +3593,13 @@
         <v>9</v>
       </c>
       <c r="D153">
-        <v>249.5515098630362</v>
+        <v>264.4469331138379</v>
       </c>
       <c r="E153">
-        <v>94.64218117817842</v>
+        <v>142.7664076266327</v>
       </c>
       <c r="F153">
-        <v>404.4608385478941</v>
+        <v>386.127458601043</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3613,13 +3613,13 @@
         <v>9</v>
       </c>
       <c r="D154">
-        <v>256.2284576417585</v>
+        <v>246.0572395850514</v>
       </c>
       <c r="E154">
-        <v>88.18556244194119</v>
+        <v>117.7948067037036</v>
       </c>
       <c r="F154">
-        <v>424.2713528415758</v>
+        <v>374.3196724663993</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3633,13 +3633,13 @@
         <v>9</v>
       </c>
       <c r="D155">
-        <v>238.0869056610903</v>
+        <v>227.7557955317341</v>
       </c>
       <c r="E155">
-        <v>57.55160353489907</v>
+        <v>93.18791595348566</v>
       </c>
       <c r="F155">
-        <v>418.6222077872816</v>
+        <v>362.3236751099824</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3653,13 +3653,13 @@
         <v>9</v>
       </c>
       <c r="D156">
-        <v>195.5183365701263</v>
+        <v>209.7148298766516</v>
       </c>
       <c r="E156">
-        <v>4.161283678231058</v>
+        <v>69.08712087186305</v>
       </c>
       <c r="F156">
-        <v>386.8753894620215</v>
+        <v>350.3425388814402</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4093,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="D178">
-        <v>400.8451174289775</v>
+        <v>424.9386864054316</v>
       </c>
       <c r="E178">
-        <v>313.894773024727</v>
+        <v>360.321851416648</v>
       </c>
       <c r="F178">
-        <v>487.7954618332279</v>
+        <v>489.5555213942152</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4113,13 +4113,13 @@
         <v>10</v>
       </c>
       <c r="D179">
-        <v>386.6291327207504</v>
+        <v>419.3589086633897</v>
       </c>
       <c r="E179">
-        <v>281.8222496271464</v>
+        <v>355.1912021101162</v>
       </c>
       <c r="F179">
-        <v>491.4360158143544</v>
+        <v>483.5266152166632</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4133,13 +4133,13 @@
         <v>10</v>
       </c>
       <c r="D180">
-        <v>354.7021906875603</v>
+        <v>374.6931362985484</v>
       </c>
       <c r="E180">
-        <v>237.7569668513292</v>
+        <v>301.2310207040467</v>
       </c>
       <c r="F180">
-        <v>471.6474145237915</v>
+        <v>448.1552518930501</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4153,13 +4153,13 @@
         <v>10</v>
       </c>
       <c r="D181">
-        <v>291.4647404132412</v>
+        <v>318.1220223413691</v>
       </c>
       <c r="E181">
-        <v>144.0690927666714</v>
+        <v>244.655128396074</v>
       </c>
       <c r="F181">
-        <v>438.860388059811</v>
+        <v>391.5889162866642</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4173,13 +4173,13 @@
         <v>10</v>
       </c>
       <c r="D182">
-        <v>336.4832171357708</v>
+        <v>382.0345808684606</v>
       </c>
       <c r="E182">
-        <v>146.5488208793423</v>
+        <v>308.0819708805673</v>
       </c>
       <c r="F182">
-        <v>526.4176133921992</v>
+        <v>455.9871908563539</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4193,13 +4193,13 @@
         <v>10</v>
       </c>
       <c r="D183">
-        <v>312.8148623209557</v>
+        <v>328.2292813283732</v>
       </c>
       <c r="E183">
-        <v>97.45051066788685</v>
+        <v>248.6035731432228</v>
       </c>
       <c r="F183">
-        <v>528.1792139740245</v>
+        <v>407.8549895135237</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="D184">
-        <v>310.6799147807133</v>
+        <v>299.6903540354947</v>
       </c>
       <c r="E184">
-        <v>72.10733389871169</v>
+        <v>219.1755038659641</v>
       </c>
       <c r="F184">
-        <v>549.2524956627149</v>
+        <v>380.2052042050253</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4233,13 +4233,13 @@
         <v>10</v>
       </c>
       <c r="D185">
-        <v>270.8898895963666</v>
+        <v>264.8108081087393</v>
       </c>
       <c r="E185">
-        <v>4.158935446656074</v>
+        <v>182.4687735297382</v>
       </c>
       <c r="F185">
-        <v>537.6208437460772</v>
+        <v>347.1528426877403</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4253,13 +4253,13 @@
         <v>10</v>
       </c>
       <c r="D186">
-        <v>308.3140811247409</v>
+        <v>296.7060117981758</v>
       </c>
       <c r="E186">
-        <v>10.41243905812337</v>
+        <v>213.0632684361553</v>
       </c>
       <c r="F186">
-        <v>606.2157231913585</v>
+        <v>380.3487551601963</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4273,13 +4273,13 @@
         <v>10</v>
       </c>
       <c r="D187">
-        <v>281.2777839652573</v>
+        <v>227.1875281799604</v>
       </c>
       <c r="E187">
-        <v>-40.01993334239916</v>
+        <v>143.49366811757</v>
       </c>
       <c r="F187">
-        <v>602.5755012729137</v>
+        <v>310.8813882423508</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4713,13 +4713,13 @@
         <v>11</v>
       </c>
       <c r="D209">
-        <v>3308.230481604494</v>
+        <v>3526.262435540689</v>
       </c>
       <c r="E209">
-        <v>2689.579520311647</v>
+        <v>2941.844031538125</v>
       </c>
       <c r="F209">
-        <v>3926.881442897342</v>
+        <v>4110.680839543252</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4733,13 +4733,13 @@
         <v>11</v>
       </c>
       <c r="D210">
-        <v>2945.006364855718</v>
+        <v>3330.802274421237</v>
       </c>
       <c r="E210">
-        <v>2110.692262039891</v>
+        <v>2740.574470169403</v>
       </c>
       <c r="F210">
-        <v>3779.320467671545</v>
+        <v>3921.03007867307</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4753,13 +4753,13 @@
         <v>11</v>
       </c>
       <c r="D211">
-        <v>3139.459532405109</v>
+        <v>3152.387406168102</v>
       </c>
       <c r="E211">
-        <v>1916.02916794507</v>
+        <v>2556.768006691666</v>
       </c>
       <c r="F211">
-        <v>4362.889896865147</v>
+        <v>3748.006805644538</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4773,13 +4773,13 @@
         <v>11</v>
       </c>
       <c r="D212">
-        <v>2664.035365568717</v>
+        <v>2994.280555717122</v>
       </c>
       <c r="E212">
-        <v>1191.090087801112</v>
+        <v>2393.820199095707</v>
       </c>
       <c r="F212">
-        <v>4136.980643336323</v>
+        <v>3594.740912338536</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4793,13 +4793,13 @@
         <v>11</v>
       </c>
       <c r="D213">
-        <v>2527.791525219758</v>
+        <v>2859.585931973621</v>
       </c>
       <c r="E213">
-        <v>706.7460451113227</v>
+        <v>2254.949577809291</v>
       </c>
       <c r="F213">
-        <v>4348.837005328193</v>
+        <v>3464.222286137951</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4813,13 +4813,13 @@
         <v>11</v>
       </c>
       <c r="D214">
-        <v>2430.121016065275</v>
+        <v>2751.225008054907</v>
       </c>
       <c r="E214">
-        <v>314.5129894133847</v>
+        <v>2143.171337411002</v>
       </c>
       <c r="F214">
-        <v>4545.729042717167</v>
+        <v>3359.278678698813</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4833,13 +4833,13 @@
         <v>11</v>
       </c>
       <c r="D215">
-        <v>2635.115414143624</v>
+        <v>2671.913727811679</v>
       </c>
       <c r="E215">
-        <v>202.7309508825215</v>
+        <v>2061.272992499074</v>
       </c>
       <c r="F215">
-        <v>5067.499877404725</v>
+        <v>3282.554463124284</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4853,13 +4853,13 @@
         <v>11</v>
       </c>
       <c r="D216">
-        <v>2433.883421450263</v>
+        <v>2624.141316464158</v>
       </c>
       <c r="E216">
-        <v>-256.3851743753748</v>
+        <v>2011.792103653476</v>
       </c>
       <c r="F216">
-        <v>5124.152017275901</v>
+        <v>3236.49052927484</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4873,13 +4873,13 @@
         <v>11</v>
       </c>
       <c r="D217">
-        <v>2241.533133075816</v>
+        <v>2610.150860669023</v>
       </c>
       <c r="E217">
-        <v>-723.9490783436622</v>
+        <v>1996.996181719506</v>
       </c>
       <c r="F217">
-        <v>5207.015344495294</v>
+        <v>3223.30553961854</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4893,13 +4893,13 @@
         <v>11</v>
       </c>
       <c r="D218">
-        <v>2193.382454013005</v>
+        <v>2631.921809523632</v>
       </c>
       <c r="E218">
-        <v>-1035.414408295374</v>
+        <v>2018.864883188808</v>
       </c>
       <c r="F218">
-        <v>5422.179316321384</v>
+        <v>3244.978735858456</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5333,13 +5333,13 @@
         <v>12</v>
       </c>
       <c r="D240">
-        <v>218.8163885738397</v>
+        <v>199.5894184980252</v>
       </c>
       <c r="E240">
-        <v>152.8670967597643</v>
+        <v>131.9115868764948</v>
       </c>
       <c r="F240">
-        <v>284.7656803879152</v>
+        <v>267.2672501195556</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5353,13 +5353,13 @@
         <v>12</v>
       </c>
       <c r="D241">
-        <v>193.7832051519708</v>
+        <v>183.0544521199902</v>
       </c>
       <c r="E241">
-        <v>118.0775398957251</v>
+        <v>107.4376729031087</v>
       </c>
       <c r="F241">
-        <v>269.4888704082165</v>
+        <v>258.6712313368717</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5373,13 +5373,13 @@
         <v>12</v>
       </c>
       <c r="D242">
-        <v>191.0375862395208</v>
+        <v>168.4389814930821</v>
       </c>
       <c r="E242">
-        <v>102.6348866915628</v>
+        <v>82.02075675534066</v>
       </c>
       <c r="F242">
-        <v>279.4402857874789</v>
+        <v>254.8572062308235</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5393,13 +5393,13 @@
         <v>12</v>
       </c>
       <c r="D243">
-        <v>189.9536237458003</v>
+        <v>154.9618244847165</v>
       </c>
       <c r="E243">
-        <v>87.02326021770699</v>
+        <v>57.12749847081555</v>
       </c>
       <c r="F243">
-        <v>292.8839872738935</v>
+        <v>252.7961504986175</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5413,13 +5413,13 @@
         <v>12</v>
       </c>
       <c r="D244">
-        <v>166.531189634289</v>
+        <v>140.1135243337012</v>
       </c>
       <c r="E244">
-        <v>53.99959589299291</v>
+        <v>32.75810732846342</v>
       </c>
       <c r="F244">
-        <v>279.062783375585</v>
+        <v>247.468941338939</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5433,13 +5433,13 @@
         <v>12</v>
       </c>
       <c r="D245">
-        <v>178.082821002067</v>
+        <v>125.3919756620772</v>
       </c>
       <c r="E245">
-        <v>54.14704891922675</v>
+        <v>8.50670523530944</v>
       </c>
       <c r="F245">
-        <v>302.0185930849072</v>
+        <v>242.277246088845</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5453,13 +5453,13 @@
         <v>12</v>
       </c>
       <c r="D246">
-        <v>151.6020671513815</v>
+        <v>110.4616618899759</v>
       </c>
       <c r="E246">
-        <v>15.913980257346</v>
+        <v>-15.59083093390691</v>
       </c>
       <c r="F246">
-        <v>287.290154045417</v>
+        <v>236.5141547138587</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5473,13 +5473,13 @@
         <v>12</v>
       </c>
       <c r="D247">
-        <v>157.8576857644202</v>
+        <v>95.23744516687839</v>
       </c>
       <c r="E247">
-        <v>14.05353734634573</v>
+        <v>-39.61833155217303</v>
       </c>
       <c r="F247">
-        <v>301.6618341824948</v>
+        <v>230.0932218859298</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5493,13 +5493,13 @@
         <v>12</v>
       </c>
       <c r="D248">
-        <v>142.0495563565667</v>
+        <v>79.83570905120266</v>
       </c>
       <c r="E248">
-        <v>-14.9475893230173</v>
+        <v>-63.59938347687392</v>
       </c>
       <c r="F248">
-        <v>299.0467020361507</v>
+        <v>223.2708015792792</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5513,13 +5513,13 @@
         <v>12</v>
       </c>
       <c r="D249">
-        <v>135.8400129950876</v>
+        <v>64.21912740856399</v>
       </c>
       <c r="E249">
-        <v>-28.39833146052877</v>
+        <v>-87.55522267476681</v>
       </c>
       <c r="F249">
-        <v>300.0783574507039</v>
+        <v>215.9934774918948</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5953,13 +5953,13 @@
         <v>13</v>
       </c>
       <c r="D271">
-        <v>384</v>
+        <v>412.6895554166636</v>
       </c>
       <c r="E271">
-        <v>255.3466101695803</v>
+        <v>303.2032106186781</v>
       </c>
       <c r="F271">
-        <v>512.6533898304197</v>
+        <v>522.175900214649</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5973,13 +5973,13 @@
         <v>13</v>
       </c>
       <c r="D272">
-        <v>384</v>
+        <v>396.5886260127329</v>
       </c>
       <c r="E272">
-        <v>202.0566312565471</v>
+        <v>268.7446716357952</v>
       </c>
       <c r="F272">
-        <v>565.9433687434529</v>
+        <v>524.4325803896706</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5993,13 +5993,13 @@
         <v>13</v>
       </c>
       <c r="D273">
-        <v>384</v>
+        <v>376.6231063537878</v>
       </c>
       <c r="E273">
-        <v>161.1657922477471</v>
+        <v>216.8360111868104</v>
       </c>
       <c r="F273">
-        <v>606.834207752253</v>
+        <v>536.4102015207652</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6013,13 +6013,13 @@
         <v>13</v>
       </c>
       <c r="D274">
-        <v>384</v>
+        <v>337.1445606249843</v>
       </c>
       <c r="E274">
-        <v>126.6932203391594</v>
+        <v>154.4664140362639</v>
       </c>
       <c r="F274">
-        <v>641.3067796608406</v>
+        <v>519.8227072137047</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6033,13 +6033,13 @@
         <v>13</v>
       </c>
       <c r="D275">
-        <v>384</v>
+        <v>332.1189680043268</v>
       </c>
       <c r="E275">
-        <v>96.32227480339998</v>
+        <v>98.67716996426424</v>
       </c>
       <c r="F275">
-        <v>671.6777251966</v>
+        <v>565.5607660443893</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6053,13 +6053,13 @@
         <v>13</v>
       </c>
       <c r="D276">
-        <v>384</v>
+        <v>349.3479219467475</v>
       </c>
       <c r="E276">
-        <v>68.86484123609966</v>
+        <v>70.91713385572587</v>
       </c>
       <c r="F276">
-        <v>699.1351587639003</v>
+        <v>627.7787100377692</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6073,13 +6073,13 @@
         <v>13</v>
       </c>
       <c r="D277">
-        <v>384</v>
+        <v>338.238806366438</v>
       </c>
       <c r="E277">
-        <v>43.6151251832614</v>
+        <v>23.24098247889771</v>
       </c>
       <c r="F277">
-        <v>724.3848748167386</v>
+        <v>653.2366302539783</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6093,13 +6093,13 @@
         <v>13</v>
       </c>
       <c r="D278">
-        <v>384</v>
+        <v>333.9672445138553</v>
       </c>
       <c r="E278">
-        <v>20.11326251309328</v>
+        <v>-20.46976967285747</v>
       </c>
       <c r="F278">
-        <v>747.8867374869067</v>
+        <v>688.4042587005681</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6113,13 +6113,13 @@
         <v>13</v>
       </c>
       <c r="D279">
-        <v>384</v>
+        <v>335.5752085192148</v>
       </c>
       <c r="E279">
-        <v>-1.960169491261297</v>
+        <v>-61.30940006224074</v>
       </c>
       <c r="F279">
-        <v>769.9601694912612</v>
+        <v>732.4598171006703</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6133,13 +6133,13 @@
         <v>13</v>
       </c>
       <c r="D280">
-        <v>384</v>
+        <v>361.6377365081229</v>
       </c>
       <c r="E280">
-        <v>-22.83774056567233</v>
+        <v>-82.53028764683717</v>
       </c>
       <c r="F280">
-        <v>790.8377405656723</v>
+        <v>805.805760663083</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -6573,13 +6573,13 @@
         <v>14</v>
       </c>
       <c r="D302">
-        <v>396.6033450353873</v>
+        <v>384.7333272606529</v>
       </c>
       <c r="E302">
-        <v>297.6450931301353</v>
+        <v>303.7755945734503</v>
       </c>
       <c r="F302">
-        <v>495.5615969406394</v>
+        <v>465.6910599478555</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -6593,13 +6593,13 @@
         <v>14</v>
       </c>
       <c r="D303">
-        <v>354.6275958766273</v>
+        <v>354.9783191583485</v>
       </c>
       <c r="E303">
-        <v>240.73746587113</v>
+        <v>272.6815296418337</v>
       </c>
       <c r="F303">
-        <v>468.5177258821245</v>
+        <v>437.2751086748634</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -6613,13 +6613,13 @@
         <v>14</v>
       </c>
       <c r="D304">
-        <v>359.3924503755432</v>
+        <v>359.1235050760562</v>
       </c>
       <c r="E304">
-        <v>219.192272346037</v>
+        <v>265.5287109541581</v>
       </c>
       <c r="F304">
-        <v>499.5926284050494</v>
+        <v>452.7182991979543</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -6633,13 +6633,13 @@
         <v>14</v>
       </c>
       <c r="D305">
-        <v>349.0489892209462</v>
+        <v>374.365970339412</v>
       </c>
       <c r="E305">
-        <v>187.6302909284104</v>
+        <v>271.7442774377405</v>
       </c>
       <c r="F305">
-        <v>510.4676875134819</v>
+        <v>476.9876632410835</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -6653,13 +6653,13 @@
         <v>14</v>
       </c>
       <c r="D306">
-        <v>337.1322768345919</v>
+        <v>381.9673362282217</v>
       </c>
       <c r="E306">
-        <v>153.5197054646438</v>
+        <v>277.1455788370546</v>
       </c>
       <c r="F306">
-        <v>520.7448482045401</v>
+        <v>486.7890936193888</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -6673,13 +6673,13 @@
         <v>14</v>
       </c>
       <c r="D307">
-        <v>345.0887814905113</v>
+        <v>375.0181736385941</v>
       </c>
       <c r="E307">
-        <v>138.252103419577</v>
+        <v>270.5759159139277</v>
       </c>
       <c r="F307">
-        <v>551.9254595614457</v>
+        <v>479.4604313632605</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -6693,13 +6693,13 @@
         <v>14</v>
       </c>
       <c r="D308">
-        <v>334.8004909690358</v>
+        <v>356.9133878536085</v>
       </c>
       <c r="E308">
-        <v>109.4179709582143</v>
+        <v>252.6562051907199</v>
       </c>
       <c r="F308">
-        <v>560.1830109798573</v>
+        <v>461.1705705164972</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -6713,13 +6713,13 @@
         <v>14</v>
       </c>
       <c r="D309">
-        <v>337.8551270920094</v>
+        <v>335.2561395700881</v>
       </c>
       <c r="E309">
-        <v>92.70662866759326</v>
+        <v>231.1121748063102</v>
       </c>
       <c r="F309">
-        <v>583.0036255164255</v>
+        <v>439.4001043338661</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -6733,13 +6733,13 @@
         <v>14</v>
       </c>
       <c r="D310">
-        <v>334.2719437672208</v>
+        <v>316.2195477471644</v>
       </c>
       <c r="E310">
-        <v>71.51667470092866</v>
+        <v>212.2364221780416</v>
       </c>
       <c r="F310">
-        <v>597.0272128335129</v>
+        <v>420.2026733162872</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -6753,13 +6753,13 @@
         <v>14</v>
       </c>
       <c r="D311">
-        <v>334.0979478974141</v>
+        <v>302.0274674898077</v>
       </c>
       <c r="E311">
-        <v>54.04711693028827</v>
+        <v>197.9070976779547</v>
       </c>
       <c r="F311">
-        <v>614.14877886454</v>
+        <v>406.1478373016608</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -7193,13 +7193,13 @@
         <v>15</v>
       </c>
       <c r="D333">
-        <v>466.4224724224878</v>
+        <v>465.8451362280201</v>
       </c>
       <c r="E333">
-        <v>385.7430240074744</v>
+        <v>389.6196129944411</v>
       </c>
       <c r="F333">
-        <v>547.1019208375012</v>
+        <v>542.070659461599</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7213,13 +7213,13 @@
         <v>15</v>
       </c>
       <c r="D334">
-        <v>449.7492252969394</v>
+        <v>449.2376055693921</v>
       </c>
       <c r="E334">
-        <v>365.0710523652081</v>
+        <v>370.9419699968409</v>
       </c>
       <c r="F334">
-        <v>534.4273982286707</v>
+        <v>527.5332411419434</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7233,13 +7233,13 @@
         <v>15</v>
       </c>
       <c r="D335">
-        <v>435.57971895088</v>
+        <v>433.5130599535025</v>
       </c>
       <c r="E335">
-        <v>345.1478839006977</v>
+        <v>351.9217446540151</v>
       </c>
       <c r="F335">
-        <v>526.0115540010622</v>
+        <v>515.1043752529901</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7253,13 +7253,13 @@
         <v>15</v>
       </c>
       <c r="D336">
-        <v>397.5339040131103</v>
+        <v>393.8401294148712</v>
       </c>
       <c r="E336">
-        <v>304.7397232875729</v>
+        <v>311.18013050748</v>
       </c>
       <c r="F336">
-        <v>490.3280847386476</v>
+        <v>476.5001283222624</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7273,13 +7273,13 @@
         <v>15</v>
       </c>
       <c r="D337">
-        <v>386.3774742324044</v>
+        <v>383.1424092715629</v>
       </c>
       <c r="E337">
-        <v>278.8407692699527</v>
+        <v>288.7071361648658</v>
       </c>
       <c r="F337">
-        <v>493.9141791948562</v>
+        <v>477.57768237826</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7293,13 +7293,13 @@
         <v>15</v>
       </c>
       <c r="D338">
-        <v>365.7213586666177</v>
+        <v>362.284068401948</v>
       </c>
       <c r="E338">
-        <v>252.3923007542962</v>
+        <v>264.9719344748141</v>
       </c>
       <c r="F338">
-        <v>479.0504165789393</v>
+        <v>459.596202329082</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7313,13 +7313,13 @@
         <v>15</v>
       </c>
       <c r="D339">
-        <v>349.9280824577697</v>
+        <v>345.502952724602</v>
       </c>
       <c r="E339">
-        <v>229.1361699584506</v>
+        <v>244.181425688237</v>
       </c>
       <c r="F339">
-        <v>470.7199949570888</v>
+        <v>446.824479760967</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7333,13 +7333,13 @@
         <v>15</v>
       </c>
       <c r="D340">
-        <v>323.1551879916206</v>
+        <v>317.1533296336427</v>
       </c>
       <c r="E340">
-        <v>197.5778021814991</v>
+        <v>213.7290933774607</v>
       </c>
       <c r="F340">
-        <v>448.7325738017421</v>
+        <v>420.5775658898246</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7353,13 +7353,13 @@
         <v>15</v>
       </c>
       <c r="D341">
-        <v>306.3057325366841</v>
+        <v>300.3521870658567</v>
       </c>
       <c r="E341">
-        <v>171.6478795331533</v>
+        <v>191.3241349275164</v>
       </c>
       <c r="F341">
-        <v>440.9635855402149</v>
+        <v>409.380239204197</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7373,13 +7373,13 @@
         <v>15</v>
       </c>
       <c r="D342">
-        <v>285.2260878260123</v>
+        <v>278.7874768378804</v>
       </c>
       <c r="E342">
-        <v>144.1533675272823</v>
+        <v>166.7930297583747</v>
       </c>
       <c r="F342">
-        <v>426.2988081247423</v>
+        <v>390.7819239173861</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7813,13 +7813,13 @@
         <v>16</v>
       </c>
       <c r="D364">
-        <v>350.6479980496371</v>
+        <v>335.8255444760789</v>
       </c>
       <c r="E364">
-        <v>284.3842401187146</v>
+        <v>269.1997009487806</v>
       </c>
       <c r="F364">
-        <v>416.9117559805596</v>
+        <v>402.4513880033772</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7833,13 +7833,13 @@
         <v>16</v>
       </c>
       <c r="D365">
-        <v>329.3917216737301</v>
+        <v>297.1748383656798</v>
       </c>
       <c r="E365">
-        <v>258.8760649943674</v>
+        <v>224.0217644382556</v>
       </c>
       <c r="F365">
-        <v>399.9073783530928</v>
+        <v>370.3279122931039</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7853,13 +7853,13 @@
         <v>16</v>
       </c>
       <c r="D366">
-        <v>352.9063280009908</v>
+        <v>297.5902012691852</v>
       </c>
       <c r="E366">
-        <v>279.5753525385916</v>
+        <v>219.2496169507359</v>
       </c>
       <c r="F366">
-        <v>426.2373034633899</v>
+        <v>375.9307855876345</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7873,13 +7873,13 @@
         <v>16</v>
       </c>
       <c r="D367">
-        <v>322.2009233084234</v>
+        <v>258.5258452893455</v>
       </c>
       <c r="E367">
-        <v>245.3318797934355</v>
+        <v>168.8742668735023</v>
       </c>
       <c r="F367">
-        <v>399.0699668234113</v>
+        <v>348.1774237051887</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7893,13 +7893,13 @@
         <v>16</v>
       </c>
       <c r="D368">
-        <v>343.9314882756499</v>
+        <v>271.6087337293229</v>
       </c>
       <c r="E368">
-        <v>259.3970473154096</v>
+        <v>173.3036360202071</v>
       </c>
       <c r="F368">
-        <v>428.4659292358901</v>
+        <v>369.9138314384386</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7913,13 +7913,13 @@
         <v>16</v>
       </c>
       <c r="D369">
-        <v>314.4523715821427</v>
+        <v>224.6399585750277</v>
       </c>
       <c r="E369">
-        <v>220.8286355923039</v>
+        <v>120.3318997108729</v>
       </c>
       <c r="F369">
-        <v>408.0761075719815</v>
+        <v>328.9480174391824</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7933,13 +7933,13 @@
         <v>16</v>
       </c>
       <c r="D370">
-        <v>338.1858877051082</v>
+        <v>236.0321309649861</v>
       </c>
       <c r="E370">
-        <v>232.128403135953</v>
+        <v>123.3106429510457</v>
       </c>
       <c r="F370">
-        <v>444.2433722742634</v>
+        <v>348.7536189789264</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7953,13 +7953,13 @@
         <v>16</v>
       </c>
       <c r="D371">
-        <v>310.5753670313683</v>
+        <v>192.5601939656527</v>
       </c>
       <c r="E371">
-        <v>192.9917235921752</v>
+        <v>73.22549330577077</v>
       </c>
       <c r="F371">
-        <v>428.1590104705613</v>
+        <v>311.8948946255346</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7973,13 +7973,13 @@
         <v>16</v>
       </c>
       <c r="D372">
-        <v>335.7408122995834</v>
+        <v>202.3865769715304</v>
       </c>
       <c r="E372">
-        <v>205.0967810929467</v>
+        <v>76.34797552084278</v>
       </c>
       <c r="F372">
-        <v>466.38484350622</v>
+        <v>328.4251784222179</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7993,13 +7993,13 @@
         <v>16</v>
       </c>
       <c r="D373">
-        <v>309.1272317836065</v>
+        <v>158.2996444670176</v>
       </c>
       <c r="E373">
-        <v>167.3142967425447</v>
+        <v>26.28014795146319</v>
       </c>
       <c r="F373">
-        <v>450.9401668246683</v>
+        <v>290.3191409825721</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8433,13 +8433,13 @@
         <v>17</v>
       </c>
       <c r="D395">
-        <v>75.37690004535723</v>
+        <v>66.6048697997728</v>
       </c>
       <c r="E395">
-        <v>54.06185941731842</v>
+        <v>53.36039244479735</v>
       </c>
       <c r="F395">
-        <v>96.69194067339605</v>
+        <v>79.84934715474824</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8453,13 +8453,13 @@
         <v>17</v>
       </c>
       <c r="D396">
-        <v>79.40378426102002</v>
+        <v>61.93286375193517</v>
       </c>
       <c r="E396">
-        <v>48.84486377429339</v>
+        <v>48.60414808930386</v>
       </c>
       <c r="F396">
-        <v>109.9627047477467</v>
+        <v>75.26157941456648</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8473,13 +8473,13 @@
         <v>17</v>
       </c>
       <c r="D397">
-        <v>79.76002223737773</v>
+        <v>59.50392243014151</v>
       </c>
       <c r="E397">
-        <v>44.54810005509971</v>
+        <v>45.01958492011045</v>
       </c>
       <c r="F397">
-        <v>114.9719444196557</v>
+        <v>73.98825994017258</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8493,13 +8493,13 @@
         <v>17</v>
       </c>
       <c r="D398">
-        <v>78.69070859591997</v>
+        <v>57.76128376184843</v>
       </c>
       <c r="E398">
-        <v>40.9884893320315</v>
+        <v>41.83212650886309</v>
       </c>
       <c r="F398">
-        <v>116.3929278598085</v>
+        <v>73.69044101483378</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8513,13 +8513,13 @@
         <v>17</v>
       </c>
       <c r="D399">
-        <v>77.87396318714465</v>
+        <v>55.38880490157696</v>
       </c>
       <c r="E399">
-        <v>37.59502334447005</v>
+        <v>39.16668638269095</v>
       </c>
       <c r="F399">
-        <v>118.1529030298193</v>
+        <v>71.61092342046297</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8533,13 +8533,13 @@
         <v>17</v>
       </c>
       <c r="D400">
-        <v>78.01023941573995</v>
+        <v>51.95933140711031</v>
       </c>
       <c r="E400">
-        <v>34.74026681669208</v>
+        <v>35.70849753455852</v>
       </c>
       <c r="F400">
-        <v>121.2802120147878</v>
+        <v>68.21016527966211</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8553,13 +8553,13 @@
         <v>17</v>
       </c>
       <c r="D401">
-        <v>78.37283301499177</v>
+        <v>47.81725776401279</v>
       </c>
       <c r="E401">
-        <v>32.0921624120073</v>
+        <v>31.24034566112872</v>
       </c>
       <c r="F401">
-        <v>124.6535036179762</v>
+        <v>64.39416986689686</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8573,13 +8573,13 @@
         <v>17</v>
       </c>
       <c r="D402">
-        <v>78.49923000355656</v>
+        <v>43.57145237310063</v>
       </c>
       <c r="E402">
-        <v>29.53941106505977</v>
+        <v>26.71463933012021</v>
       </c>
       <c r="F402">
-        <v>127.4590489420534</v>
+        <v>60.42826541608105</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8593,13 +8593,13 @@
         <v>17</v>
       </c>
       <c r="D403">
-        <v>78.40334559414444</v>
+        <v>39.64337003095682</v>
       </c>
       <c r="E403">
-        <v>27.03483665332122</v>
+        <v>22.71864298945479</v>
       </c>
       <c r="F403">
-        <v>129.7718545349676</v>
+        <v>56.56809707245885</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8613,13 +8613,13 @@
         <v>17</v>
       </c>
       <c r="D404">
-        <v>78.31025524205793</v>
+        <v>36.1040540877796</v>
       </c>
       <c r="E404">
-        <v>24.64904737647473</v>
+        <v>19.17930649774767</v>
       </c>
       <c r="F404">
-        <v>131.9714631076411</v>
+        <v>53.02880167781154</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9053,13 +9053,13 @@
         <v>18</v>
       </c>
       <c r="D426">
-        <v>148.592334301496</v>
+        <v>152.9573406931705</v>
       </c>
       <c r="E426">
-        <v>101.8978033494255</v>
+        <v>107.5700867342677</v>
       </c>
       <c r="F426">
-        <v>195.2868652535665</v>
+        <v>198.3445946520734</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9073,13 +9073,13 @@
         <v>18</v>
       </c>
       <c r="D427">
-        <v>116.2403324289903</v>
+        <v>134.3380008382035</v>
       </c>
       <c r="E427">
-        <v>67.80771566015116</v>
+        <v>86.92562266056792</v>
       </c>
       <c r="F427">
-        <v>164.6729491978294</v>
+        <v>181.7503790158391</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9093,13 +9093,13 @@
         <v>18</v>
       </c>
       <c r="D428">
-        <v>127.6502203438381</v>
+        <v>142.4582124616527</v>
       </c>
       <c r="E428">
-        <v>67.07587281841546</v>
+        <v>69.13260186335798</v>
       </c>
       <c r="F428">
-        <v>188.2245678692607</v>
+        <v>215.7838230599475</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9113,13 +9113,13 @@
         <v>18</v>
       </c>
       <c r="D429">
-        <v>109.0093187102599</v>
+        <v>131.7037361877911</v>
       </c>
       <c r="E429">
-        <v>40.90043591761838</v>
+        <v>40.70174253354129</v>
       </c>
       <c r="F429">
-        <v>177.1182015029015</v>
+        <v>222.7057298420409</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9133,13 +9133,13 @@
         <v>18</v>
       </c>
       <c r="D430">
-        <v>110.6373214328596</v>
+        <v>140.2438282600824</v>
       </c>
       <c r="E430">
-        <v>29.62552995073419</v>
+        <v>33.29808506567872</v>
       </c>
       <c r="F430">
-        <v>191.649112914985</v>
+        <v>247.1895714544862</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9153,13 +9153,13 @@
         <v>18</v>
       </c>
       <c r="D431">
-        <v>111.1550352624329</v>
+        <v>129.5736249195527</v>
       </c>
       <c r="E431">
-        <v>21.67605953577615</v>
+        <v>10.53254772915136</v>
       </c>
       <c r="F431">
-        <v>200.6340109890896</v>
+        <v>248.614702109954</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9173,13 +9173,13 @@
         <v>18</v>
       </c>
       <c r="D432">
-        <v>101.1331584662793</v>
+        <v>138.1613409763331</v>
       </c>
       <c r="E432">
-        <v>3.191160386465228</v>
+        <v>7.238262285089462</v>
       </c>
       <c r="F432">
-        <v>199.0751565460933</v>
+        <v>269.0844196675768</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9193,13 +9193,13 @@
         <v>18</v>
       </c>
       <c r="D433">
-        <v>106.3651153306759</v>
+        <v>127.5559984440692</v>
       </c>
       <c r="E433">
-        <v>-2.25962487905467</v>
+        <v>-12.81451698843848</v>
       </c>
       <c r="F433">
-        <v>214.9898555404065</v>
+        <v>267.926513876577</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9213,13 +9213,13 @@
         <v>18</v>
       </c>
       <c r="D434">
-        <v>98.41641081037466</v>
+        <v>136.1887767381317</v>
       </c>
       <c r="E434">
-        <v>-18.18538235036229</v>
+        <v>-13.8067026791978</v>
       </c>
       <c r="F434">
-        <v>215.0182039711116</v>
+        <v>286.1842561554611</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9233,13 +9233,13 @@
         <v>18</v>
       </c>
       <c r="D435">
-        <v>103.3432943051043</v>
+        <v>125.6465418663185</v>
       </c>
       <c r="E435">
-        <v>-22.44972302308835</v>
+        <v>-32.15640117379685</v>
       </c>
       <c r="F435">
-        <v>229.1363116332969</v>
+        <v>283.4494849064339</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9673,13 +9673,13 @@
         <v>19</v>
       </c>
       <c r="D457">
-        <v>425</v>
+        <v>425.6379039563197</v>
       </c>
       <c r="E457">
-        <v>303.5869430291519</v>
+        <v>341.0405643286173</v>
       </c>
       <c r="F457">
-        <v>546.4130569708481</v>
+        <v>510.2352435840222</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -9693,13 +9693,13 @@
         <v>19</v>
       </c>
       <c r="D458">
-        <v>425</v>
+        <v>433.8594656107435</v>
       </c>
       <c r="E458">
-        <v>253.2960081826483</v>
+        <v>317.0547322589445</v>
       </c>
       <c r="F458">
-        <v>596.7039918173517</v>
+        <v>550.6641989625425</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -9713,13 +9713,13 @@
         <v>19</v>
       </c>
       <c r="D459">
-        <v>425</v>
+        <v>353.2849934394378</v>
       </c>
       <c r="E459">
-        <v>214.7064166242347</v>
+        <v>208.9821179837739</v>
       </c>
       <c r="F459">
-        <v>635.2935833757653</v>
+        <v>497.5878688951017</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -9733,13 +9733,13 @@
         <v>19</v>
       </c>
       <c r="D460">
-        <v>425</v>
+        <v>321.7154440382271</v>
       </c>
       <c r="E460">
-        <v>182.1738860583016</v>
+        <v>154.1184688832898</v>
       </c>
       <c r="F460">
-        <v>667.8261139416984</v>
+        <v>489.3124191931645</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -9753,13 +9753,13 @@
         <v>19</v>
       </c>
       <c r="D461">
-        <v>425</v>
+        <v>326.6305933602583</v>
       </c>
       <c r="E461">
-        <v>153.5121512571263</v>
+        <v>101.6733884151305</v>
       </c>
       <c r="F461">
-        <v>696.4878487428737</v>
+        <v>551.5877983053861</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9773,13 +9773,13 @@
         <v>19</v>
       </c>
       <c r="D462">
-        <v>425</v>
+        <v>337.5416391730722</v>
       </c>
       <c r="E462">
-        <v>127.5999623099549</v>
+        <v>71.64742759673049</v>
       </c>
       <c r="F462">
-        <v>722.4000376900451</v>
+        <v>603.4358507494138</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -9793,13 +9793,13 @@
         <v>19</v>
       </c>
       <c r="D463">
-        <v>425</v>
+        <v>282.8871939919171</v>
       </c>
       <c r="E463">
-        <v>103.7712453390154</v>
+        <v>-20.63374930135791</v>
       </c>
       <c r="F463">
-        <v>746.2287546609846</v>
+        <v>586.4081372851922</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -9813,13 +9813,13 @@
         <v>19</v>
       </c>
       <c r="D464">
-        <v>425</v>
+        <v>272.1627125225617</v>
       </c>
       <c r="E464">
-        <v>81.59201636529502</v>
+        <v>-64.07151601839519</v>
       </c>
       <c r="F464">
-        <v>768.407983634705</v>
+        <v>608.3969410635186</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -9833,13 +9833,13 @@
         <v>19</v>
       </c>
       <c r="D465">
-        <v>425</v>
+        <v>285.5846269418893</v>
       </c>
       <c r="E465">
-        <v>60.76082908745173</v>
+        <v>-101.7398427873163</v>
       </c>
       <c r="F465">
-        <v>789.2391709125483</v>
+        <v>672.9090966710949</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -9853,13 +9853,13 @@
         <v>19</v>
       </c>
       <c r="D466">
-        <v>425</v>
+        <v>304.2769617520086</v>
       </c>
       <c r="E466">
-        <v>41.0582022883321</v>
+        <v>-122.7339545669385</v>
       </c>
       <c r="F466">
-        <v>808.941797711668</v>
+        <v>731.2878780709557</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -10293,13 +10293,13 @@
         <v>20</v>
       </c>
       <c r="D488">
-        <v>144.4909130653612</v>
+        <v>166.479376560539</v>
       </c>
       <c r="E488">
-        <v>91.87050272706472</v>
+        <v>126.1934772406412</v>
       </c>
       <c r="F488">
-        <v>197.1113234036577</v>
+        <v>206.7652758804367</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -10313,13 +10313,13 @@
         <v>20</v>
       </c>
       <c r="D489">
-        <v>142.9022565640546</v>
+        <v>167.8184369857067</v>
       </c>
       <c r="E489">
-        <v>77.15793010616306</v>
+        <v>127.1331850114252</v>
       </c>
       <c r="F489">
-        <v>208.6465830219462</v>
+        <v>208.5036889599882</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -10333,13 +10333,13 @@
         <v>20</v>
       </c>
       <c r="D490">
-        <v>147.0357166389548</v>
+        <v>160.6840218904189</v>
       </c>
       <c r="E490">
-        <v>71.18540376188767</v>
+        <v>119.8672899338902</v>
       </c>
       <c r="F490">
-        <v>222.886029516022</v>
+        <v>201.5007538469475</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -10353,13 +10353,13 @@
         <v>20</v>
       </c>
       <c r="D491">
-        <v>145.3558172426785</v>
+        <v>143.409066211164</v>
       </c>
       <c r="E491">
-        <v>63.53423985299274</v>
+        <v>101.0148355919053</v>
       </c>
       <c r="F491">
-        <v>227.1773946323643</v>
+        <v>185.8032968304227</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -10373,13 +10373,13 @@
         <v>20</v>
       </c>
       <c r="D492">
-        <v>146.0385532387865</v>
+        <v>130.4484516777252</v>
       </c>
       <c r="E492">
-        <v>57.59150922335353</v>
+        <v>87.7278501057761</v>
       </c>
       <c r="F492">
-        <v>234.4855972542195</v>
+        <v>173.1690532496744</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -10393,13 +10393,13 @@
         <v>20</v>
       </c>
       <c r="D493">
-        <v>145.7610792177738</v>
+        <v>123.8306220744506</v>
       </c>
       <c r="E493">
-        <v>51.5638684099538</v>
+        <v>81.08378203939327</v>
       </c>
       <c r="F493">
-        <v>239.9582900255939</v>
+        <v>166.5774621095079</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -10413,13 +10413,13 @@
         <v>20</v>
       </c>
       <c r="D494">
-        <v>145.873848769659</v>
+        <v>122.0025322103988</v>
       </c>
       <c r="E494">
-        <v>46.10079254820994</v>
+        <v>78.84832968813683</v>
       </c>
       <c r="F494">
-        <v>245.646904991108</v>
+        <v>165.1567347326609</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -10433,13 +10433,13 @@
         <v>20</v>
       </c>
       <c r="D495">
-        <v>145.8280175535114</v>
+        <v>120.3264937477697</v>
       </c>
       <c r="E495">
-        <v>40.83549733585426</v>
+        <v>76.87265006679961</v>
       </c>
       <c r="F495">
-        <v>250.8205377711685</v>
+        <v>163.7803374287398</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -10453,13 +10453,13 @@
         <v>20</v>
       </c>
       <c r="D496">
-        <v>145.8466440385728</v>
+        <v>116.2389392269507</v>
       </c>
       <c r="E496">
-        <v>35.85854763173533</v>
+        <v>72.74912580624991</v>
       </c>
       <c r="F496">
-        <v>255.8347404454102</v>
+        <v>159.7287526476515</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -10473,13 +10473,13 @@
         <v>20</v>
       </c>
       <c r="D497">
-        <v>145.8390739591617</v>
+        <v>109.7379777232587</v>
       </c>
       <c r="E497">
-        <v>31.08183268520423</v>
+        <v>66.27305308615837</v>
       </c>
       <c r="F497">
-        <v>260.5963152331192</v>
+        <v>153.202902360359</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -10913,13 +10913,13 @@
         <v>21</v>
       </c>
       <c r="D519">
-        <v>168.7386893165455</v>
+        <v>154.8980330131194</v>
       </c>
       <c r="E519">
-        <v>44.49978147156639</v>
+        <v>37.36395277249099</v>
       </c>
       <c r="F519">
-        <v>292.9775971615246</v>
+        <v>272.4321132537478</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -10933,13 +10933,13 @@
         <v>21</v>
       </c>
       <c r="D520">
-        <v>150.6495657499688</v>
+        <v>127.608579354715</v>
       </c>
       <c r="E520">
-        <v>4.555718506595241</v>
+        <v>-2.541146650257588</v>
       </c>
       <c r="F520">
-        <v>296.7434129933423</v>
+        <v>257.7583053596876</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -10953,13 +10953,13 @@
         <v>21</v>
       </c>
       <c r="D521">
-        <v>148.500331054137</v>
+        <v>115.512031419671</v>
       </c>
       <c r="E521">
-        <v>-32.28312280827288</v>
+        <v>-35.51057316090342</v>
       </c>
       <c r="F521">
-        <v>329.2837849165468</v>
+        <v>266.5346360002453</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -10973,13 +10973,13 @@
         <v>21</v>
       </c>
       <c r="D522">
-        <v>152.3951016927639</v>
+        <v>100.4066258024195</v>
       </c>
       <c r="E522">
-        <v>-57.19432256532005</v>
+        <v>-66.57188907859944</v>
       </c>
       <c r="F522">
-        <v>361.9845259508479</v>
+        <v>267.3851406834384</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -10993,13 +10993,13 @@
         <v>21</v>
       </c>
       <c r="D523">
-        <v>148.4883190211369</v>
+        <v>85.44942156530982</v>
       </c>
       <c r="E523">
-        <v>-85.10826065180018</v>
+        <v>-96.27895980476342</v>
       </c>
       <c r="F523">
-        <v>382.0848986940739</v>
+        <v>267.1778029353831</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -11013,13 +11013,13 @@
         <v>21</v>
       </c>
       <c r="D524">
-        <v>150.0763761703745</v>
+        <v>70.70482027207714</v>
       </c>
       <c r="E524">
-        <v>-107.2148914280486</v>
+        <v>-124.6196544765303</v>
       </c>
       <c r="F524">
-        <v>407.3676437687977</v>
+        <v>266.0292950206846</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -11033,13 +11033,13 @@
         <v>21</v>
       </c>
       <c r="D525">
-        <v>149.5857635072093</v>
+        <v>55.84265001395494</v>
       </c>
       <c r="E525">
-        <v>-128.5837569372464</v>
+        <v>-152.0699697351694</v>
       </c>
       <c r="F525">
-        <v>427.7552839516649</v>
+        <v>263.7552697630793</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -11053,13 +11053,13 @@
         <v>21</v>
       </c>
       <c r="D526">
-        <v>149.4407344613635</v>
+        <v>41.02892725841963</v>
       </c>
       <c r="E526">
-        <v>-148.4627424007321</v>
+        <v>-178.6960725913569</v>
       </c>
       <c r="F526">
-        <v>447.3442113234591</v>
+        <v>260.7539271081962</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -11073,13 +11073,13 @@
         <v>21</v>
       </c>
       <c r="D527">
-        <v>149.6454450197541</v>
+        <v>26.208116723025</v>
       </c>
       <c r="E527">
-        <v>-166.7776211529182</v>
+        <v>-204.6510131441621</v>
       </c>
       <c r="F527">
-        <v>466.0685111924263</v>
+        <v>257.0672465902121</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -11093,13 +11093,13 @@
         <v>21</v>
       </c>
       <c r="D528">
-        <v>149.4936371180762</v>
+        <v>11.39354530826324</v>
       </c>
       <c r="E528">
-        <v>-184.3618358440524</v>
+        <v>-230.0217450902828</v>
       </c>
       <c r="F528">
-        <v>483.3491100802048</v>
+        <v>252.8088357068093</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -11533,13 +11533,13 @@
         <v>22</v>
       </c>
       <c r="D550">
-        <v>88.61037282180074</v>
+        <v>87.31735581112233</v>
       </c>
       <c r="E550">
-        <v>-391.4669092969175</v>
+        <v>-387.5401087617402</v>
       </c>
       <c r="F550">
-        <v>568.687654940519</v>
+        <v>562.1748203839849</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11553,13 +11553,13 @@
         <v>22</v>
       </c>
       <c r="D551">
-        <v>87.09962292722163</v>
+        <v>86.12255548513022</v>
       </c>
       <c r="E551">
-        <v>-579.9833093933879</v>
+        <v>-608.8510120471101</v>
       </c>
       <c r="F551">
-        <v>754.1825552478311</v>
+        <v>781.0961230173705</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -11573,13 +11573,13 @@
         <v>22</v>
       </c>
       <c r="D552">
-        <v>87.09962292722163</v>
+        <v>87.20620183711667</v>
       </c>
       <c r="E552">
-        <v>-731.3957599159756</v>
+        <v>-756.2251223300754</v>
       </c>
       <c r="F552">
-        <v>905.5950057704189</v>
+        <v>930.6375260043086</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -11593,13 +11593,13 @@
         <v>22</v>
       </c>
       <c r="D553">
-        <v>87.09962292722163</v>
+        <v>86.22336864681061</v>
       </c>
       <c r="E553">
-        <v>-858.8759290178598</v>
+        <v>-896.6813100551969</v>
       </c>
       <c r="F553">
-        <v>1033.075174872303</v>
+        <v>1069.128047348818</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -11613,13 +11613,13 @@
         <v>22</v>
       </c>
       <c r="D554">
-        <v>87.09962292722163</v>
+        <v>87.11476746728046</v>
       </c>
       <c r="E554">
-        <v>-971.1086732129907</v>
+        <v>-1006.908198388898</v>
       </c>
       <c r="F554">
-        <v>1145.307919067434</v>
+        <v>1181.137733323459</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -11633,13 +11633,13 @@
         <v>22</v>
       </c>
       <c r="D555">
-        <v>87.09962292722163</v>
+        <v>86.30629674714982</v>
       </c>
       <c r="E555">
-        <v>-1072.529563995107</v>
+        <v>-1117.579114660921</v>
       </c>
       <c r="F555">
-        <v>1246.72880984955</v>
+        <v>1290.191708155221</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -11653,13 +11653,13 @@
         <v>22</v>
       </c>
       <c r="D556">
-        <v>87.09962292722163</v>
+        <v>87.03955428608626</v>
       </c>
       <c r="E556">
-        <v>-1165.767051665215</v>
+        <v>-1209.920092184857</v>
       </c>
       <c r="F556">
-        <v>1339.966297519658</v>
+        <v>1383.99920075703</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -11673,13 +11673,13 @@
         <v>22</v>
       </c>
       <c r="D557">
-        <v>87.09962292722163</v>
+        <v>86.37451273910204</v>
       </c>
       <c r="E557">
-        <v>-1252.530907273729</v>
+        <v>-1303.840051033644</v>
       </c>
       <c r="F557">
-        <v>1426.730153128172</v>
+        <v>1476.589076511848</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -11693,13 +11693,13 @@
         <v>22</v>
       </c>
       <c r="D558">
-        <v>87.09962292722163</v>
+        <v>86.97768452490688</v>
       </c>
       <c r="E558">
-        <v>-1334.007343697265</v>
+        <v>-1385.12786906468</v>
       </c>
       <c r="F558">
-        <v>1508.206589551708</v>
+        <v>1559.083238114494</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -11713,13 +11713,13 @@
         <v>22</v>
       </c>
       <c r="D559">
-        <v>87.09962292722163</v>
+        <v>86.43062666838527</v>
       </c>
       <c r="E559">
-        <v>-1411.059268422697</v>
+        <v>-1467.969645411311</v>
       </c>
       <c r="F559">
-        <v>1585.25851427714</v>
+        <v>1640.830898748082</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -12153,13 +12153,13 @@
         <v>23</v>
       </c>
       <c r="D581">
-        <v>427.2923821010935</v>
+        <v>502.0574425881016</v>
       </c>
       <c r="E581">
-        <v>287.0593059208248</v>
+        <v>387.2581422317555</v>
       </c>
       <c r="F581">
-        <v>567.5254582813621</v>
+        <v>616.8567429444477</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -12173,13 +12173,13 @@
         <v>23</v>
       </c>
       <c r="D582">
-        <v>390.1967327031714</v>
+        <v>499.5915850273633</v>
       </c>
       <c r="E582">
-        <v>198.1980140157468</v>
+        <v>347.0747967465412</v>
       </c>
       <c r="F582">
-        <v>582.1954513905961</v>
+        <v>652.1083733081854</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -12193,13 +12193,13 @@
         <v>23</v>
       </c>
       <c r="D583">
-        <v>451.7563816296923</v>
+        <v>552.5673035014638</v>
       </c>
       <c r="E583">
-        <v>219.9215543586105</v>
+        <v>315.6851528169148</v>
       </c>
       <c r="F583">
-        <v>683.5912089007742</v>
+        <v>789.4494541860129</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -12213,13 +12213,13 @@
         <v>23</v>
       </c>
       <c r="D584">
-        <v>309.6405409389836</v>
+        <v>435.7997477922586</v>
       </c>
       <c r="E584">
-        <v>54.00170573927491</v>
+        <v>152.5189168074734</v>
       </c>
       <c r="F584">
-        <v>565.2793761386922</v>
+        <v>719.0805787770438</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -12233,13 +12233,13 @@
         <v>23</v>
       </c>
       <c r="D585">
-        <v>359.8694774245902</v>
+        <v>544.697984268056</v>
       </c>
       <c r="E585">
-        <v>34.29341370954239</v>
+        <v>175.4819428924603</v>
       </c>
       <c r="F585">
-        <v>685.4455411396381</v>
+        <v>913.9140256436516</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -12253,13 +12253,13 @@
         <v>23</v>
       </c>
       <c r="D586">
-        <v>324.5242377042147</v>
+        <v>625.8085277111485</v>
       </c>
       <c r="E586">
-        <v>-52.4903478795049</v>
+        <v>187.7749965022495</v>
       </c>
       <c r="F586">
-        <v>701.5388232879343</v>
+        <v>1063.842058920048</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -12273,13 +12273,13 @@
         <v>23</v>
       </c>
       <c r="D587">
-        <v>388.8262178375928</v>
+        <v>690.2739738051266</v>
       </c>
       <c r="E587">
-        <v>-34.45351597046459</v>
+        <v>172.9748049931904</v>
       </c>
       <c r="F587">
-        <v>812.1059516456503</v>
+        <v>1207.573142617063</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -12293,13 +12293,13 @@
         <v>23</v>
       </c>
       <c r="D588">
-        <v>284.875486609883</v>
+        <v>637.4949344339926</v>
       </c>
       <c r="E588">
-        <v>-168.7035643537025</v>
+        <v>60.02198638295226</v>
       </c>
       <c r="F588">
-        <v>738.4545375734684</v>
+        <v>1214.967882485033</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -12313,13 +12313,13 @@
         <v>23</v>
       </c>
       <c r="D589">
-        <v>329.0301656117347</v>
+        <v>742.1539667684059</v>
       </c>
       <c r="E589">
-        <v>-178.465051403793</v>
+        <v>91.89855232658726</v>
       </c>
       <c r="F589">
-        <v>836.5253826272624</v>
+        <v>1392.409381210225</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -12333,13 +12333,13 @@
         <v>23</v>
       </c>
       <c r="D590">
-        <v>294.2880950412829</v>
+        <v>878.2564920412606</v>
       </c>
       <c r="E590">
-        <v>-257.2553016034491</v>
+        <v>161.6628395929974</v>
       </c>
       <c r="F590">
-        <v>845.8314916860148</v>
+        <v>1594.850144489524</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -12773,13 +12773,13 @@
         <v>24</v>
       </c>
       <c r="D612">
-        <v>140.2519137419134</v>
+        <v>116.3696411938158</v>
       </c>
       <c r="E612">
-        <v>-16.3105656482002</v>
+        <v>-28.43946668648761</v>
       </c>
       <c r="F612">
-        <v>296.8143931320269</v>
+        <v>261.1787490741193</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -12793,13 +12793,13 @@
         <v>24</v>
       </c>
       <c r="D613">
-        <v>139.6685342577891</v>
+        <v>101.3829693414163</v>
       </c>
       <c r="E613">
-        <v>-71.66662354059619</v>
+        <v>-80.98835219016854</v>
       </c>
       <c r="F613">
-        <v>351.0036920561744</v>
+        <v>283.7542908730011</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -12813,13 +12813,13 @@
         <v>24</v>
       </c>
       <c r="D614">
-        <v>139.7229706490361</v>
+        <v>76.04243518139253</v>
       </c>
       <c r="E614">
-        <v>-115.6241885143075</v>
+        <v>-127.1327847726531</v>
       </c>
       <c r="F614">
-        <v>395.0701298123796</v>
+        <v>279.2176551354382</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -12833,13 +12833,13 @@
         <v>24</v>
       </c>
       <c r="D615">
-        <v>139.7178910725809</v>
+        <v>52.58018358207107</v>
       </c>
       <c r="E615">
-        <v>-153.0368691895307</v>
+        <v>-174.1638348569671</v>
       </c>
       <c r="F615">
-        <v>432.4726513346925</v>
+        <v>279.3242020211093</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -12853,13 +12853,13 @@
         <v>24</v>
       </c>
       <c r="D616">
-        <v>139.7183650587577</v>
+        <v>30.74084488290293</v>
       </c>
       <c r="E616">
-        <v>-186.1833486428978</v>
+        <v>-217.8016382003724</v>
       </c>
       <c r="F616">
-        <v>465.6200787604131</v>
+        <v>279.2833279661783</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -12873,13 +12873,13 @@
         <v>24</v>
       </c>
       <c r="D617">
-        <v>139.7183208300906</v>
+        <v>8.166493483659565</v>
       </c>
       <c r="E617">
-        <v>-216.2566601958296</v>
+        <v>-259.2989020042652</v>
       </c>
       <c r="F617">
-        <v>495.6933018560109</v>
+        <v>275.6318889715843</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -12893,13 +12893,13 @@
         <v>24</v>
       </c>
       <c r="D618">
-        <v>139.7183249571624</v>
+        <v>-14.54820364507589</v>
       </c>
       <c r="E618">
-        <v>-243.9800941678379</v>
+        <v>-299.6650747296039</v>
       </c>
       <c r="F618">
-        <v>523.4167440821627</v>
+        <v>270.5686674394522</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -12913,13 +12913,13 @@
         <v>24</v>
       </c>
       <c r="D619">
-        <v>139.7183245720565</v>
+        <v>-37.07466504959564</v>
       </c>
       <c r="E619">
-        <v>-269.8311398392821</v>
+        <v>-338.839893266445</v>
       </c>
       <c r="F619">
-        <v>549.2677889833951</v>
+        <v>264.6905631672537</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -12933,13 +12933,13 @@
         <v>24</v>
       </c>
       <c r="D620">
-        <v>139.7183246079916</v>
+        <v>-59.60626601356421</v>
       </c>
       <c r="E620">
-        <v>-294.1446157521355</v>
+        <v>-376.9861095579427</v>
       </c>
       <c r="F620">
-        <v>573.5812649681186</v>
+        <v>257.7735775308142</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -12953,13 +12953,13 @@
         <v>24</v>
       </c>
       <c r="D621">
-        <v>139.7183246046384</v>
+        <v>-82.16333183457505</v>
       </c>
       <c r="E621">
-        <v>-317.1660570634227</v>
+        <v>-414.3044983375402</v>
       </c>
       <c r="F621">
-        <v>596.6027062726995</v>
+        <v>249.9778346683901</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -14013,13 +14013,13 @@
         <v>26</v>
       </c>
       <c r="D674">
-        <v>762.589272264246</v>
+        <v>767.584130554985</v>
       </c>
       <c r="E674">
-        <v>342.3003777978787</v>
+        <v>374.7968814223129</v>
       </c>
       <c r="F674">
-        <v>1182.878166730613</v>
+        <v>1160.371379687657</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -14033,13 +14033,13 @@
         <v>26</v>
       </c>
       <c r="D675">
-        <v>775.5926934241484</v>
+        <v>708.0698723213793</v>
       </c>
       <c r="E675">
-        <v>186.1044384466829</v>
+        <v>205.4086312270196</v>
       </c>
       <c r="F675">
-        <v>1365.080948401614</v>
+        <v>1210.731113415739</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -14053,13 +14053,13 @@
         <v>26</v>
       </c>
       <c r="D676">
-        <v>827.0233431694631</v>
+        <v>796.8761348665543</v>
       </c>
       <c r="E676">
-        <v>116.4706118293547</v>
+        <v>247.8801592091505</v>
       </c>
       <c r="F676">
-        <v>1537.576074509572</v>
+        <v>1345.872110523958</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -14073,13 +14073,13 @@
         <v>26</v>
       </c>
       <c r="D677">
-        <v>811.6460315913386</v>
+        <v>798.6550682683715</v>
       </c>
       <c r="E677">
-        <v>17.62643171320576</v>
+        <v>233.1929014268869</v>
       </c>
       <c r="F677">
-        <v>1605.665631469471</v>
+        <v>1364.117235109856</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -14093,13 +14093,13 @@
         <v>26</v>
       </c>
       <c r="D678">
-        <v>873.0190224384006</v>
+        <v>937.3889132068231</v>
       </c>
       <c r="E678">
-        <v>-0.1651931907670132</v>
+        <v>363.9942258033608</v>
       </c>
       <c r="F678">
-        <v>1746.203238067568</v>
+        <v>1510.783600610285</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -14113,13 +14113,13 @@
         <v>26</v>
       </c>
       <c r="D679">
-        <v>863.5592946480918</v>
+        <v>964.3917801180065</v>
       </c>
       <c r="E679">
-        <v>-48.82337444621362</v>
+        <v>392.6189259665299</v>
       </c>
       <c r="F679">
-        <v>1775.941963742397</v>
+        <v>1536.164634269483</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -14133,13 +14133,13 @@
         <v>26</v>
       </c>
       <c r="D680">
-        <v>860.5279008068399</v>
+        <v>1070.832494108942</v>
       </c>
       <c r="E680">
-        <v>-91.41337983947312</v>
+        <v>500.5333578336509</v>
       </c>
       <c r="F680">
-        <v>1812.469181453153</v>
+        <v>1641.131630384234</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -14153,13 +14153,13 @@
         <v>26</v>
       </c>
       <c r="D681">
-        <v>841.9753948928865</v>
+        <v>1085.079104673714</v>
       </c>
       <c r="E681">
-        <v>-149.6760155971216</v>
+        <v>514.8543042493138</v>
       </c>
       <c r="F681">
-        <v>1833.626805382894</v>
+        <v>1655.303905098115</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -14173,13 +14173,13 @@
         <v>26</v>
       </c>
       <c r="D682">
-        <v>848.0951614214506</v>
+        <v>1159.529756759337</v>
       </c>
       <c r="E682">
-        <v>-187.3406331968064</v>
+        <v>590.4336030107461</v>
       </c>
       <c r="F682">
-        <v>1883.530956039708</v>
+        <v>1728.625910507927</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -14193,13 +14193,13 @@
         <v>26</v>
       </c>
       <c r="D683">
-        <v>834.0140812515934</v>
+        <v>1157.654095865386</v>
       </c>
       <c r="E683">
-        <v>-242.0381701479681</v>
+        <v>589.5476391414361</v>
       </c>
       <c r="F683">
-        <v>1910.066332651155</v>
+        <v>1725.760552589336</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -15873,13 +15873,13 @@
         <v>29</v>
       </c>
       <c r="D767">
-        <v>134.4686500757873</v>
+        <v>153.9288048688051</v>
       </c>
       <c r="E767">
-        <v>80.40796433607878</v>
+        <v>106.0678951463736</v>
       </c>
       <c r="F767">
-        <v>188.5293358154959</v>
+        <v>201.7897145912366</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -15893,13 +15893,13 @@
         <v>29</v>
       </c>
       <c r="D768">
-        <v>141.7498833334835</v>
+        <v>144.4731905009683</v>
       </c>
       <c r="E768">
-        <v>82.56286705923145</v>
+        <v>96.49174102413909</v>
       </c>
       <c r="F768">
-        <v>200.9368996077355</v>
+        <v>192.4546399777975</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -15913,13 +15913,13 @@
         <v>29</v>
       </c>
       <c r="D769">
-        <v>125.1125148694205</v>
+        <v>122.2568702451526</v>
       </c>
       <c r="E769">
-        <v>52.85495047751714</v>
+        <v>71.86628293832993</v>
       </c>
       <c r="F769">
-        <v>197.3700792613238</v>
+        <v>172.6474575519753</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -15933,13 +15933,13 @@
         <v>29</v>
       </c>
       <c r="D770">
-        <v>109.4976655238662</v>
+        <v>124.4941638273094</v>
       </c>
       <c r="E770">
-        <v>31.21108693896731</v>
+        <v>71.96012332993787</v>
       </c>
       <c r="F770">
-        <v>187.7842441087651</v>
+        <v>177.0282043246809</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -15953,13 +15953,13 @@
         <v>29</v>
       </c>
       <c r="D771">
-        <v>135.7389620126773</v>
+        <v>172.5699331517621</v>
       </c>
       <c r="E771">
-        <v>43.88786596076913</v>
+        <v>105.8492586757061</v>
       </c>
       <c r="F771">
-        <v>227.5900580645855</v>
+        <v>239.290607627818</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -15973,13 +15973,13 @@
         <v>29</v>
       </c>
       <c r="D772">
-        <v>141.1041674980416</v>
+        <v>165.1765381103586</v>
       </c>
       <c r="E772">
-        <v>45.78086043724944</v>
+        <v>98.5854747629342</v>
       </c>
       <c r="F772">
-        <v>236.4274745588338</v>
+        <v>231.7676014577831</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -15993,13 +15993,13 @@
         <v>29</v>
       </c>
       <c r="D773">
-        <v>123.0005330315772</v>
+        <v>156.8896841825612</v>
       </c>
       <c r="E773">
-        <v>19.34417811371191</v>
+        <v>88.57955426023574</v>
       </c>
       <c r="F773">
-        <v>226.6568879494425</v>
+        <v>225.1998141048866</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -16013,13 +16013,13 @@
         <v>29</v>
       </c>
       <c r="D774">
-        <v>110.8257626819092</v>
+        <v>158.1305837497651</v>
       </c>
       <c r="E774">
-        <v>2.494860308071964</v>
+        <v>89.05302655663155</v>
       </c>
       <c r="F774">
-        <v>219.1566650557465</v>
+        <v>227.2081409428987</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -16033,13 +16033,13 @@
         <v>29</v>
       </c>
       <c r="D775">
-        <v>137.2572954134353</v>
+        <v>175.2187998806853</v>
       </c>
       <c r="E775">
-        <v>19.28355321101289</v>
+        <v>101.7382265422406</v>
       </c>
       <c r="F775">
-        <v>255.2310376158576</v>
+        <v>248.6993732191299</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -16053,13 +16053,13 @@
         <v>29</v>
       </c>
       <c r="D776">
-        <v>140.163855397321</v>
+        <v>147.8682311873924</v>
       </c>
       <c r="E776">
-        <v>19.34320786962289</v>
+        <v>74.3638572032476</v>
       </c>
       <c r="F776">
-        <v>260.9845029250191</v>
+        <v>221.3726051715373</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -16493,13 +16493,13 @@
         <v>30</v>
       </c>
       <c r="D798">
-        <v>207</v>
+        <v>343.9026275391168</v>
       </c>
       <c r="E798">
-        <v>18.09423596918796</v>
+        <v>221.2427193587963</v>
       </c>
       <c r="F798">
-        <v>395.905764030812</v>
+        <v>466.5625357194373</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -16513,13 +16513,13 @@
         <v>30</v>
       </c>
       <c r="D799">
-        <v>207</v>
+        <v>245.6285332748446</v>
       </c>
       <c r="E799">
-        <v>-60.15309350282482</v>
+        <v>121.9784555248786</v>
       </c>
       <c r="F799">
-        <v>474.1530935028247</v>
+        <v>369.2786110248105</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -16533,13 +16533,13 @@
         <v>30</v>
       </c>
       <c r="D800">
-        <v>207</v>
+        <v>206.0765665695538</v>
       </c>
       <c r="E800">
-        <v>-120.1943811439819</v>
+        <v>77.57165892945989</v>
       </c>
       <c r="F800">
-        <v>534.1943811439819</v>
+        <v>334.5814742096478</v>
       </c>
     </row>
     <row r="801" spans="1:6">
@@ -16553,13 +16553,13 @@
         <v>30</v>
       </c>
       <c r="D801">
-        <v>207</v>
+        <v>165.1144139628932</v>
       </c>
       <c r="E801">
-        <v>-170.8115280616217</v>
+        <v>31.76696002252746</v>
       </c>
       <c r="F801">
-        <v>584.8115280616216</v>
+        <v>298.461867903259</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -16573,13 +16573,13 @@
         <v>30</v>
       </c>
       <c r="D802">
-        <v>207</v>
+        <v>122.9611837515965</v>
       </c>
       <c r="E802">
-        <v>-215.4061297144276</v>
+        <v>-15.15343353921935</v>
       </c>
       <c r="F802">
-        <v>629.4061297144275</v>
+        <v>261.0758010424124</v>
       </c>
     </row>
     <row r="803" spans="1:6">
@@ -16593,13 +16593,13 @@
         <v>30</v>
       </c>
       <c r="D803">
-        <v>207</v>
+        <v>79.84243482780394</v>
       </c>
       <c r="E803">
-        <v>-255.7227313460903</v>
+        <v>-62.90725863141731</v>
       </c>
       <c r="F803">
-        <v>669.7227313460903</v>
+        <v>222.5921282870252</v>
       </c>
     </row>
     <row r="804" spans="1:6">
@@ -16613,13 +16613,13 @@
         <v>30</v>
       </c>
       <c r="D804">
-        <v>207</v>
+        <v>35.98890419844772</v>
       </c>
       <c r="E804">
-        <v>-292.7976728521755</v>
+        <v>-111.213446499011</v>
       </c>
       <c r="F804">
-        <v>706.7976728521755</v>
+        <v>183.1912548959064</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -16633,13 +16633,13 @@
         <v>30</v>
       </c>
       <c r="D805">
-        <v>207</v>
+        <v>-8.36479319911556</v>
       </c>
       <c r="E805">
-        <v>-327.3061870056481</v>
+        <v>-159.7933045416734</v>
       </c>
       <c r="F805">
-        <v>741.3061870056481</v>
+        <v>143.0637181434423</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -16653,13 +16653,13 @@
         <v>30</v>
       </c>
       <c r="D806">
-        <v>207</v>
+        <v>-52.981485060357</v>
       </c>
       <c r="E806">
-        <v>-359.7172920924319</v>
+        <v>-208.3716815715542</v>
       </c>
       <c r="F806">
-        <v>773.7172920924319</v>
+        <v>102.4087114508402</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -16673,13 +16673,13 @@
         <v>30</v>
       </c>
       <c r="D807">
-        <v>207</v>
+        <v>-97.62277522427375</v>
       </c>
       <c r="E807">
-        <v>-390.3724774716718</v>
+        <v>-256.6781434209932</v>
       </c>
       <c r="F807">
-        <v>804.3724774716718</v>
+        <v>61.43259297244568</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -17113,13 +17113,13 @@
         <v>31</v>
       </c>
       <c r="D829">
-        <v>125.9153104202848</v>
+        <v>125.9897692212088</v>
       </c>
       <c r="E829">
-        <v>83.88791338946825</v>
+        <v>84.01188870939069</v>
       </c>
       <c r="F829">
-        <v>167.9427074511014</v>
+        <v>167.9676497330268</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -17133,13 +17133,13 @@
         <v>31</v>
       </c>
       <c r="D830">
-        <v>128.4914024287712</v>
+        <v>128.461406144802</v>
       </c>
       <c r="E830">
-        <v>86.51601486917461</v>
+        <v>86.52255827457961</v>
       </c>
       <c r="F830">
-        <v>170.4667899883677</v>
+        <v>170.4002540150243</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -17153,13 +17153,13 @@
         <v>31</v>
       </c>
       <c r="D831">
-        <v>122.7710260043251</v>
+        <v>122.3358876306885</v>
       </c>
       <c r="E831">
-        <v>75.69127827469205</v>
+        <v>75.43856447018538</v>
       </c>
       <c r="F831">
-        <v>169.8507737339581</v>
+        <v>169.2332107911917</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -17173,13 +17173,13 @@
         <v>31</v>
       </c>
       <c r="D832">
-        <v>122.7710260043251</v>
+        <v>122.3519323261006</v>
       </c>
       <c r="E832">
-        <v>64.10886043306407</v>
+        <v>64.00018166728265</v>
       </c>
       <c r="F832">
-        <v>181.4331915755861</v>
+        <v>180.7036829849185</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -17193,13 +17193,13 @@
         <v>31</v>
       </c>
       <c r="D833">
-        <v>122.7710260043251</v>
+        <v>122.3800610103572</v>
       </c>
       <c r="E833">
-        <v>54.46292478101338</v>
+        <v>54.67771701633096</v>
       </c>
       <c r="F833">
-        <v>191.0791272276367</v>
+        <v>190.0824050043834</v>
       </c>
     </row>
     <row r="834" spans="1:6">
@@ -17213,13 +17213,13 @@
         <v>31</v>
       </c>
       <c r="D834">
-        <v>122.7710260043251</v>
+        <v>122.4201381713965</v>
       </c>
       <c r="E834">
-        <v>46.0198454534153</v>
+        <v>46.68375121821931</v>
       </c>
       <c r="F834">
-        <v>199.5222065552348</v>
+        <v>198.1565251245736</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -17233,13 +17233,13 @@
         <v>31</v>
       </c>
       <c r="D835">
-        <v>122.7710260043251</v>
+        <v>122.4720298168138</v>
       </c>
       <c r="E835">
-        <v>38.41765773024544</v>
+        <v>39.63066413860608</v>
       </c>
       <c r="F835">
-        <v>207.1243942784047</v>
+        <v>205.3133954950215</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -17253,13 +17253,13 @@
         <v>31</v>
       </c>
       <c r="D836">
-        <v>122.7710260043251</v>
+        <v>122.5356034568197</v>
       </c>
       <c r="E836">
-        <v>31.44612380122024</v>
+        <v>33.29292719740354</v>
       </c>
       <c r="F836">
-        <v>214.0959282074299</v>
+        <v>211.7782797162359</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -17273,13 +17273,13 @@
         <v>31</v>
       </c>
       <c r="D837">
-        <v>122.7710260043251</v>
+        <v>122.6107280873895</v>
       </c>
       <c r="E837">
-        <v>24.97028579428977</v>
+        <v>27.52523535707928</v>
       </c>
       <c r="F837">
-        <v>220.5717662143604</v>
+        <v>217.6962208176997</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -17293,13 +17293,13 @@
         <v>31</v>
       </c>
       <c r="D838">
-        <v>122.7710260043251</v>
+        <v>122.6972741736016</v>
       </c>
       <c r="E838">
-        <v>18.89739215600449</v>
+        <v>22.22724492357763</v>
       </c>
       <c r="F838">
-        <v>226.6446598526456</v>
+        <v>223.1673034236256</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -18353,13 +18353,13 @@
         <v>33</v>
       </c>
       <c r="D891">
-        <v>651.6011781633173</v>
+        <v>607.828605332954</v>
       </c>
       <c r="E891">
-        <v>539.563515879026</v>
+        <v>509.038585491122</v>
       </c>
       <c r="F891">
-        <v>763.6388404476086</v>
+        <v>706.618625174786</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -18373,13 +18373,13 @@
         <v>33</v>
       </c>
       <c r="D892">
-        <v>595.4392789332126</v>
+        <v>569.1101669571578</v>
       </c>
       <c r="E892">
-        <v>470.2939373765392</v>
+        <v>457.6167058476734</v>
       </c>
       <c r="F892">
-        <v>720.584620489886</v>
+        <v>680.6036280666424</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -18393,13 +18393,13 @@
         <v>33</v>
       </c>
       <c r="D893">
-        <v>655.1921701973775</v>
+        <v>660.9688327505698</v>
       </c>
       <c r="E893">
-        <v>520.8957854494687</v>
+        <v>536.6756763711364</v>
       </c>
       <c r="F893">
-        <v>789.4885549452864</v>
+        <v>785.2619891300033</v>
       </c>
     </row>
     <row r="894" spans="1:6">
@@ -18413,13 +18413,13 @@
         <v>33</v>
       </c>
       <c r="D894">
-        <v>567.7466282759558</v>
+        <v>561.229130232731</v>
       </c>
       <c r="E894">
-        <v>426.8130787273631</v>
+        <v>436.0143443353225</v>
       </c>
       <c r="F894">
-        <v>708.6801778245485</v>
+        <v>686.4439161301395</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -18433,13 +18433,13 @@
         <v>33</v>
       </c>
       <c r="D895">
-        <v>615.6421526499942</v>
+        <v>692.8249446460545</v>
       </c>
       <c r="E895">
-        <v>462.7422086501228</v>
+        <v>554.2512478028177</v>
       </c>
       <c r="F895">
-        <v>768.5420966498655</v>
+        <v>831.3986414892913</v>
       </c>
     </row>
     <row r="896" spans="1:6">
@@ -18453,13 +18453,13 @@
         <v>33</v>
       </c>
       <c r="D896">
-        <v>526.3788896588212</v>
+        <v>607.8749084514939</v>
       </c>
       <c r="E896">
-        <v>360.6961885163608</v>
+        <v>468.6851293118926</v>
       </c>
       <c r="F896">
-        <v>692.0615908012816</v>
+        <v>747.0646875910951</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -18473,13 +18473,13 @@
         <v>33</v>
       </c>
       <c r="D897">
-        <v>577.1126852501839</v>
+        <v>620.6766656896209</v>
       </c>
       <c r="E897">
-        <v>392.1264278087305</v>
+        <v>480.4830390702554</v>
       </c>
       <c r="F897">
-        <v>762.0989426916373</v>
+        <v>760.8702923089863</v>
       </c>
     </row>
     <row r="898" spans="1:6">
@@ -18493,13 +18493,13 @@
         <v>33</v>
       </c>
       <c r="D898">
-        <v>492.6563730476821</v>
+        <v>489.7736809694171</v>
       </c>
       <c r="E898">
-        <v>288.5718034218211</v>
+        <v>349.0435528548933</v>
       </c>
       <c r="F898">
-        <v>696.740942673543</v>
+        <v>630.5038090839407</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -18513,13 +18513,13 @@
         <v>33</v>
       </c>
       <c r="D899">
-        <v>548.5692299681311</v>
+        <v>572.9752491587021</v>
       </c>
       <c r="E899">
-        <v>320.407138148374</v>
+        <v>417.5482739583161</v>
       </c>
       <c r="F899">
-        <v>776.7313217878882</v>
+        <v>728.4022243590881</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -18533,13 +18533,13 @@
         <v>33</v>
       </c>
       <c r="D900">
-        <v>469.0924147007373</v>
+        <v>478.3276847725798</v>
       </c>
       <c r="E900">
-        <v>218.6773007023838</v>
+        <v>322.0385732074255</v>
       </c>
       <c r="F900">
-        <v>719.5075286990908</v>
+        <v>634.6167963377341</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -18973,13 +18973,13 @@
         <v>34</v>
       </c>
       <c r="D922">
-        <v>1003.77846264475</v>
+        <v>1069.899344201921</v>
       </c>
       <c r="E922">
-        <v>792.8815185313206</v>
+        <v>879.522608289343</v>
       </c>
       <c r="F922">
-        <v>1214.67540675818</v>
+        <v>1260.276080114498</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -18993,13 +18993,13 @@
         <v>34</v>
       </c>
       <c r="D923">
-        <v>837.2308781517223</v>
+        <v>871.7368455428099</v>
       </c>
       <c r="E923">
-        <v>600.5165900752099</v>
+        <v>680.1813152601264</v>
       </c>
       <c r="F923">
-        <v>1073.945166228235</v>
+        <v>1063.292375825493</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -19013,13 +19013,13 @@
         <v>34</v>
       </c>
       <c r="D924">
-        <v>820.2171171296385</v>
+        <v>879.3134071976651</v>
       </c>
       <c r="E924">
-        <v>515.7187380377904</v>
+        <v>671.4067076262418</v>
       </c>
       <c r="F924">
-        <v>1124.715496221487</v>
+        <v>1087.220106769088</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -19033,13 +19033,13 @@
         <v>34</v>
       </c>
       <c r="D925">
-        <v>602.5197526629579</v>
+        <v>667.9379405106358</v>
       </c>
       <c r="E925">
-        <v>240.5373415338231</v>
+        <v>457.4550952109798</v>
       </c>
       <c r="F925">
-        <v>964.5021637920927</v>
+        <v>878.4207858102918</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -19053,13 +19053,13 @@
         <v>34</v>
       </c>
       <c r="D926">
-        <v>688.5683281814904</v>
+        <v>766.9850998578517</v>
       </c>
       <c r="E926">
-        <v>207.7826811554244</v>
+        <v>520.7306510925803</v>
       </c>
       <c r="F926">
-        <v>1169.353975207556</v>
+        <v>1013.239548623123</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -19073,13 +19073,13 @@
         <v>34</v>
       </c>
       <c r="D927">
-        <v>502.4434479948972</v>
+        <v>580.0793061736579</v>
       </c>
       <c r="E927">
-        <v>-35.09608299181912</v>
+        <v>334.4186832384746</v>
       </c>
       <c r="F927">
-        <v>1039.982978981614</v>
+        <v>825.7399291088411</v>
       </c>
     </row>
     <row r="928" spans="1:6">
@@ -19093,13 +19093,13 @@
         <v>34</v>
       </c>
       <c r="D928">
-        <v>512.5448826661008</v>
+        <v>615.678198857815</v>
       </c>
       <c r="E928">
-        <v>-126.5667260477363</v>
+        <v>350.344624545661</v>
       </c>
       <c r="F928">
-        <v>1151.656491379938</v>
+        <v>881.011773169969</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -19113,13 +19113,13 @@
         <v>34</v>
       </c>
       <c r="D929">
-        <v>353.2614185886156</v>
+        <v>472.3766875535398</v>
       </c>
       <c r="E929">
-        <v>-365.6490848460421</v>
+        <v>205.4650284886303</v>
       </c>
       <c r="F929">
-        <v>1072.171922023273</v>
+        <v>739.2883466184494</v>
       </c>
     </row>
     <row r="930" spans="1:6">
@@ -19133,13 +19133,13 @@
         <v>34</v>
       </c>
       <c r="D930">
-        <v>407.1215702077885</v>
+        <v>541.5818576309322</v>
       </c>
       <c r="E930">
-        <v>-422.4115225018529</v>
+        <v>257.3540157819418</v>
       </c>
       <c r="F930">
-        <v>1236.65466291743</v>
+        <v>825.8096994799225</v>
       </c>
     </row>
     <row r="931" spans="1:6">
@@ -19153,13 +19153,13 @@
         <v>34</v>
       </c>
       <c r="D931">
-        <v>240.582926628335</v>
+        <v>411.0722537790718</v>
       </c>
       <c r="E931">
-        <v>-665.9966570156652</v>
+        <v>127.2548182749919</v>
       </c>
       <c r="F931">
-        <v>1147.162510272335</v>
+        <v>694.8896892831517</v>
       </c>
     </row>
     <row r="932" spans="1:6">
@@ -19593,13 +19593,13 @@
         <v>35</v>
       </c>
       <c r="D953">
-        <v>351.9850312255116</v>
+        <v>350.0248638538175</v>
       </c>
       <c r="E953">
-        <v>238.5521055503342</v>
+        <v>253.2246677117098</v>
       </c>
       <c r="F953">
-        <v>465.4179569006891</v>
+        <v>446.8250599959251</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -19613,13 +19613,13 @@
         <v>35</v>
       </c>
       <c r="D954">
-        <v>341.0126166678648</v>
+        <v>324.1681424389663</v>
       </c>
       <c r="E954">
-        <v>194.8318709813726</v>
+        <v>197.622663364638</v>
       </c>
       <c r="F954">
-        <v>487.1933623543571</v>
+        <v>450.7136215132946</v>
       </c>
     </row>
     <row r="955" spans="1:6">
@@ -19633,13 +19633,13 @@
         <v>35</v>
       </c>
       <c r="D955">
-        <v>372.5826585438101</v>
+        <v>347.8684793055088</v>
       </c>
       <c r="E955">
-        <v>193.0490221275176</v>
+        <v>205.300482451121</v>
       </c>
       <c r="F955">
-        <v>552.1162949601026</v>
+        <v>490.4364761598966</v>
       </c>
     </row>
     <row r="956" spans="1:6">
@@ -19653,13 +19653,13 @@
         <v>35</v>
       </c>
       <c r="D956">
-        <v>372.5826585438101</v>
+        <v>302.0243427754033</v>
       </c>
       <c r="E956">
-        <v>177.5053303684689</v>
+        <v>146.7558397998157</v>
       </c>
       <c r="F956">
-        <v>567.6599867191512</v>
+        <v>457.292845750991</v>
       </c>
     </row>
     <row r="957" spans="1:6">
@@ -19673,13 +19673,13 @@
         <v>35</v>
       </c>
       <c r="D957">
-        <v>372.5826585438101</v>
+        <v>325.7272742275571</v>
       </c>
       <c r="E957">
-        <v>163.1118936834077</v>
+        <v>157.2202774897203</v>
       </c>
       <c r="F957">
-        <v>582.0534234042125</v>
+        <v>494.2342709653939</v>
       </c>
     </row>
     <row r="958" spans="1:6">
@@ -19693,13 +19693,13 @@
         <v>35</v>
       </c>
       <c r="D958">
-        <v>372.5826585438101</v>
+        <v>279.8859423631812</v>
       </c>
       <c r="E958">
-        <v>149.6458094264553</v>
+        <v>100.572344116535</v>
       </c>
       <c r="F958">
-        <v>595.519507661165</v>
+        <v>459.1995406098274</v>
       </c>
     </row>
     <row r="959" spans="1:6">
@@ -19713,13 +19713,13 @@
         <v>35</v>
       </c>
       <c r="D959">
-        <v>372.5826585438101</v>
+        <v>303.5914601291267</v>
       </c>
       <c r="E959">
-        <v>136.9480344803111</v>
+        <v>112.7662917435046</v>
       </c>
       <c r="F959">
-        <v>608.2172826073091</v>
+        <v>494.4166285147488</v>
       </c>
     </row>
     <row r="960" spans="1:6">
@@ -19733,13 +19733,13 @@
         <v>35</v>
       </c>
       <c r="D960">
-        <v>372.5826585438101</v>
+        <v>257.7529246706742</v>
       </c>
       <c r="E960">
-        <v>124.9003753245238</v>
+        <v>57.38018107938916</v>
       </c>
       <c r="F960">
-        <v>620.2649417630964</v>
+        <v>458.1256682619593</v>
       </c>
     </row>
     <row r="961" spans="1:6">
@@ -19753,13 +19753,13 @@
         <v>35</v>
       </c>
       <c r="D961">
-        <v>372.5826585438101</v>
+        <v>281.4610205039197</v>
       </c>
       <c r="E961">
-        <v>113.4121533085673</v>
+        <v>70.7839068607388</v>
       </c>
       <c r="F961">
-        <v>631.7531637790529</v>
+        <v>492.1381341471006</v>
       </c>
     </row>
     <row r="962" spans="1:6">
@@ -19773,13 +19773,13 @@
         <v>35</v>
       </c>
       <c r="D962">
-        <v>372.5826585438101</v>
+        <v>235.6252732168742</v>
       </c>
       <c r="E962">
-        <v>102.4119936909004</v>
+        <v>16.31677283207776</v>
       </c>
       <c r="F962">
-        <v>642.7533233967199</v>
+        <v>454.9337736016706</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -20833,13 +20833,13 @@
         <v>37</v>
       </c>
       <c r="D1015">
-        <v>574</v>
+        <v>644.048602891276</v>
       </c>
       <c r="E1015">
-        <v>354.6940060835453</v>
+        <v>474.2313735548514</v>
       </c>
       <c r="F1015">
-        <v>793.3059939164548</v>
+        <v>813.8658322277006</v>
       </c>
     </row>
     <row r="1016" spans="1:6">
@@ -20853,13 +20853,13 @@
         <v>37</v>
       </c>
       <c r="D1016">
-        <v>574</v>
+        <v>574.0297688010579</v>
       </c>
       <c r="E1016">
-        <v>263.854489093638</v>
+        <v>339.7571042604057</v>
       </c>
       <c r="F1016">
-        <v>884.145510906362</v>
+        <v>808.3024333417102</v>
       </c>
     </row>
     <row r="1017" spans="1:6">
@@ -20873,13 +20873,13 @@
         <v>37</v>
       </c>
       <c r="D1017">
-        <v>574</v>
+        <v>644.0188467411701</v>
       </c>
       <c r="E1017">
-        <v>194.1508761323089</v>
+        <v>354.6741056096571</v>
       </c>
       <c r="F1017">
-        <v>953.8491238676911</v>
+        <v>933.3635878726832</v>
       </c>
     </row>
     <row r="1018" spans="1:6">
@@ -20893,13 +20893,13 @@
         <v>37</v>
       </c>
       <c r="D1018">
-        <v>574</v>
+        <v>574.059512305588</v>
       </c>
       <c r="E1018">
-        <v>135.38801216709</v>
+        <v>242.7479545251245</v>
       </c>
       <c r="F1018">
-        <v>1012.61198783291</v>
+        <v>905.3710700860515</v>
       </c>
     </row>
     <row r="1019" spans="1:6">
@@ -20913,13 +20913,13 @@
         <v>37</v>
       </c>
       <c r="D1019">
-        <v>574</v>
+        <v>643.9891158768418</v>
       </c>
       <c r="E1019">
-        <v>83.61688972965129</v>
+        <v>271.6950738905546</v>
       </c>
       <c r="F1019">
-        <v>1064.383110270349</v>
+        <v>1016.283157863129</v>
       </c>
     </row>
     <row r="1020" spans="1:6">
@@ -20933,13 +20933,13 @@
         <v>37</v>
       </c>
       <c r="D1020">
-        <v>574</v>
+        <v>574.0892305350865</v>
       </c>
       <c r="E1020">
-        <v>36.8122173707734</v>
+        <v>168.3171258656954</v>
       </c>
       <c r="F1020">
-        <v>1111.187782629227</v>
+        <v>979.8613352044775</v>
       </c>
     </row>
     <row r="1021" spans="1:6">
@@ -20953,13 +20953,13 @@
         <v>37</v>
       </c>
       <c r="D1021">
-        <v>574</v>
+        <v>643.9594102768039</v>
       </c>
       <c r="E1021">
-        <v>-6.229120928784027</v>
+        <v>204.0897536321291</v>
       </c>
       <c r="F1021">
-        <v>1154.229120928784</v>
+        <v>1083.829066921478</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -20973,13 +20973,13 @@
         <v>37</v>
       </c>
       <c r="D1022">
-        <v>574</v>
+        <v>574.1189235110312</v>
       </c>
       <c r="E1022">
-        <v>-46.29102181272435</v>
+        <v>105.5736864189527</v>
       </c>
       <c r="F1022">
-        <v>1194.291021812724</v>
+        <v>1042.66416060311</v>
       </c>
     </row>
     <row r="1023" spans="1:6">
@@ -20993,13 +20993,13 @@
         <v>37</v>
       </c>
       <c r="D1023">
-        <v>574</v>
+        <v>643.9297299195877</v>
       </c>
       <c r="E1023">
-        <v>-83.91798174936503</v>
+        <v>145.5646401929878</v>
       </c>
       <c r="F1023">
-        <v>1231.917981749365</v>
+        <v>1142.294819646188</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -21013,13 +21013,13 @@
         <v>37</v>
       </c>
       <c r="D1024">
-        <v>574</v>
+        <v>574.1485912548818</v>
       </c>
       <c r="E1024">
-        <v>-119.5064453030283</v>
+        <v>50.29912512517683</v>
       </c>
       <c r="F1024">
-        <v>1267.506445303028</v>
+        <v>1097.998057384587</v>
       </c>
     </row>
     <row r="1025" spans="1:6">
@@ -21453,13 +21453,13 @@
         <v>38</v>
       </c>
       <c r="D1046">
-        <v>44.3132877764628</v>
+        <v>38.40088548879572</v>
       </c>
       <c r="E1046">
-        <v>25.54910230200236</v>
+        <v>19.63517542078272</v>
       </c>
       <c r="F1046">
-        <v>63.07747325092324</v>
+        <v>57.16659555680872</v>
       </c>
     </row>
     <row r="1047" spans="1:6">
@@ -21473,13 +21473,13 @@
         <v>38</v>
       </c>
       <c r="D1047">
-        <v>27.58395138547788</v>
+        <v>24.9471682410928</v>
       </c>
       <c r="E1047">
-        <v>8.509337570890452</v>
+        <v>6.20479104985785</v>
       </c>
       <c r="F1047">
-        <v>46.6585652000653</v>
+        <v>43.68954543232776</v>
       </c>
     </row>
     <row r="1048" spans="1:6">
@@ -21493,13 +21493,13 @@
         <v>38</v>
       </c>
       <c r="D1048">
-        <v>38.46439655040244</v>
+        <v>33.67996510275131</v>
       </c>
       <c r="E1048">
-        <v>17.82301834207423</v>
+        <v>12.60260160098737</v>
       </c>
       <c r="F1048">
-        <v>59.10577475873065</v>
+        <v>54.75732860451525</v>
       </c>
     </row>
     <row r="1049" spans="1:6">
@@ -21513,13 +21513,13 @@
         <v>38</v>
       </c>
       <c r="D1049">
-        <v>23.35937889971363</v>
+        <v>24.01378169812636</v>
       </c>
       <c r="E1049">
-        <v>1.87870841304094</v>
+        <v>2.972472950631609</v>
       </c>
       <c r="F1049">
-        <v>44.84004938638633</v>
+        <v>45.05509044562112</v>
       </c>
     </row>
     <row r="1050" spans="1:6">
@@ -21533,13 +21533,13 @@
         <v>38</v>
       </c>
       <c r="D1050">
-        <v>34.7368023792085</v>
+        <v>26.67996679277979</v>
       </c>
       <c r="E1050">
-        <v>11.27204385250752</v>
+        <v>2.951581827465329</v>
       </c>
       <c r="F1050">
-        <v>58.20156090590948</v>
+        <v>50.40835175809424</v>
       </c>
     </row>
     <row r="1051" spans="1:6">
@@ -21553,13 +21553,13 @@
         <v>38</v>
       </c>
       <c r="D1051">
-        <v>20.82034023150189</v>
+        <v>20.26648182067539</v>
       </c>
       <c r="E1051">
-        <v>-4.587346493239714</v>
+        <v>-3.752997831542384</v>
       </c>
       <c r="F1051">
-        <v>46.22802695624349</v>
+        <v>44.28596147289316</v>
       </c>
     </row>
     <row r="1052" spans="1:6">
@@ -21573,13 +21573,13 @@
         <v>38</v>
       </c>
       <c r="D1052">
-        <v>33.04184244861261</v>
+        <v>22.43653064463696</v>
       </c>
       <c r="E1052">
-        <v>4.62542333014234</v>
+        <v>-2.923888483082411</v>
       </c>
       <c r="F1052">
-        <v>61.45826156708289</v>
+        <v>47.79694977235633</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -21593,13 +21593,13 @@
         <v>38</v>
       </c>
       <c r="D1053">
-        <v>19.86975567684964</v>
+        <v>19.52216069555174</v>
       </c>
       <c r="E1053">
-        <v>-11.22855309297904</v>
+        <v>-5.949283369708017</v>
       </c>
       <c r="F1053">
-        <v>50.96806444667831</v>
+        <v>44.99360476081149</v>
       </c>
     </row>
     <row r="1054" spans="1:6">
@@ -21613,13 +21613,13 @@
         <v>38</v>
       </c>
       <c r="D1054">
-        <v>32.59206923283045</v>
+        <v>20.48450736962889</v>
       </c>
       <c r="E1054">
-        <v>-1.878917610135069</v>
+        <v>-5.731256609997683</v>
       </c>
       <c r="F1054">
-        <v>67.06305607579597</v>
+        <v>46.70027134925547</v>
       </c>
     </row>
     <row r="1055" spans="1:6">
@@ -21633,13 +21633,13 @@
         <v>38</v>
       </c>
       <c r="D1055">
-        <v>19.75444055773261</v>
+        <v>18.94037537328056</v>
       </c>
       <c r="E1055">
-        <v>-17.4862389696929</v>
+        <v>-7.5581010864775</v>
       </c>
       <c r="F1055">
-        <v>56.99512008515812</v>
+        <v>45.43885183303862</v>
       </c>
     </row>
     <row r="1056" spans="1:6">
@@ -22073,13 +22073,13 @@
         <v>39</v>
       </c>
       <c r="D1077">
-        <v>356</v>
+        <v>436.7430992248441</v>
       </c>
       <c r="E1077">
-        <v>202.1401147075983</v>
+        <v>326.6043894238786</v>
       </c>
       <c r="F1077">
-        <v>509.8598852924017</v>
+        <v>546.8818090258096</v>
       </c>
     </row>
     <row r="1078" spans="1:6">
@@ -22093,13 +22093,13 @@
         <v>39</v>
       </c>
       <c r="D1078">
-        <v>356</v>
+        <v>388.3374222859213</v>
       </c>
       <c r="E1078">
-        <v>138.4092635143163</v>
+        <v>271.7121018276132</v>
       </c>
       <c r="F1078">
-        <v>573.5907364856837</v>
+        <v>504.9627427442293</v>
       </c>
     </row>
     <row r="1079" spans="1:6">
@@ -22113,13 +22113,13 @@
         <v>39</v>
       </c>
       <c r="D1079">
-        <v>356</v>
+        <v>365.0534447816411</v>
       </c>
       <c r="E1079">
-        <v>89.50686142684003</v>
+        <v>223.842510102978</v>
       </c>
       <c r="F1079">
-        <v>622.49313857316</v>
+        <v>506.2643794603043</v>
       </c>
     </row>
     <row r="1080" spans="1:6">
@@ -22133,13 +22133,13 @@
         <v>39</v>
       </c>
       <c r="D1080">
-        <v>356</v>
+        <v>292.175780943949</v>
       </c>
       <c r="E1080">
-        <v>48.28022941519561</v>
+        <v>131.5848813665551</v>
       </c>
       <c r="F1080">
-        <v>663.7197705848043</v>
+        <v>452.7666805213428</v>
       </c>
     </row>
     <row r="1081" spans="1:6">
@@ -22153,13 +22153,13 @@
         <v>39</v>
       </c>
       <c r="D1081">
-        <v>356</v>
+        <v>353.2686604677879</v>
       </c>
       <c r="E1081">
-        <v>11.95883747586851</v>
+        <v>133.2411774221634</v>
       </c>
       <c r="F1081">
-        <v>700.0411625241316</v>
+        <v>573.2961435134125</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -22173,13 +22173,13 @@
         <v>39</v>
       </c>
       <c r="D1082">
-        <v>356</v>
+        <v>313.019192159744</v>
       </c>
       <c r="E1082">
-        <v>-20.87821084953566</v>
+        <v>73.85119440106061</v>
       </c>
       <c r="F1082">
-        <v>732.8782108495357</v>
+        <v>552.1871899184274</v>
       </c>
     </row>
     <row r="1083" spans="1:6">
@@ -22193,13 +22193,13 @@
         <v>39</v>
       </c>
       <c r="D1083">
-        <v>356</v>
+        <v>292.539604484342</v>
       </c>
       <c r="E1083">
-        <v>-51.07499323262084</v>
+        <v>21.44040032456684</v>
       </c>
       <c r="F1083">
-        <v>763.0749932326208</v>
+        <v>563.638808644117</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -22213,13 +22213,13 @@
         <v>39</v>
       </c>
       <c r="D1084">
-        <v>356</v>
+        <v>261.8304439429926</v>
       </c>
       <c r="E1084">
-        <v>-79.18147297136801</v>
+        <v>-40.10528017892977</v>
       </c>
       <c r="F1084">
-        <v>791.1814729713681</v>
+        <v>563.766168064915</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -22233,13 +22233,13 @@
         <v>39</v>
       </c>
       <c r="D1085">
-        <v>356</v>
+        <v>307.8026628932593</v>
       </c>
       <c r="E1085">
-        <v>-105.5796558772068</v>
+        <v>-39.2698828503128</v>
       </c>
       <c r="F1085">
-        <v>817.5796558772067</v>
+        <v>654.8752086368313</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -22253,13 +22253,13 @@
         <v>39</v>
       </c>
       <c r="D1086">
-        <v>356</v>
+        <v>281.2669002935863</v>
       </c>
       <c r="E1086">
-        <v>-130.5476780562331</v>
+        <v>-89.774466050358</v>
       </c>
       <c r="F1086">
-        <v>842.5476780562331</v>
+        <v>652.3082666375306</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -22693,13 +22693,13 @@
         <v>40</v>
       </c>
       <c r="D1108">
-        <v>106.5066809799225</v>
+        <v>91.15760010000491</v>
       </c>
       <c r="E1108">
-        <v>74.60999224752165</v>
+        <v>63.16287226450133</v>
       </c>
       <c r="F1108">
-        <v>138.4033697123233</v>
+        <v>119.1523279355085</v>
       </c>
     </row>
     <row r="1109" spans="1:6">
@@ -22713,13 +22713,13 @@
         <v>40</v>
       </c>
       <c r="D1109">
-        <v>95.63503498241292</v>
+        <v>93.01047654669443</v>
       </c>
       <c r="E1109">
-        <v>63.02314470485516</v>
+        <v>65.05745332366901</v>
       </c>
       <c r="F1109">
-        <v>128.2469252599707</v>
+        <v>120.9634997697199</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -22733,13 +22733,13 @@
         <v>40</v>
       </c>
       <c r="D1110">
-        <v>90.54638562092251</v>
+        <v>80.99940447793847</v>
       </c>
       <c r="E1110">
-        <v>57.78057722263917</v>
+        <v>53.07805605511798</v>
       </c>
       <c r="F1110">
-        <v>123.3121940192058</v>
+        <v>108.920752900759</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -22753,13 +22753,13 @@
         <v>40</v>
       </c>
       <c r="D1111">
-        <v>88.16456116397012</v>
+        <v>60.58322827214988</v>
       </c>
       <c r="E1111">
-        <v>54.27588524904508</v>
+        <v>32.21684726207633</v>
       </c>
       <c r="F1111">
-        <v>122.0532370788952</v>
+        <v>88.94960928222343</v>
       </c>
     </row>
     <row r="1112" spans="1:6">
@@ -22773,13 +22773,13 @@
         <v>40</v>
       </c>
       <c r="D1112">
-        <v>87.04970978775447</v>
+        <v>58.95730328704489</v>
       </c>
       <c r="E1112">
-        <v>51.39160559995074</v>
+        <v>27.41330932055419</v>
       </c>
       <c r="F1112">
-        <v>122.7078139755582</v>
+        <v>90.50129725353558</v>
       </c>
     </row>
     <row r="1113" spans="1:6">
@@ -22793,13 +22793,13 @@
         <v>40</v>
       </c>
       <c r="D1113">
-        <v>86.52788560905732</v>
+        <v>72.49026773964636</v>
       </c>
       <c r="E1113">
-        <v>48.83112726585657</v>
+        <v>37.84450664313353</v>
       </c>
       <c r="F1113">
-        <v>124.2246439522581</v>
+        <v>107.1360288361592</v>
       </c>
     </row>
     <row r="1114" spans="1:6">
@@ -22813,13 +22813,13 @@
         <v>40</v>
       </c>
       <c r="D1114">
-        <v>86.28363738074435</v>
+        <v>64.06552541047066</v>
       </c>
       <c r="E1114">
-        <v>46.486058130837</v>
+        <v>29.54309912518652</v>
       </c>
       <c r="F1114">
-        <v>126.0812166306517</v>
+        <v>98.5879516957548</v>
       </c>
     </row>
     <row r="1115" spans="1:6">
@@ -22833,13 +22833,13 @@
         <v>40</v>
       </c>
       <c r="D1115">
-        <v>86.16931305567576</v>
+        <v>47.22961510810192</v>
       </c>
       <c r="E1115">
-        <v>44.29996723339312</v>
+        <v>12.61331213594472</v>
       </c>
       <c r="F1115">
-        <v>128.0386588779584</v>
+        <v>81.84591808025914</v>
       </c>
     </row>
     <row r="1116" spans="1:6">
@@ -22853,13 +22853,13 @@
         <v>40</v>
       </c>
       <c r="D1116">
-        <v>86.11580171030116</v>
+        <v>38.86923235114238</v>
       </c>
       <c r="E1116">
-        <v>42.23789690208182</v>
+        <v>2.47136385542283</v>
       </c>
       <c r="F1116">
-        <v>129.9937065185205</v>
+        <v>75.26710084686192</v>
       </c>
     </row>
     <row r="1117" spans="1:6">
@@ -22873,13 +22873,13 @@
         <v>40</v>
       </c>
       <c r="D1117">
-        <v>86.09075486150427</v>
+        <v>44.42289858420335</v>
       </c>
       <c r="E1117">
-        <v>40.27669697599508</v>
+        <v>5.720379285339618</v>
       </c>
       <c r="F1117">
-        <v>131.9048127470135</v>
+        <v>83.12541788306707</v>
       </c>
     </row>
     <row r="1118" spans="1:6">
@@ -23313,13 +23313,13 @@
         <v>41</v>
       </c>
       <c r="D1139">
-        <v>314.4292866604021</v>
+        <v>329.7205130700493</v>
       </c>
       <c r="E1139">
-        <v>238.5105439210839</v>
+        <v>260.4238108107457</v>
       </c>
       <c r="F1139">
-        <v>390.3480293997204</v>
+        <v>399.0172153293528</v>
       </c>
     </row>
     <row r="1140" spans="1:6">
@@ -23333,13 +23333,13 @@
         <v>41</v>
       </c>
       <c r="D1140">
-        <v>285.346476822496</v>
+        <v>313.7543139729636</v>
       </c>
       <c r="E1140">
-        <v>186.2552927640268</v>
+        <v>239.7247572861444</v>
       </c>
       <c r="F1140">
-        <v>384.437660880965</v>
+        <v>387.7838706597828</v>
       </c>
     </row>
     <row r="1141" spans="1:6">
@@ -23353,13 +23353,13 @@
         <v>41</v>
       </c>
       <c r="D1141">
-        <v>327.0005828723772</v>
+        <v>364.9631757961843</v>
       </c>
       <c r="E1141">
-        <v>208.9902026260696</v>
+        <v>281.0898192936932</v>
       </c>
       <c r="F1141">
-        <v>445.0109631186848</v>
+        <v>448.8365322986755</v>
       </c>
     </row>
     <row r="1142" spans="1:6">
@@ -23373,13 +23373,13 @@
         <v>41</v>
       </c>
       <c r="D1142">
-        <v>297.1395091300893</v>
+        <v>319.3297345457096</v>
       </c>
       <c r="E1142">
-        <v>166.3283930026348</v>
+        <v>231.9965127810718</v>
       </c>
       <c r="F1142">
-        <v>427.9506252575437</v>
+        <v>406.6629563103473</v>
       </c>
     </row>
     <row r="1143" spans="1:6">
@@ -23393,13 +23393,13 @@
         <v>41</v>
       </c>
       <c r="D1143">
-        <v>337.8248093112371</v>
+        <v>360.2784097677679</v>
       </c>
       <c r="E1143">
-        <v>194.999381014709</v>
+        <v>258.6498374908919</v>
       </c>
       <c r="F1143">
-        <v>480.6502376077652</v>
+        <v>461.9069820446439</v>
       </c>
     </row>
     <row r="1144" spans="1:6">
@@ -23413,13 +23413,13 @@
         <v>41</v>
       </c>
       <c r="D1144">
-        <v>307.0906999450921</v>
+        <v>317.4673460193403</v>
       </c>
       <c r="E1144">
-        <v>155.7816380814203</v>
+        <v>215.3097030853287</v>
       </c>
       <c r="F1144">
-        <v>458.3997618087638</v>
+        <v>419.6249889533519</v>
       </c>
     </row>
     <row r="1145" spans="1:6">
@@ -23433,13 +23433,13 @@
         <v>41</v>
       </c>
       <c r="D1145">
-        <v>346.969213611137</v>
+        <v>320.5518707292177</v>
       </c>
       <c r="E1145">
-        <v>187.1281740772423</v>
+        <v>216.553250951935</v>
       </c>
       <c r="F1145">
-        <v>506.8102531450318</v>
+        <v>424.5504905065004</v>
       </c>
     </row>
     <row r="1146" spans="1:6">
@@ -23453,13 +23453,13 @@
         <v>41</v>
       </c>
       <c r="D1146">
-        <v>315.4972281520428</v>
+        <v>269.0865279379323</v>
       </c>
       <c r="E1146">
-        <v>149.6325711718843</v>
+        <v>163.9400808803456</v>
       </c>
       <c r="F1146">
-        <v>481.3618851322012</v>
+        <v>374.2329749955189</v>
       </c>
     </row>
     <row r="1147" spans="1:6">
@@ -23473,13 +23473,13 @@
         <v>41</v>
       </c>
       <c r="D1147">
-        <v>354.6939414485916</v>
+        <v>301.6536738033789</v>
       </c>
       <c r="E1147">
-        <v>182.4356659628172</v>
+        <v>185.5631226179833</v>
       </c>
       <c r="F1147">
-        <v>526.952216934366</v>
+        <v>417.7442249887745</v>
       </c>
     </row>
     <row r="1148" spans="1:6">
@@ -23493,13 +23493,13 @@
         <v>41</v>
       </c>
       <c r="D1148">
-        <v>322.5989139147335</v>
+        <v>294.741368284004</v>
       </c>
       <c r="E1148">
-        <v>145.9086178965525</v>
+        <v>174.101774508905</v>
       </c>
       <c r="F1148">
-        <v>499.2892099329146</v>
+        <v>415.380962059103</v>
       </c>
     </row>
     <row r="1149" spans="1:6">
@@ -23933,13 +23933,13 @@
         <v>42</v>
       </c>
       <c r="D1170">
-        <v>274.8676875376211</v>
+        <v>269.973641644725</v>
       </c>
       <c r="E1170">
-        <v>199.4144472919353</v>
+        <v>220.3522410503479</v>
       </c>
       <c r="F1170">
-        <v>350.3209277833068</v>
+        <v>319.5950422391021</v>
       </c>
     </row>
     <row r="1171" spans="1:6">
@@ -23953,13 +23953,13 @@
         <v>42</v>
       </c>
       <c r="D1171">
-        <v>269.8644399801021</v>
+        <v>271.4663306107647</v>
       </c>
       <c r="E1171">
-        <v>194.4359407647319</v>
+        <v>221.8857656316171</v>
       </c>
       <c r="F1171">
-        <v>345.2929391954723</v>
+        <v>321.0468955899122</v>
       </c>
     </row>
     <row r="1172" spans="1:6">
@@ -23973,13 +23973,13 @@
         <v>42</v>
       </c>
       <c r="D1172">
-        <v>261.6764291956124</v>
+        <v>273.8905437789693</v>
       </c>
       <c r="E1172">
-        <v>185.981070470815</v>
+        <v>214.9640873267934</v>
       </c>
       <c r="F1172">
-        <v>337.3717879204098</v>
+        <v>332.8170002311453</v>
       </c>
     </row>
     <row r="1173" spans="1:6">
@@ -23993,13 +23993,13 @@
         <v>42</v>
       </c>
       <c r="D1173">
-        <v>257.2623554927714</v>
+        <v>227.0270770855615</v>
       </c>
       <c r="E1173">
-        <v>178.5297865907247</v>
+        <v>168.1150669686321</v>
       </c>
       <c r="F1173">
-        <v>335.9949243948181</v>
+        <v>285.9390872024908</v>
       </c>
     </row>
     <row r="1174" spans="1:6">
@@ -24013,13 +24013,13 @@
         <v>42</v>
       </c>
       <c r="D1174">
-        <v>254.8827730560921</v>
+        <v>272.209497950749</v>
       </c>
       <c r="E1174">
-        <v>170.8662101524493</v>
+        <v>208.217808058097</v>
       </c>
       <c r="F1174">
-        <v>338.899335959735</v>
+        <v>336.2011878434009</v>
       </c>
     </row>
     <row r="1175" spans="1:6">
@@ -24033,13 +24033,13 @@
         <v>42</v>
       </c>
       <c r="D1175">
-        <v>253.5999642599209</v>
+        <v>264.162205664106</v>
       </c>
       <c r="E1175">
-        <v>163.1790257478266</v>
+        <v>200.0446253437007</v>
       </c>
       <c r="F1175">
-        <v>344.0209027720152</v>
+        <v>328.2797859845112</v>
       </c>
     </row>
     <row r="1176" spans="1:6">
@@ -24053,13 +24053,13 @@
         <v>42</v>
       </c>
       <c r="D1176">
-        <v>252.9084150275141</v>
+        <v>226.8399114764712</v>
       </c>
       <c r="E1176">
-        <v>155.7216827412479</v>
+        <v>161.0084340305522</v>
       </c>
       <c r="F1176">
-        <v>350.0951473137803</v>
+        <v>292.6713889223902</v>
       </c>
     </row>
     <row r="1177" spans="1:6">
@@ -24073,13 +24073,13 @@
         <v>42</v>
       </c>
       <c r="D1177">
-        <v>252.5356078388903</v>
+        <v>209.7014552986111</v>
       </c>
       <c r="E1177">
-        <v>148.6100475547119</v>
+        <v>139.7094922997548</v>
       </c>
       <c r="F1177">
-        <v>356.4611681230688</v>
+        <v>279.6934182974674</v>
       </c>
     </row>
     <row r="1178" spans="1:6">
@@ -24093,13 +24093,13 @@
         <v>42</v>
       </c>
       <c r="D1178">
-        <v>252.3346312585161</v>
+        <v>252.5337511177404</v>
       </c>
       <c r="E1178">
-        <v>141.8662823150244</v>
+        <v>178.2036244811182</v>
       </c>
       <c r="F1178">
-        <v>362.8029802020077</v>
+        <v>326.8638777543626</v>
       </c>
     </row>
     <row r="1179" spans="1:6">
@@ -24113,13 +24113,13 @@
         <v>42</v>
       </c>
       <c r="D1179">
-        <v>252.2262868191075</v>
+        <v>268.3708342990946</v>
       </c>
       <c r="E1179">
-        <v>135.4705004909084</v>
+        <v>193.3417716771815</v>
       </c>
       <c r="F1179">
-        <v>368.9820731473067</v>
+        <v>343.3998969210076</v>
       </c>
     </row>
     <row r="1180" spans="1:6">
@@ -24553,13 +24553,13 @@
         <v>43</v>
       </c>
       <c r="D1201">
-        <v>406.3066403436143</v>
+        <v>425.0294463472616</v>
       </c>
       <c r="E1201">
-        <v>308.8098379291862</v>
+        <v>332.1623320807746</v>
       </c>
       <c r="F1201">
-        <v>503.8034427580425</v>
+        <v>517.8965606137485</v>
       </c>
     </row>
     <row r="1202" spans="1:6">
@@ -24573,13 +24573,13 @@
         <v>43</v>
       </c>
       <c r="D1202">
-        <v>410.7398707954131</v>
+        <v>435.0138041704184</v>
       </c>
       <c r="E1202">
-        <v>291.6262722638975</v>
+        <v>323.3977801419183</v>
       </c>
       <c r="F1202">
-        <v>529.8534693269287</v>
+        <v>546.6298281989186</v>
       </c>
     </row>
     <row r="1203" spans="1:6">
@@ -24593,13 +24593,13 @@
         <v>43</v>
       </c>
       <c r="D1203">
-        <v>435.9089463186241</v>
+        <v>493.667951231942</v>
       </c>
       <c r="E1203">
-        <v>283.6756129204763</v>
+        <v>352.5063196282141</v>
       </c>
       <c r="F1203">
-        <v>588.142279716772</v>
+        <v>634.82958283567</v>
       </c>
     </row>
     <row r="1204" spans="1:6">
@@ -24613,13 +24613,13 @@
         <v>43</v>
       </c>
       <c r="D1204">
-        <v>348.4067305055985</v>
+        <v>406.6709413736039</v>
       </c>
       <c r="E1204">
-        <v>166.0717007805893</v>
+        <v>241.1877198730156</v>
       </c>
       <c r="F1204">
-        <v>530.7417602306077</v>
+        <v>572.1541628741921</v>
       </c>
     </row>
     <row r="1205" spans="1:6">
@@ -24633,13 +24633,13 @@
         <v>43</v>
       </c>
       <c r="D1205">
-        <v>379.1495623589353</v>
+        <v>464.3876383850837</v>
       </c>
       <c r="E1205">
-        <v>147.2841174120147</v>
+        <v>257.8668541332931</v>
       </c>
       <c r="F1205">
-        <v>611.0150073058558</v>
+        <v>670.9084226368742</v>
       </c>
     </row>
     <row r="1206" spans="1:6">
@@ -24653,13 +24653,13 @@
         <v>43</v>
       </c>
       <c r="D1206">
-        <v>390.1402227337843</v>
+        <v>464.1946199366143</v>
       </c>
       <c r="E1206">
-        <v>137.8366097266911</v>
+        <v>245.2667079101132</v>
       </c>
       <c r="F1206">
-        <v>642.4438357408775</v>
+        <v>683.1225319631153</v>
       </c>
     </row>
     <row r="1207" spans="1:6">
@@ -24673,13 +24673,13 @@
         <v>43</v>
       </c>
       <c r="D1207">
-        <v>431.0381534566421</v>
+        <v>513.1260173098894</v>
       </c>
       <c r="E1207">
-        <v>157.095801748907</v>
+        <v>285.5966341926444</v>
       </c>
       <c r="F1207">
-        <v>704.9805051643771</v>
+        <v>740.6554004271345</v>
       </c>
     </row>
     <row r="1208" spans="1:6">
@@ -24693,13 +24693,13 @@
         <v>43</v>
       </c>
       <c r="D1208">
-        <v>359.8345150273164</v>
+        <v>419.7898510314337</v>
       </c>
       <c r="E1208">
-        <v>68.08548720100225</v>
+        <v>185.3396779619307</v>
       </c>
       <c r="F1208">
-        <v>651.5835428536305</v>
+        <v>654.2400241009366</v>
       </c>
     </row>
     <row r="1209" spans="1:6">
@@ -24713,13 +24713,13 @@
         <v>43</v>
       </c>
       <c r="D1209">
-        <v>376.7917790602631</v>
+        <v>456.1146006029227</v>
       </c>
       <c r="E1209">
-        <v>52.90088595017744</v>
+        <v>203.4142393864276</v>
       </c>
       <c r="F1209">
-        <v>700.6826721703487</v>
+        <v>708.8149618194177</v>
       </c>
     </row>
     <row r="1210" spans="1:6">
@@ -24733,13 +24733,13 @@
         <v>43</v>
       </c>
       <c r="D1210">
-        <v>380.8135574725209</v>
+        <v>443.0018729970644</v>
       </c>
       <c r="E1210">
-        <v>39.8056172719763</v>
+        <v>180.5604882432717</v>
       </c>
       <c r="F1210">
-        <v>721.8214976730656</v>
+        <v>705.4432577508571</v>
       </c>
     </row>
     <row r="1211" spans="1:6">
@@ -25173,13 +25173,13 @@
         <v>44</v>
       </c>
       <c r="D1232">
-        <v>296.5751804288631</v>
+        <v>323.9617721221106</v>
       </c>
       <c r="E1232">
-        <v>235.3810002401075</v>
+        <v>264.4495477319385</v>
       </c>
       <c r="F1232">
-        <v>357.7693606176187</v>
+        <v>383.4739965122827</v>
       </c>
     </row>
     <row r="1233" spans="1:6">
@@ -25193,13 +25193,13 @@
         <v>44</v>
       </c>
       <c r="D1233">
-        <v>227.3037779604597</v>
+        <v>211.5846546076804</v>
       </c>
       <c r="E1233">
-        <v>165.7747521565995</v>
+        <v>142.7420238238434</v>
       </c>
       <c r="F1233">
-        <v>288.8328037643198</v>
+        <v>280.4272853915173</v>
       </c>
     </row>
     <row r="1234" spans="1:6">
@@ -25213,13 +25213,13 @@
         <v>44</v>
       </c>
       <c r="D1234">
-        <v>245.737724290316</v>
+        <v>243.0086913924773</v>
       </c>
       <c r="E1234">
-        <v>181.3245149664918</v>
+        <v>167.8061923912161</v>
       </c>
       <c r="F1234">
-        <v>310.1509336141401</v>
+        <v>318.2111903937385</v>
       </c>
     </row>
     <row r="1235" spans="1:6">
@@ -25233,13 +25233,13 @@
         <v>44</v>
       </c>
       <c r="D1235">
-        <v>200.0081686322915</v>
+        <v>212.3982066794908</v>
       </c>
       <c r="E1235">
-        <v>131.4678921811785</v>
+        <v>136.581907892715</v>
       </c>
       <c r="F1235">
-        <v>268.5484450834045</v>
+        <v>288.2145054662665</v>
       </c>
     </row>
     <row r="1236" spans="1:6">
@@ -25253,13 +25253,13 @@
         <v>44</v>
       </c>
       <c r="D1236">
-        <v>231.0714514625294</v>
+        <v>215.0876011356518</v>
       </c>
       <c r="E1236">
-        <v>153.7278110678214</v>
+        <v>135.2470016832547</v>
       </c>
       <c r="F1236">
-        <v>308.4150918572373</v>
+        <v>294.9282005880489</v>
       </c>
     </row>
     <row r="1237" spans="1:6">
@@ -25273,13 +25273,13 @@
         <v>44</v>
       </c>
       <c r="D1237">
-        <v>192.1385323816404</v>
+        <v>203.7305846702025</v>
       </c>
       <c r="E1237">
-        <v>108.2562465003954</v>
+        <v>121.2841995758169</v>
       </c>
       <c r="F1237">
-        <v>276.0208182628854</v>
+        <v>286.176969764588</v>
       </c>
     </row>
     <row r="1238" spans="1:6">
@@ -25293,13 +25293,13 @@
         <v>44</v>
       </c>
       <c r="D1238">
-        <v>226.8380285711905</v>
+        <v>200.1003343260783</v>
       </c>
       <c r="E1238">
-        <v>133.6196943910678</v>
+        <v>114.1658243323427</v>
       </c>
       <c r="F1238">
-        <v>320.0563627513131</v>
+        <v>286.0348443198139</v>
       </c>
     </row>
     <row r="1239" spans="1:6">
@@ -25313,13 +25313,13 @@
         <v>44</v>
       </c>
       <c r="D1239">
-        <v>189.8719258998221</v>
+        <v>193.2986748059043</v>
       </c>
       <c r="E1239">
-        <v>90.2748727388625</v>
+        <v>104.2650712297745</v>
       </c>
       <c r="F1239">
-        <v>289.4689790607817</v>
+        <v>282.3322783820341</v>
       </c>
     </row>
     <row r="1240" spans="1:6">
@@ -25333,13 +25333,13 @@
         <v>44</v>
       </c>
       <c r="D1240">
-        <v>225.613751876289</v>
+        <v>188.2941866265333</v>
       </c>
       <c r="E1240">
-        <v>117.5025420219586</v>
+        <v>96.03894934802214</v>
       </c>
       <c r="F1240">
-        <v>333.7249617306194</v>
+        <v>280.5494239050444</v>
       </c>
     </row>
     <row r="1241" spans="1:6">
@@ -25353,13 +25353,13 @@
         <v>44</v>
       </c>
       <c r="D1241">
-        <v>189.2213996653504</v>
+        <v>182.5762211005211</v>
       </c>
       <c r="E1241">
-        <v>75.33038994354943</v>
+        <v>87.25778577114967</v>
       </c>
       <c r="F1241">
-        <v>303.1124093871514</v>
+        <v>277.8946564298926</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -25793,13 +25793,13 @@
         <v>45</v>
       </c>
       <c r="D1263">
-        <v>393.9999999999999</v>
+        <v>520.2347874992964</v>
       </c>
       <c r="E1263">
-        <v>239.8819408327486</v>
+        <v>417.7182092934808</v>
       </c>
       <c r="F1263">
-        <v>548.1180591672513</v>
+        <v>622.7513657051121</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -25813,13 +25813,13 @@
         <v>45</v>
       </c>
       <c r="D1264">
-        <v>393.9999999999999</v>
+        <v>458.8067603213497</v>
       </c>
       <c r="E1264">
-        <v>176.0441505190533</v>
+        <v>356.6610548722811</v>
       </c>
       <c r="F1264">
-        <v>611.9558494809467</v>
+        <v>560.9524657704181</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -25833,13 +25833,13 @@
         <v>45</v>
       </c>
       <c r="D1265">
-        <v>393.9999999999999</v>
+        <v>503.4739044880025</v>
       </c>
       <c r="E1265">
-        <v>127.0596911584131</v>
+        <v>400.9569505052727</v>
       </c>
       <c r="F1265">
-        <v>660.9403088415868</v>
+        <v>605.9908584707322</v>
       </c>
     </row>
     <row r="1266" spans="1:6">
@@ -25853,13 +25853,13 @@
         <v>45</v>
       </c>
       <c r="D1266">
-        <v>393.9999999999999</v>
+        <v>442.0466292996806</v>
       </c>
       <c r="E1266">
-        <v>85.76388166549577</v>
+        <v>339.9005414450459</v>
       </c>
       <c r="F1266">
-        <v>702.2361183345041</v>
+        <v>544.1927171543153</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -25873,13 +25873,13 @@
         <v>45</v>
       </c>
       <c r="D1267">
-        <v>393.9999999999999</v>
+        <v>486.7130214820385</v>
       </c>
       <c r="E1267">
-        <v>49.38154314168958</v>
+        <v>384.1956917343384</v>
       </c>
       <c r="F1267">
-        <v>738.6184568583103</v>
+        <v>589.2303512297385</v>
       </c>
     </row>
     <row r="1268" spans="1:6">
@@ -25893,13 +25893,13 @@
         <v>45</v>
       </c>
       <c r="D1268">
-        <v>393.9999999999999</v>
+        <v>425.2864982726815</v>
       </c>
       <c r="E1268">
-        <v>16.4893948921648</v>
+        <v>323.1400280245914</v>
       </c>
       <c r="F1268">
-        <v>771.5106051078351</v>
+        <v>527.4329685207716</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -25913,13 +25913,13 @@
         <v>45</v>
       </c>
       <c r="D1269">
-        <v>393.9999999999999</v>
+        <v>469.9521384814043</v>
       </c>
       <c r="E1269">
-        <v>-13.75805710048769</v>
+        <v>367.4344329806771</v>
       </c>
       <c r="F1269">
-        <v>801.7580571004876</v>
+        <v>572.4698439821315</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -25933,13 +25933,13 @@
         <v>45</v>
       </c>
       <c r="D1270">
-        <v>393.9999999999999</v>
+        <v>408.5263672403526</v>
       </c>
       <c r="E1270">
-        <v>-41.91169896189439</v>
+        <v>306.3795146109175</v>
       </c>
       <c r="F1270">
-        <v>829.9116989618942</v>
+        <v>510.6732198697877</v>
       </c>
     </row>
     <row r="1271" spans="1:6">
@@ -25953,13 +25953,13 @@
         <v>45</v>
       </c>
       <c r="D1271">
-        <v>393.9999999999999</v>
+        <v>453.1912554861001</v>
       </c>
       <c r="E1271">
-        <v>-68.35417750175668</v>
+        <v>350.6731742442888</v>
       </c>
       <c r="F1271">
-        <v>856.3541775017566</v>
+        <v>555.7093367279116</v>
       </c>
     </row>
     <row r="1272" spans="1:6">
@@ -25973,13 +25973,13 @@
         <v>45</v>
       </c>
       <c r="D1272">
-        <v>393.9999999999999</v>
+        <v>391.7662362026938</v>
       </c>
       <c r="E1272">
-        <v>-93.36409553311023</v>
+        <v>289.6190012040237</v>
       </c>
       <c r="F1272">
-        <v>881.3640955331101</v>
+        <v>493.913471201364</v>
       </c>
     </row>
     <row r="1273" spans="1:6">
@@ -26413,13 +26413,13 @@
         <v>46</v>
       </c>
       <c r="D1294">
-        <v>267</v>
+        <v>362.9666074103972</v>
       </c>
       <c r="E1294">
-        <v>130.4949489532408</v>
+        <v>293.6358319598446</v>
       </c>
       <c r="F1294">
-        <v>403.5050510467593</v>
+        <v>432.2973828609498</v>
       </c>
     </row>
     <row r="1295" spans="1:6">
@@ -26433,13 +26433,13 @@
         <v>46</v>
       </c>
       <c r="D1295">
-        <v>267</v>
+        <v>326.3104891430181</v>
       </c>
       <c r="E1295">
-        <v>73.95270547724158</v>
+        <v>250.1519319329867</v>
       </c>
       <c r="F1295">
-        <v>460.0472945227584</v>
+        <v>402.4690463530494</v>
       </c>
     </row>
     <row r="1296" spans="1:6">
@@ -26453,13 +26453,13 @@
         <v>46</v>
       </c>
       <c r="D1296">
-        <v>267</v>
+        <v>297.8584443400115</v>
       </c>
       <c r="E1296">
-        <v>30.56631609723007</v>
+        <v>221.690714102873</v>
       </c>
       <c r="F1296">
-        <v>503.4336839027699</v>
+        <v>374.02617457715</v>
       </c>
     </row>
     <row r="1297" spans="1:6">
@@ -26473,13 +26473,13 @@
         <v>46</v>
       </c>
       <c r="D1297">
-        <v>267</v>
+        <v>189.4626509858883</v>
       </c>
       <c r="E1297">
-        <v>-6.010102093518185</v>
+        <v>106.6545286913005</v>
       </c>
       <c r="F1297">
-        <v>540.0101020935182</v>
+        <v>272.270773280476</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -26493,13 +26493,13 @@
         <v>46</v>
       </c>
       <c r="D1298">
-        <v>267</v>
+        <v>240.2919356498757</v>
       </c>
       <c r="E1298">
-        <v>-38.23457341263213</v>
+        <v>123.92689445233</v>
       </c>
       <c r="F1298">
-        <v>572.2345734126321</v>
+        <v>356.6569768474213</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -26513,13 +26513,13 @@
         <v>46</v>
       </c>
       <c r="D1299">
-        <v>267</v>
+        <v>200.1178360696161</v>
       </c>
       <c r="E1299">
-        <v>-67.36772237713046</v>
+        <v>60.38677397947902</v>
       </c>
       <c r="F1299">
-        <v>601.3677223771305</v>
+        <v>339.8488981597533</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -26533,13 +26533,13 @@
         <v>46</v>
       </c>
       <c r="D1300">
-        <v>267</v>
+        <v>214.0307774125823</v>
       </c>
       <c r="E1300">
-        <v>-94.1584177739017</v>
+        <v>59.86582010314143</v>
       </c>
       <c r="F1300">
-        <v>628.1584177739016</v>
+        <v>368.1957347220232</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -26553,13 +26553,13 @@
         <v>46</v>
       </c>
       <c r="D1301">
-        <v>267</v>
+        <v>127.7862813225878</v>
       </c>
       <c r="E1301">
-        <v>-119.0945890455167</v>
+        <v>-43.22367016921896</v>
       </c>
       <c r="F1301">
-        <v>653.0945890455166</v>
+        <v>298.7962328143946</v>
       </c>
     </row>
     <row r="1302" spans="1:6">
@@ -26573,13 +26573,13 @@
         <v>46</v>
       </c>
       <c r="D1302">
-        <v>267</v>
+        <v>166.663566481325</v>
       </c>
       <c r="E1302">
-        <v>-142.5151531402772</v>
+        <v>-34.11726774329526</v>
       </c>
       <c r="F1302">
-        <v>676.5151531402771</v>
+        <v>367.4444007059453</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -26593,13 +26593,13 @@
         <v>46</v>
       </c>
       <c r="D1303">
-        <v>267</v>
+        <v>123.6236641436935</v>
       </c>
       <c r="E1303">
-        <v>-164.6668734253104</v>
+        <v>-105.6686331130445</v>
       </c>
       <c r="F1303">
-        <v>698.6668734253104</v>
+        <v>352.9159614004316</v>
       </c>
     </row>
     <row r="1304" spans="1:6">
@@ -27033,13 +27033,13 @@
         <v>47</v>
       </c>
       <c r="D1325">
-        <v>151.5450399132684</v>
+        <v>163.0949587342374</v>
       </c>
       <c r="E1325">
-        <v>112.4681547242465</v>
+        <v>122.0629448191718</v>
       </c>
       <c r="F1325">
-        <v>190.6219251022902</v>
+        <v>204.126972649303</v>
       </c>
     </row>
     <row r="1326" spans="1:6">
@@ -27053,13 +27053,13 @@
         <v>47</v>
       </c>
       <c r="D1326">
-        <v>155.4614378612901</v>
+        <v>164.9121600764011</v>
       </c>
       <c r="E1326">
-        <v>107.6114196343312</v>
+        <v>120.3047011100038</v>
       </c>
       <c r="F1326">
-        <v>203.311456088249</v>
+        <v>209.5196190427983</v>
       </c>
     </row>
     <row r="1327" spans="1:6">
@@ -27073,13 +27073,13 @@
         <v>47</v>
       </c>
       <c r="D1327">
-        <v>177.8720480489403</v>
+        <v>199.4664036639873</v>
       </c>
       <c r="E1327">
-        <v>121.7605293136154</v>
+        <v>152.0852538616017</v>
       </c>
       <c r="F1327">
-        <v>233.9835667842652</v>
+        <v>246.8475534663729</v>
       </c>
     </row>
     <row r="1328" spans="1:6">
@@ -27093,13 +27093,13 @@
         <v>47</v>
       </c>
       <c r="D1328">
-        <v>128.2616330428696</v>
+        <v>137.3476352694198</v>
       </c>
       <c r="E1328">
-        <v>72.16163904898929</v>
+        <v>87.18288162976236</v>
       </c>
       <c r="F1328">
-        <v>184.36162703675</v>
+        <v>187.5123889090771</v>
       </c>
     </row>
     <row r="1329" spans="1:6">
@@ -27113,13 +27113,13 @@
         <v>47</v>
       </c>
       <c r="D1329">
-        <v>151.4414179012102</v>
+        <v>171.4200199409377</v>
       </c>
       <c r="E1329">
-        <v>81.90587309802991</v>
+        <v>114.6609806504617</v>
       </c>
       <c r="F1329">
-        <v>220.9769627043904</v>
+        <v>228.1790592314138</v>
       </c>
     </row>
     <row r="1330" spans="1:6">
@@ -27133,13 +27133,13 @@
         <v>47</v>
       </c>
       <c r="D1330">
-        <v>160.3010047338978</v>
+        <v>153.4859886298561</v>
       </c>
       <c r="E1330">
-        <v>87.60307397580367</v>
+        <v>96.56715651973191</v>
       </c>
       <c r="F1330">
-        <v>232.998935491992</v>
+        <v>210.4048207399803</v>
       </c>
     </row>
     <row r="1331" spans="1:6">
@@ -27153,13 +27153,13 @@
         <v>47</v>
       </c>
       <c r="D1331">
-        <v>159.1197703550018</v>
+        <v>173.5741221564206</v>
       </c>
       <c r="E1331">
-        <v>81.55371962945385</v>
+        <v>114.5901203753429</v>
       </c>
       <c r="F1331">
-        <v>236.6858210805497</v>
+        <v>232.5581239374982</v>
       </c>
     </row>
     <row r="1332" spans="1:6">
@@ -27173,13 +27173,13 @@
         <v>47</v>
       </c>
       <c r="D1332">
-        <v>145.3058204987552</v>
+        <v>143.7552386546078</v>
       </c>
       <c r="E1332">
-        <v>66.7282891948522</v>
+        <v>84.74471166226115</v>
       </c>
       <c r="F1332">
-        <v>223.8833518026582</v>
+        <v>202.7657656469545</v>
       </c>
     </row>
     <row r="1333" spans="1:6">
@@ -27193,13 +27193,13 @@
         <v>47</v>
       </c>
       <c r="D1333">
-        <v>145.7538213210422</v>
+        <v>163.6991601632733</v>
       </c>
       <c r="E1333">
-        <v>61.23965445846322</v>
+        <v>101.8620649056471</v>
       </c>
       <c r="F1333">
-        <v>230.2679881836212</v>
+        <v>225.5362554208995</v>
       </c>
     </row>
     <row r="1334" spans="1:6">
@@ -27213,13 +27213,13 @@
         <v>47</v>
       </c>
       <c r="D1334">
-        <v>164.4538562240062</v>
+        <v>147.2112906593259</v>
       </c>
       <c r="E1334">
-        <v>75.89037691434785</v>
+        <v>85.25831985095149</v>
       </c>
       <c r="F1334">
-        <v>253.0173355336645</v>
+        <v>209.1642614677002</v>
       </c>
     </row>
     <row r="1335" spans="1:6">
@@ -27653,13 +27653,13 @@
         <v>48</v>
       </c>
       <c r="D1356">
-        <v>192.860670984013</v>
+        <v>192.9191767353147</v>
       </c>
       <c r="E1356">
-        <v>151.774519249245</v>
+        <v>151.7620667422897</v>
       </c>
       <c r="F1356">
-        <v>233.9468227187809</v>
+        <v>234.0762867283398</v>
       </c>
     </row>
     <row r="1357" spans="1:6">
@@ -27673,13 +27673,13 @@
         <v>48</v>
       </c>
       <c r="D1357">
-        <v>185.781990791357</v>
+        <v>172.6445279029037</v>
       </c>
       <c r="E1357">
-        <v>144.0551108150028</v>
+        <v>129.427011614421</v>
       </c>
       <c r="F1357">
-        <v>227.5088707677112</v>
+        <v>215.8620441913865</v>
       </c>
     </row>
     <row r="1358" spans="1:6">
@@ -27693,13 +27693,13 @@
         <v>48</v>
       </c>
       <c r="D1358">
-        <v>179.0083522721177</v>
+        <v>169.0983821466614</v>
       </c>
       <c r="E1358">
-        <v>131.5817873855007</v>
+        <v>118.4986111367802</v>
       </c>
       <c r="F1358">
-        <v>226.4349171587346</v>
+        <v>219.6981531565424</v>
       </c>
     </row>
     <row r="1359" spans="1:6">
@@ -27713,13 +27713,13 @@
         <v>48</v>
       </c>
       <c r="D1359">
-        <v>166.1546543772956</v>
+        <v>148.9276022709933</v>
       </c>
       <c r="E1359">
-        <v>107.1233224056637</v>
+        <v>90.3803272961334</v>
       </c>
       <c r="F1359">
-        <v>225.1859863489275</v>
+        <v>207.4748772458532</v>
       </c>
     </row>
     <row r="1360" spans="1:6">
@@ -27733,13 +27733,13 @@
         <v>48</v>
       </c>
       <c r="D1360">
-        <v>164.8783540304475</v>
+        <v>143.5679502807886</v>
       </c>
       <c r="E1360">
-        <v>85.24026892457387</v>
+        <v>66.87467887715994</v>
       </c>
       <c r="F1360">
-        <v>244.5164391363211</v>
+        <v>220.2612216844173</v>
       </c>
     </row>
     <row r="1361" spans="1:6">
@@ -27753,13 +27753,13 @@
         <v>48</v>
       </c>
       <c r="D1361">
-        <v>163.5865128756548</v>
+        <v>135.9272881664048</v>
       </c>
       <c r="E1361">
-        <v>73.93431703467927</v>
+        <v>48.5744159649544</v>
       </c>
       <c r="F1361">
-        <v>253.2387087166303</v>
+        <v>223.2801603678552</v>
       </c>
     </row>
     <row r="1362" spans="1:6">
@@ -27773,13 +27773,13 @@
         <v>48</v>
       </c>
       <c r="D1362">
-        <v>159.9039694564687</v>
+        <v>123.1516271492</v>
       </c>
       <c r="E1362">
-        <v>61.13858771088418</v>
+        <v>28.58153552549648</v>
       </c>
       <c r="F1362">
-        <v>258.6693512020533</v>
+        <v>217.7217187729034</v>
       </c>
     </row>
     <row r="1363" spans="1:6">
@@ -27793,13 +27793,13 @@
         <v>48</v>
       </c>
       <c r="D1363">
-        <v>153.1454096677906</v>
+        <v>115.9973283070417</v>
       </c>
       <c r="E1363">
-        <v>42.25915871154061</v>
+        <v>6.905857793729567</v>
       </c>
       <c r="F1363">
-        <v>264.0316606240407</v>
+        <v>225.0887988203539</v>
       </c>
     </row>
     <row r="1364" spans="1:6">
@@ -27813,13 +27813,13 @@
         <v>48</v>
       </c>
       <c r="D1364">
-        <v>151.3046058010628</v>
+        <v>106.7120130799904</v>
       </c>
       <c r="E1364">
-        <v>24.7799862561893</v>
+        <v>-16.12343174697178</v>
       </c>
       <c r="F1364">
-        <v>277.8292253459362</v>
+        <v>229.5474579069526</v>
       </c>
     </row>
     <row r="1365" spans="1:6">
@@ -27833,13 +27833,13 @@
         <v>48</v>
       </c>
       <c r="D1365">
-        <v>151.4024502546384</v>
+        <v>105.1579259614893</v>
       </c>
       <c r="E1365">
-        <v>12.82624352522197</v>
+        <v>-29.93023298210902</v>
       </c>
       <c r="F1365">
-        <v>289.9786569840549</v>
+        <v>240.2460849050876</v>
       </c>
     </row>
     <row r="1366" spans="1:6">
@@ -30133,13 +30133,13 @@
         <v>52</v>
       </c>
       <c r="D1480">
-        <v>266.1887672973116</v>
+        <v>313.2201881974586</v>
       </c>
       <c r="E1480">
-        <v>219.0706712068195</v>
+        <v>271.0206757534019</v>
       </c>
       <c r="F1480">
-        <v>313.3068633878037</v>
+        <v>355.4197006415153</v>
       </c>
     </row>
     <row r="1481" spans="1:6">
@@ -30153,13 +30153,13 @@
         <v>52</v>
       </c>
       <c r="D1481">
-        <v>244.5583941136862</v>
+        <v>323.6646368292955</v>
       </c>
       <c r="E1481">
-        <v>191.069888016206</v>
+        <v>281.5311346112649</v>
       </c>
       <c r="F1481">
-        <v>298.0469002111664</v>
+        <v>365.7981390473262</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -30173,13 +30173,13 @@
         <v>52</v>
       </c>
       <c r="D1482">
-        <v>287.0936507520601</v>
+        <v>347.6057611674655</v>
       </c>
       <c r="E1482">
-        <v>222.1329348177428</v>
+        <v>301.6244499772825</v>
       </c>
       <c r="F1482">
-        <v>352.0543666863775</v>
+        <v>393.5870723576484</v>
       </c>
     </row>
     <row r="1483" spans="1:6">
@@ -30193,13 +30193,13 @@
         <v>52</v>
       </c>
       <c r="D1483">
-        <v>270.9798626143602</v>
+        <v>263.5262600585482</v>
       </c>
       <c r="E1483">
-        <v>201.130355097417</v>
+        <v>208.303600228837</v>
       </c>
       <c r="F1483">
-        <v>340.8293701313033</v>
+        <v>318.7489198882594</v>
       </c>
     </row>
     <row r="1484" spans="1:6">
@@ -30213,13 +30213,13 @@
         <v>52</v>
       </c>
       <c r="D1484">
-        <v>336.551821953702</v>
+        <v>298.9833313408161</v>
       </c>
       <c r="E1484">
-        <v>252.5210405261789</v>
+        <v>240.6538324645564</v>
       </c>
       <c r="F1484">
-        <v>420.5826033812251</v>
+        <v>357.3128302170758</v>
       </c>
     </row>
     <row r="1485" spans="1:6">
@@ -30233,13 +30233,13 @@
         <v>52</v>
       </c>
       <c r="D1485">
-        <v>299.8843557238061</v>
+        <v>261.6999469098095</v>
       </c>
       <c r="E1485">
-        <v>215.6137881116062</v>
+        <v>203.2604263638672</v>
       </c>
       <c r="F1485">
-        <v>384.154923336006</v>
+        <v>320.1394674557517</v>
       </c>
     </row>
     <row r="1486" spans="1:6">
@@ -30253,13 +30253,13 @@
         <v>52</v>
       </c>
       <c r="D1486">
-        <v>297.8537084822829</v>
+        <v>278.9217559244964</v>
       </c>
       <c r="E1486">
-        <v>213.0565173787468</v>
+        <v>219.9830795354943</v>
       </c>
       <c r="F1486">
-        <v>382.650899585819</v>
+        <v>337.8604323134984</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -30273,13 +30273,13 @@
         <v>52</v>
       </c>
       <c r="D1487">
-        <v>237.7353792404102</v>
+        <v>227.5644041394267</v>
       </c>
       <c r="E1487">
-        <v>152.786106794567</v>
+        <v>168.3284295632349</v>
       </c>
       <c r="F1487">
-        <v>322.6846516862533</v>
+        <v>286.8003787156185</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -30293,13 +30293,13 @@
         <v>52</v>
       </c>
       <c r="D1488">
-        <v>275.5594782979549</v>
+        <v>294.7068934911073</v>
       </c>
       <c r="E1488">
-        <v>181.085050579221</v>
+        <v>231.4442635165315</v>
       </c>
       <c r="F1488">
-        <v>370.0339060166888</v>
+        <v>357.9695234656831</v>
       </c>
     </row>
     <row r="1489" spans="1:6">
@@ -30313,13 +30313,13 @@
         <v>52</v>
       </c>
       <c r="D1489">
-        <v>251.478107416694</v>
+        <v>278.8583916048573</v>
       </c>
       <c r="E1489">
-        <v>154.480556574126</v>
+        <v>215.1046285740798</v>
       </c>
       <c r="F1489">
-        <v>348.475658259262</v>
+        <v>342.6121546356348</v>
       </c>
     </row>
     <row r="1490" spans="1:6">
@@ -30753,13 +30753,13 @@
         <v>53</v>
       </c>
       <c r="D1511">
-        <v>355.6029815747399</v>
+        <v>341.6644175683278</v>
       </c>
       <c r="E1511">
-        <v>288.3480634273514</v>
+        <v>280.7937609096333</v>
       </c>
       <c r="F1511">
-        <v>422.8578997221285</v>
+        <v>402.5350742270224</v>
       </c>
     </row>
     <row r="1512" spans="1:6">
@@ -30773,13 +30773,13 @@
         <v>53</v>
       </c>
       <c r="D1512">
-        <v>315.8032425401947</v>
+        <v>281.7568836887611</v>
       </c>
       <c r="E1512">
-        <v>240.484435026148</v>
+        <v>215.8724932095726</v>
       </c>
       <c r="F1512">
-        <v>391.1220500542414</v>
+        <v>347.6412741679497</v>
       </c>
     </row>
     <row r="1513" spans="1:6">
@@ -30793,13 +30793,13 @@
         <v>53</v>
       </c>
       <c r="D1513">
-        <v>393.6258219962125</v>
+        <v>314.2628539011732</v>
       </c>
       <c r="E1513">
-        <v>305.7141372319613</v>
+        <v>236.4038933559553</v>
       </c>
       <c r="F1513">
-        <v>481.5375067604637</v>
+        <v>392.1218144463912</v>
       </c>
     </row>
     <row r="1514" spans="1:6">
@@ -30813,13 +30813,13 @@
         <v>53</v>
       </c>
       <c r="D1514">
-        <v>309.8368035230075</v>
+        <v>223.8550545126907</v>
       </c>
       <c r="E1514">
-        <v>221.9245738135494</v>
+        <v>145.9328735630613</v>
       </c>
       <c r="F1514">
-        <v>397.7490332324655</v>
+        <v>301.7772354623202</v>
       </c>
     </row>
     <row r="1515" spans="1:6">
@@ -30833,13 +30833,13 @@
         <v>53</v>
       </c>
       <c r="D1515">
-        <v>387.8570043994741</v>
+        <v>291.7100876307587</v>
       </c>
       <c r="E1515">
-        <v>285.1773367842599</v>
+        <v>186.2954298457446</v>
       </c>
       <c r="F1515">
-        <v>490.5366720146884</v>
+        <v>397.1247454157728</v>
       </c>
     </row>
     <row r="1516" spans="1:6">
@@ -30853,13 +30853,13 @@
         <v>53</v>
       </c>
       <c r="D1516">
-        <v>319.1566771173948</v>
+        <v>207.2864820514017</v>
       </c>
       <c r="E1516">
-        <v>216.4601954809665</v>
+        <v>102.12657096109</v>
       </c>
       <c r="F1516">
-        <v>421.8531587538232</v>
+        <v>312.4463931417133</v>
       </c>
     </row>
     <row r="1517" spans="1:6">
@@ -30873,13 +30873,13 @@
         <v>53</v>
       </c>
       <c r="D1517">
-        <v>378.1721138512463</v>
+        <v>241.9611602058532</v>
       </c>
       <c r="E1517">
-        <v>265.0413817243411</v>
+        <v>123.1744839488645</v>
       </c>
       <c r="F1517">
-        <v>491.3028459781515</v>
+        <v>360.7478364628419</v>
       </c>
     </row>
     <row r="1518" spans="1:6">
@@ -30893,13 +30893,13 @@
         <v>53</v>
       </c>
       <c r="D1518">
-        <v>328.0615906236724</v>
+        <v>178.4377975914773</v>
       </c>
       <c r="E1518">
-        <v>214.6386591391512</v>
+        <v>58.63342076564305</v>
       </c>
       <c r="F1518">
-        <v>441.4845221081935</v>
+        <v>298.2421744173115</v>
       </c>
     </row>
     <row r="1519" spans="1:6">
@@ -30913,13 +30913,13 @@
         <v>53</v>
       </c>
       <c r="D1519">
-        <v>370.3733104347179</v>
+        <v>213.370216351012</v>
       </c>
       <c r="E1519">
-        <v>249.5599610719201</v>
+        <v>80.69918577425491</v>
       </c>
       <c r="F1519">
-        <v>491.1866597975157</v>
+        <v>346.0412469277691</v>
       </c>
     </row>
     <row r="1520" spans="1:6">
@@ -30933,13 +30933,13 @@
         <v>53</v>
       </c>
       <c r="D1520">
-        <v>334.7441944964831</v>
+        <v>148.475132331602</v>
       </c>
       <c r="E1520">
-        <v>213.1989981578723</v>
+        <v>15.68506637626589</v>
       </c>
       <c r="F1520">
-        <v>456.2893908350939</v>
+        <v>281.265198286938</v>
       </c>
     </row>
     <row r="1521" spans="1:6">
@@ -31373,13 +31373,13 @@
         <v>54</v>
       </c>
       <c r="D1542">
-        <v>592.9551894930428</v>
+        <v>443.2834680775916</v>
       </c>
       <c r="E1542">
-        <v>414.7767299351898</v>
+        <v>267.708139547012</v>
       </c>
       <c r="F1542">
-        <v>771.1336490508957</v>
+        <v>618.8587966081711</v>
       </c>
     </row>
     <row r="1543" spans="1:6">
@@ -31393,13 +31393,13 @@
         <v>54</v>
       </c>
       <c r="D1543">
-        <v>661.8325232245611</v>
+        <v>455.1813178628951</v>
       </c>
       <c r="E1543">
-        <v>460.8413694647321</v>
+        <v>196.4879233224672</v>
       </c>
       <c r="F1543">
-        <v>862.8236769843902</v>
+        <v>713.874712403323</v>
       </c>
     </row>
     <row r="1544" spans="1:6">
@@ -31413,13 +31413,13 @@
         <v>54</v>
       </c>
       <c r="D1544">
-        <v>697.7847818677353</v>
+        <v>466.4448017627635</v>
       </c>
       <c r="E1544">
-        <v>491.013957580487</v>
+        <v>144.1133663922334</v>
       </c>
       <c r="F1544">
-        <v>904.5556061549836</v>
+        <v>788.7762371332935</v>
       </c>
     </row>
     <row r="1545" spans="1:6">
@@ -31433,13 +31433,13 @@
         <v>54</v>
       </c>
       <c r="D1545">
-        <v>716.5509685291424</v>
+        <v>326.5348216390083</v>
       </c>
       <c r="E1545">
-        <v>508.2332210962489</v>
+        <v>-42.20546131282651</v>
       </c>
       <c r="F1545">
-        <v>924.8687159620359</v>
+        <v>695.2751045908432</v>
       </c>
     </row>
     <row r="1546" spans="1:6">
@@ -31453,13 +31453,13 @@
         <v>54</v>
       </c>
       <c r="D1546">
-        <v>726.3464521816732</v>
+        <v>332.0662707476999</v>
       </c>
       <c r="E1546">
-        <v>517.6092202586017</v>
+        <v>-131.2900137288834</v>
       </c>
       <c r="F1546">
-        <v>935.0836841047446</v>
+        <v>795.4225552242833</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -31473,13 +31473,13 @@
         <v>54</v>
       </c>
       <c r="D1547">
-        <v>731.4594515202294</v>
+        <v>372.5376602513367</v>
       </c>
       <c r="E1547">
-        <v>522.6080737069819</v>
+        <v>-175.5191062945371</v>
       </c>
       <c r="F1547">
-        <v>940.3108293334769</v>
+        <v>920.5944267972104</v>
       </c>
     </row>
     <row r="1548" spans="1:6">
@@ -31493,13 +31493,13 @@
         <v>54</v>
       </c>
       <c r="D1548">
-        <v>734.1283102681405</v>
+        <v>429.8333261062996</v>
       </c>
       <c r="E1548">
-        <v>525.2458432965323</v>
+        <v>-189.811444604269</v>
       </c>
       <c r="F1548">
-        <v>943.0107772397487</v>
+        <v>1049.478096816868</v>
       </c>
     </row>
     <row r="1549" spans="1:6">
@@ -31513,13 +31513,13 @@
         <v>54</v>
       </c>
       <c r="D1549">
-        <v>735.5213882923424</v>
+        <v>389.5467449571679</v>
       </c>
       <c r="E1549">
-        <v>526.6304516301554</v>
+        <v>-284.5386408535974</v>
       </c>
       <c r="F1549">
-        <v>944.4123249545294</v>
+        <v>1063.632130767933</v>
       </c>
     </row>
     <row r="1550" spans="1:6">
@@ -31533,13 +31533,13 @@
         <v>54</v>
       </c>
       <c r="D1550">
-        <v>736.2485404441875</v>
+        <v>429.663828470094</v>
       </c>
       <c r="E1550">
-        <v>527.355296205827</v>
+        <v>-314.3017254579853</v>
       </c>
       <c r="F1550">
-        <v>945.141784682548</v>
+        <v>1173.629382398173</v>
       </c>
     </row>
     <row r="1551" spans="1:6">
@@ -31553,13 +31553,13 @@
         <v>54</v>
       </c>
       <c r="D1551">
-        <v>736.6280958192255</v>
+        <v>498.8435698155949</v>
       </c>
       <c r="E1551">
-        <v>527.7342228674913</v>
+        <v>-309.4883015830683</v>
       </c>
       <c r="F1551">
-        <v>945.5219687709596</v>
+        <v>1307.175441214258</v>
       </c>
     </row>
     <row r="1552" spans="1:6">
@@ -31993,13 +31993,13 @@
         <v>55</v>
       </c>
       <c r="D1573">
-        <v>11119.28089124451</v>
+        <v>10651.98680187113</v>
       </c>
       <c r="E1573">
-        <v>6524.965501847259</v>
+        <v>6321.192588673413</v>
       </c>
       <c r="F1573">
-        <v>15713.59628064177</v>
+        <v>14982.78101506884</v>
       </c>
     </row>
     <row r="1574" spans="1:6">
@@ -32013,13 +32013,13 @@
         <v>55</v>
       </c>
       <c r="D1574">
-        <v>10284.47122495953</v>
+        <v>9557.313608721035</v>
       </c>
       <c r="E1574">
-        <v>3791.276729589403</v>
+        <v>3321.182352356648</v>
       </c>
       <c r="F1574">
-        <v>16777.66572032966</v>
+        <v>15793.44486508542</v>
       </c>
     </row>
     <row r="1575" spans="1:6">
@@ -32033,13 +32033,13 @@
         <v>55</v>
       </c>
       <c r="D1575">
-        <v>10231.54781576247</v>
+        <v>9501.909028893311</v>
       </c>
       <c r="E1575">
-        <v>1918.653169379584</v>
+        <v>1305.569309947779</v>
       </c>
       <c r="F1575">
-        <v>18544.44246214537</v>
+        <v>17698.24874783884</v>
       </c>
     </row>
     <row r="1576" spans="1:6">
@@ -32053,13 +32053,13 @@
         <v>55</v>
       </c>
       <c r="D1576">
-        <v>10097.97819812317</v>
+        <v>9219.008249330978</v>
       </c>
       <c r="E1576">
-        <v>391.3616654369271</v>
+        <v>-243.5902524491994</v>
       </c>
       <c r="F1576">
-        <v>19804.59473080941</v>
+        <v>18681.60675111115</v>
       </c>
     </row>
     <row r="1577" spans="1:6">
@@ -32073,13 +32073,13 @@
         <v>55</v>
       </c>
       <c r="D1577">
-        <v>10099.30776764886</v>
+        <v>8162.768007142389</v>
       </c>
       <c r="E1577">
-        <v>-780.8054802545066</v>
+        <v>-2486.770037094922</v>
       </c>
       <c r="F1577">
-        <v>20979.42101555223</v>
+        <v>18812.3060513797</v>
       </c>
     </row>
     <row r="1578" spans="1:6">
@@ -32093,13 +32093,13 @@
         <v>55</v>
       </c>
       <c r="D1578">
-        <v>10091.71233396946</v>
+        <v>7843.286311002303</v>
       </c>
       <c r="E1578">
-        <v>-1758.004471525657</v>
+        <v>-4087.780333595123</v>
       </c>
       <c r="F1578">
-        <v>21941.42913946458</v>
+        <v>19774.35295559973</v>
       </c>
     </row>
     <row r="1579" spans="1:6">
@@ -32113,13 +32113,13 @@
         <v>55</v>
       </c>
       <c r="D1579">
-        <v>10106.70756597038</v>
+        <v>7053.778609750463</v>
       </c>
       <c r="E1579">
-        <v>-2566.516317091675</v>
+        <v>-6086.812654118583</v>
       </c>
       <c r="F1579">
-        <v>22779.93144903243</v>
+        <v>20194.36987361951</v>
       </c>
     </row>
     <row r="1580" spans="1:6">
@@ -32133,13 +32133,13 @@
         <v>55</v>
       </c>
       <c r="D1580">
-        <v>10120.15555589518</v>
+        <v>6987.401943724903</v>
       </c>
       <c r="E1580">
-        <v>-3256.965308989005</v>
+        <v>-7358.345209667206</v>
       </c>
       <c r="F1580">
-        <v>23497.27642077937</v>
+        <v>21333.14909711701</v>
       </c>
     </row>
     <row r="1581" spans="1:6">
@@ -32153,13 +32153,13 @@
         <v>55</v>
       </c>
       <c r="D1581">
-        <v>10136.57205355174</v>
+        <v>6388.724719486252</v>
       </c>
       <c r="E1581">
-        <v>-3849.811531521049</v>
+        <v>-9000.482890839037</v>
       </c>
       <c r="F1581">
-        <v>24122.95563862453</v>
+        <v>21777.93232981154</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -32173,13 +32173,13 @@
         <v>55</v>
       </c>
       <c r="D1582">
-        <v>10151.92516314676</v>
+        <v>6162.083698272785</v>
       </c>
       <c r="E1582">
-        <v>-4365.772022238325</v>
+        <v>-10240.09194953131</v>
       </c>
       <c r="F1582">
-        <v>24669.62234853184</v>
+        <v>22564.25934607688</v>
       </c>
     </row>
   </sheetData>

--- a/data/final_data/unrolled_weddings_timeseries.xlsx
+++ b/data/final_data/unrolled_weddings_timeseries.xlsx
@@ -993,13 +993,13 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>253.4857605279691</v>
+        <v>308.1355084456204</v>
       </c>
       <c r="E23">
-        <v>177.679136837211</v>
+        <v>203.1331138836419</v>
       </c>
       <c r="F23">
-        <v>329.2923842187271</v>
+        <v>413.1379030075989</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1013,13 +1013,13 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>245.9791097833971</v>
+        <v>303.2141397596546</v>
       </c>
       <c r="E24">
-        <v>139.0106928486236</v>
+        <v>174.8923569500254</v>
       </c>
       <c r="F24">
-        <v>352.9475267181705</v>
+        <v>431.5359225692837</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1033,13 +1033,13 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>238.4800139866086</v>
+        <v>298.2999803698843</v>
       </c>
       <c r="E25">
-        <v>107.7618151379088</v>
+        <v>150.4481571684101</v>
       </c>
       <c r="F25">
-        <v>369.1982128353085</v>
+        <v>446.1518035713584</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>230.9884395082918</v>
+        <v>293.3929988747127</v>
       </c>
       <c r="E26">
-        <v>80.38263130144358</v>
+        <v>128.4476775766393</v>
       </c>
       <c r="F26">
-        <v>381.59424771514</v>
+        <v>458.3383201727861</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1073,13 +1073,13 @@
         <v>5</v>
       </c>
       <c r="D27">
-        <v>223.5043528688284</v>
+        <v>288.4931640093192</v>
       </c>
       <c r="E27">
-        <v>55.49461059225962</v>
+        <v>108.1954112087337</v>
       </c>
       <c r="F27">
-        <v>391.5140951453972</v>
+        <v>468.7909168099047</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1093,13 +1093,13 @@
         <v>5</v>
       </c>
       <c r="D28">
-        <v>216.0277207376283</v>
+        <v>283.6004446450638</v>
       </c>
       <c r="E28">
-        <v>32.38899642139759</v>
+        <v>89.27718931760009</v>
       </c>
       <c r="F28">
-        <v>399.666445053859</v>
+        <v>477.9236999725274</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1113,13 +1113,13 @@
         <v>5</v>
       </c>
       <c r="D29">
-        <v>208.5585099324654</v>
+        <v>278.7148097888933</v>
       </c>
       <c r="E29">
-        <v>10.64370577197172</v>
+        <v>71.42249639694865</v>
       </c>
       <c r="F29">
-        <v>406.4733140929591</v>
+        <v>486.007123180838</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1133,13 +1133,13 @@
         <v>5</v>
       </c>
       <c r="D30">
-        <v>201.0966874188179</v>
+        <v>273.8362285827519</v>
       </c>
       <c r="E30">
-        <v>-10.01696221044915</v>
+        <v>54.44296624407554</v>
       </c>
       <c r="F30">
-        <v>412.2103370480849</v>
+        <v>493.2294909214283</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1153,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>193.6422203092099</v>
+        <v>268.964670302992</v>
       </c>
       <c r="E31">
-        <v>-29.78499586189622</v>
+        <v>38.20110684788304</v>
       </c>
       <c r="F31">
-        <v>417.069436480316</v>
+        <v>499.7282337581009</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1173,13 +1173,13 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <v>186.1950758625579</v>
+        <v>264.1001043597894</v>
       </c>
       <c r="E32">
-        <v>-48.80053959105064</v>
+        <v>22.59285954114063</v>
       </c>
       <c r="F32">
-        <v>421.1906913161664</v>
+        <v>505.6073491784383</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1613,13 +1613,13 @@
         <v>6</v>
       </c>
       <c r="D54">
-        <v>459.4142654394807</v>
+        <v>443.7307560766797</v>
       </c>
       <c r="E54">
-        <v>376.1374024801929</v>
+        <v>357.0269945878301</v>
       </c>
       <c r="F54">
-        <v>542.6911283987685</v>
+        <v>530.4345175655292</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1633,13 +1633,13 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>391.5299532559658</v>
+        <v>408.8886713342153</v>
       </c>
       <c r="E55">
-        <v>234.0191786150644</v>
+        <v>321.9911880520946</v>
       </c>
       <c r="F55">
-        <v>549.0407278968672</v>
+        <v>495.786154616336</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1653,13 +1653,13 @@
         <v>6</v>
       </c>
       <c r="D56">
-        <v>463.1204574411295</v>
+        <v>396.737496157984</v>
       </c>
       <c r="E56">
-        <v>227.3273846702943</v>
+        <v>301.3119607348153</v>
       </c>
       <c r="F56">
-        <v>698.9135302119648</v>
+        <v>492.1630315811527</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1673,13 +1673,13 @@
         <v>6</v>
       </c>
       <c r="D57">
-        <v>426.1393059575884</v>
+        <v>375.1516843628976</v>
       </c>
       <c r="E57">
-        <v>118.0619790527266</v>
+        <v>276.3930562011128</v>
       </c>
       <c r="F57">
-        <v>734.2166328624501</v>
+        <v>473.9103125246824</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1693,13 +1693,13 @@
         <v>6</v>
       </c>
       <c r="D58">
-        <v>488.5169053111331</v>
+        <v>357.488738166693</v>
       </c>
       <c r="E58">
-        <v>113.0331121080453</v>
+        <v>253.9034688215148</v>
       </c>
       <c r="F58">
-        <v>864.0006985142211</v>
+        <v>461.0740075118712</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1713,13 +1713,13 @@
         <v>6</v>
       </c>
       <c r="D59">
-        <v>500.1092487704533</v>
+        <v>338.1947328297084</v>
       </c>
       <c r="E59">
-        <v>62.55566434168475</v>
+        <v>230.6726868208603</v>
       </c>
       <c r="F59">
-        <v>937.662833199222</v>
+        <v>445.7167788385565</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1733,13 +1733,13 @@
         <v>6</v>
       </c>
       <c r="D60">
-        <v>526.3952753521007</v>
+        <v>319.5789384095521</v>
       </c>
       <c r="E60">
-        <v>34.15912182707388</v>
+        <v>207.9959560689317</v>
       </c>
       <c r="F60">
-        <v>1018.631428877128</v>
+        <v>431.1619207501724</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1753,13 +1753,13 @@
         <v>6</v>
       </c>
       <c r="D61">
-        <v>589.7375296954003</v>
+        <v>300.6811819673269</v>
       </c>
       <c r="E61">
-        <v>46.55817407252937</v>
+        <v>185.2884321801157</v>
       </c>
       <c r="F61">
-        <v>1132.916885318271</v>
+        <v>416.0739317545381</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1773,13 +1773,13 @@
         <v>6</v>
       </c>
       <c r="D62">
-        <v>578.8933759558427</v>
+        <v>281.9006944429659</v>
       </c>
       <c r="E62">
-        <v>-7.952496417178622</v>
+        <v>162.778157504893</v>
       </c>
       <c r="F62">
-        <v>1165.739248328864</v>
+        <v>401.0232313810388</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1793,13 +1793,13 @@
         <v>6</v>
       </c>
       <c r="D63">
-        <v>676.3462158570835</v>
+        <v>263.0714793331498</v>
       </c>
       <c r="E63">
-        <v>48.68135538306979</v>
+        <v>140.3509948761188</v>
       </c>
       <c r="F63">
-        <v>1304.011076331097</v>
+        <v>385.7919637901808</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2233,13 +2233,13 @@
         <v>7</v>
       </c>
       <c r="D85">
-        <v>397.1534796550158</v>
+        <v>565.5882228404242</v>
       </c>
       <c r="E85">
-        <v>295.1792612595121</v>
+        <v>491.1939885764497</v>
       </c>
       <c r="F85">
-        <v>499.1276980505194</v>
+        <v>639.9824571043988</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2253,13 +2253,13 @@
         <v>7</v>
       </c>
       <c r="D86">
-        <v>386.6429319889492</v>
+        <v>560.4493253083006</v>
       </c>
       <c r="E86">
-        <v>255.1080628437954</v>
+        <v>486.0524586790321</v>
       </c>
       <c r="F86">
-        <v>518.177801134103</v>
+        <v>634.8461919375691</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2273,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="D87">
-        <v>376.1356822901196</v>
+        <v>555.3104277761859</v>
       </c>
       <c r="E87">
-        <v>220.6631559382842</v>
+        <v>480.9109288753618</v>
       </c>
       <c r="F87">
-        <v>531.6082086419551</v>
+        <v>629.7099266770099</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2293,13 +2293,13 @@
         <v>7</v>
       </c>
       <c r="D88">
-        <v>365.6317228103501</v>
+        <v>550.1715302440799</v>
       </c>
       <c r="E88">
-        <v>189.5358761619196</v>
+        <v>475.7693991654286</v>
       </c>
       <c r="F88">
-        <v>541.7275694587806</v>
+        <v>624.5736613227313</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2313,13 +2313,13 @@
         <v>7</v>
       </c>
       <c r="D89">
-        <v>355.131045819667</v>
+        <v>545.0326327119827</v>
       </c>
       <c r="E89">
-        <v>160.6684648454207</v>
+        <v>470.6278695492225</v>
       </c>
       <c r="F89">
-        <v>549.5936267939132</v>
+        <v>619.4373958747429</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2333,13 +2333,13 @@
         <v>7</v>
       </c>
       <c r="D90">
-        <v>344.6336436062571</v>
+        <v>539.8937351798945</v>
       </c>
       <c r="E90">
-        <v>133.4709062558154</v>
+        <v>465.4863400267339</v>
       </c>
       <c r="F90">
-        <v>555.7963809566988</v>
+        <v>614.3011303330552</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2353,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="D91">
-        <v>334.1395084764255</v>
+        <v>534.7548376478151</v>
       </c>
       <c r="E91">
-        <v>107.5740303988152</v>
+        <v>460.3448105979525</v>
       </c>
       <c r="F91">
-        <v>560.7049865540359</v>
+        <v>609.1648646976776</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2373,13 +2373,13 @@
         <v>7</v>
       </c>
       <c r="D92">
-        <v>323.6486327545527</v>
+        <v>529.6159401157446</v>
       </c>
       <c r="E92">
-        <v>82.72854799527198</v>
+        <v>455.2032812628687</v>
       </c>
       <c r="F92">
-        <v>564.5687175138335</v>
+        <v>604.0285989686205</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2393,13 +2393,13 @@
         <v>7</v>
       </c>
       <c r="D93">
-        <v>313.1610087830518</v>
+        <v>524.477042583683</v>
       </c>
       <c r="E93">
-        <v>58.75667646075567</v>
+        <v>450.0617520214723</v>
       </c>
       <c r="F93">
-        <v>567.5653411053479</v>
+        <v>598.8923331458936</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2413,13 +2413,13 @@
         <v>7</v>
       </c>
       <c r="D94">
-        <v>302.6766289223268</v>
+        <v>519.3381450516301</v>
       </c>
       <c r="E94">
-        <v>35.52630633459103</v>
+        <v>444.9202228737534</v>
       </c>
       <c r="F94">
-        <v>569.8269515100626</v>
+        <v>593.7560672295068</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3473,13 +3473,13 @@
         <v>9</v>
       </c>
       <c r="D147">
-        <v>383.6529105195378</v>
+        <v>430.8546066865845</v>
       </c>
       <c r="E147">
-        <v>309.8340330267631</v>
+        <v>352.9435501776283</v>
       </c>
       <c r="F147">
-        <v>457.4717880123126</v>
+        <v>508.7656631955408</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3493,13 +3493,13 @@
         <v>9</v>
       </c>
       <c r="D148">
-        <v>359.6588727326447</v>
+        <v>420.3438651980006</v>
       </c>
       <c r="E148">
-        <v>278.6618772717254</v>
+        <v>324.4419508232543</v>
       </c>
       <c r="F148">
-        <v>440.6558681935641</v>
+        <v>516.245779572747</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3513,13 +3513,13 @@
         <v>9</v>
       </c>
       <c r="D149">
-        <v>331.5915584648712</v>
+        <v>405.3267526149517</v>
       </c>
       <c r="E149">
-        <v>242.896839883073</v>
+        <v>297.5268805802389</v>
       </c>
       <c r="F149">
-        <v>420.2862770466694</v>
+        <v>513.1266246496646</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3533,13 +3533,13 @@
         <v>9</v>
       </c>
       <c r="D150">
-        <v>320.3787685762707</v>
+        <v>392.5789379533671</v>
       </c>
       <c r="E150">
-        <v>220.8128299857442</v>
+        <v>271.3910847288015</v>
       </c>
       <c r="F150">
-        <v>419.9447071667972</v>
+        <v>513.7667911779326</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3553,13 +3553,13 @@
         <v>9</v>
       </c>
       <c r="D151">
-        <v>300.9930259984818</v>
+        <v>378.68918592952</v>
       </c>
       <c r="E151">
-        <v>193.8731700790826</v>
+        <v>245.6379025309843</v>
       </c>
       <c r="F151">
-        <v>408.1128819178811</v>
+        <v>511.7404693280558</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3573,13 +3573,13 @@
         <v>9</v>
       </c>
       <c r="D152">
-        <v>281.6610361520897</v>
+        <v>365.3748953688881</v>
       </c>
       <c r="E152">
-        <v>167.2241827082588</v>
+        <v>220.3407810030428</v>
       </c>
       <c r="F152">
-        <v>396.0978895959205</v>
+        <v>510.4090097347333</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3593,13 +3593,13 @@
         <v>9</v>
       </c>
       <c r="D153">
-        <v>264.4469331138379</v>
+        <v>351.7714355566324</v>
       </c>
       <c r="E153">
-        <v>142.7664076266327</v>
+        <v>195.2686964181577</v>
       </c>
       <c r="F153">
-        <v>386.127458601043</v>
+        <v>508.2741746951071</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3613,13 +3613,13 @@
         <v>9</v>
       </c>
       <c r="D154">
-        <v>246.0572395850514</v>
+        <v>338.3141079635822</v>
       </c>
       <c r="E154">
-        <v>117.7948067037036</v>
+        <v>170.4544337888224</v>
       </c>
       <c r="F154">
-        <v>374.3196724663993</v>
+        <v>506.1737821383421</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3633,13 +3633,13 @@
         <v>9</v>
       </c>
       <c r="D155">
-        <v>227.7557955317341</v>
+        <v>324.7837584623837</v>
       </c>
       <c r="E155">
-        <v>93.18791595348566</v>
+        <v>145.8021222887489</v>
       </c>
       <c r="F155">
-        <v>362.3236751099824</v>
+        <v>503.7653946360185</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3653,13 +3653,13 @@
         <v>9</v>
       </c>
       <c r="D156">
-        <v>209.7148298766516</v>
+        <v>311.2907209826109</v>
       </c>
       <c r="E156">
-        <v>69.08712087186305</v>
+        <v>121.3095420017539</v>
       </c>
       <c r="F156">
-        <v>350.3425388814402</v>
+        <v>501.2718999634678</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4093,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="D178">
-        <v>424.9386864054316</v>
+        <v>429.5872820728314</v>
       </c>
       <c r="E178">
-        <v>360.321851416648</v>
+        <v>357.9703401514032</v>
       </c>
       <c r="F178">
-        <v>489.5555213942152</v>
+        <v>501.2042239942596</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4113,13 +4113,13 @@
         <v>10</v>
       </c>
       <c r="D179">
-        <v>419.3589086633897</v>
+        <v>406.155113101068</v>
       </c>
       <c r="E179">
-        <v>355.1912021101162</v>
+        <v>329.3029794680283</v>
       </c>
       <c r="F179">
-        <v>483.5266152166632</v>
+        <v>483.0072467341076</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4133,13 +4133,13 @@
         <v>10</v>
       </c>
       <c r="D180">
-        <v>374.6931362985484</v>
+        <v>389.1019685204989</v>
       </c>
       <c r="E180">
-        <v>301.2310207040467</v>
+        <v>307.4953527474205</v>
       </c>
       <c r="F180">
-        <v>448.1552518930501</v>
+        <v>470.7085842935774</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4153,13 +4153,13 @@
         <v>10</v>
       </c>
       <c r="D181">
-        <v>318.1220223413691</v>
+        <v>346.6671462786006</v>
       </c>
       <c r="E181">
-        <v>244.655128396074</v>
+        <v>264.2805774105885</v>
       </c>
       <c r="F181">
-        <v>391.5889162866642</v>
+        <v>429.0537151466127</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4173,13 +4173,13 @@
         <v>10</v>
       </c>
       <c r="D182">
-        <v>382.0345808684606</v>
+        <v>368.1876940960391</v>
       </c>
       <c r="E182">
-        <v>308.0819708805673</v>
+        <v>285.3777571185543</v>
       </c>
       <c r="F182">
-        <v>455.9871908563539</v>
+        <v>450.9976310735238</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4193,13 +4193,13 @@
         <v>10</v>
       </c>
       <c r="D183">
-        <v>328.2292813283732</v>
+        <v>310.3463725448077</v>
       </c>
       <c r="E183">
-        <v>248.6035731432228</v>
+        <v>227.5115518935693</v>
       </c>
       <c r="F183">
-        <v>407.8549895135237</v>
+        <v>393.1811931960461</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4213,13 +4213,13 @@
         <v>10</v>
       </c>
       <c r="D184">
-        <v>299.6903540354947</v>
+        <v>329.2848809865427</v>
       </c>
       <c r="E184">
-        <v>219.1755038659641</v>
+        <v>246.2112422330035</v>
       </c>
       <c r="F184">
-        <v>380.2052042050253</v>
+        <v>412.3585197400819</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4233,13 +4233,13 @@
         <v>10</v>
       </c>
       <c r="D185">
-        <v>264.8108081087393</v>
+        <v>277.2639636866206</v>
       </c>
       <c r="E185">
-        <v>182.4687735297382</v>
+        <v>194.2346209105123</v>
       </c>
       <c r="F185">
-        <v>347.1528426877403</v>
+        <v>360.2933064627289</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4253,13 +4253,13 @@
         <v>10</v>
       </c>
       <c r="D186">
-        <v>296.7060117981758</v>
+        <v>293.6637377054574</v>
       </c>
       <c r="E186">
-        <v>213.0632684361553</v>
+        <v>210.5726591597613</v>
       </c>
       <c r="F186">
-        <v>380.3487551601963</v>
+        <v>376.7548162511535</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4273,13 +4273,13 @@
         <v>10</v>
       </c>
       <c r="D187">
-        <v>227.1875281799604</v>
+        <v>241.5027966882884</v>
       </c>
       <c r="E187">
-        <v>143.49366811757</v>
+        <v>158.4567915082849</v>
       </c>
       <c r="F187">
-        <v>310.8813882423508</v>
+        <v>324.548801868292</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4713,13 +4713,13 @@
         <v>11</v>
       </c>
       <c r="D209">
-        <v>3526.262435540689</v>
+        <v>4175.949673445793</v>
       </c>
       <c r="E209">
-        <v>2941.844031538125</v>
+        <v>3366.057636593548</v>
       </c>
       <c r="F209">
-        <v>4110.680839543252</v>
+        <v>4985.841710298039</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4733,13 +4733,13 @@
         <v>11</v>
       </c>
       <c r="D210">
-        <v>3330.802274421237</v>
+        <v>4003.738089565858</v>
       </c>
       <c r="E210">
-        <v>2740.574470169403</v>
+        <v>2953.676378975181</v>
       </c>
       <c r="F210">
-        <v>3921.03007867307</v>
+        <v>5053.799800156535</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4753,13 +4753,13 @@
         <v>11</v>
       </c>
       <c r="D211">
-        <v>3152.387406168102</v>
+        <v>3995.090303522837</v>
       </c>
       <c r="E211">
-        <v>2556.768006691666</v>
+        <v>2810.637895910295</v>
       </c>
       <c r="F211">
-        <v>3748.006805644538</v>
+        <v>5179.542711135378</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4773,13 +4773,13 @@
         <v>11</v>
       </c>
       <c r="D212">
-        <v>2994.280555717122</v>
+        <v>3879.229496443569</v>
       </c>
       <c r="E212">
-        <v>2393.820199095707</v>
+        <v>2481.638457295979</v>
       </c>
       <c r="F212">
-        <v>3594.740912338536</v>
+        <v>5276.82053559116</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4793,13 +4793,13 @@
         <v>11</v>
       </c>
       <c r="D213">
-        <v>2859.585931973621</v>
+        <v>3857.506307761028</v>
       </c>
       <c r="E213">
-        <v>2254.949577809291</v>
+        <v>2283.498925829553</v>
       </c>
       <c r="F213">
-        <v>3464.222286137951</v>
+        <v>5431.513689692503</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4813,13 +4813,13 @@
         <v>11</v>
       </c>
       <c r="D214">
-        <v>2751.225008054907</v>
+        <v>3750.856297993933</v>
       </c>
       <c r="E214">
-        <v>2143.171337411002</v>
+        <v>1969.968736350351</v>
       </c>
       <c r="F214">
-        <v>3359.278678698813</v>
+        <v>5531.743859637515</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4833,13 +4833,13 @@
         <v>11</v>
       </c>
       <c r="D215">
-        <v>2671.913727811679</v>
+        <v>3717.177011081307</v>
       </c>
       <c r="E215">
-        <v>2061.272992499074</v>
+        <v>1773.618519202783</v>
       </c>
       <c r="F215">
-        <v>3282.554463124284</v>
+        <v>5660.735502959831</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4853,13 +4853,13 @@
         <v>11</v>
       </c>
       <c r="D216">
-        <v>2624.141316464158</v>
+        <v>3629.678646310233</v>
       </c>
       <c r="E216">
-        <v>2011.792103653476</v>
+        <v>1507.554354089812</v>
       </c>
       <c r="F216">
-        <v>3236.49052927484</v>
+        <v>5751.802938530653</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4873,13 +4873,13 @@
         <v>11</v>
       </c>
       <c r="D217">
-        <v>2610.150860669023</v>
+        <v>3592.758752339525</v>
       </c>
       <c r="E217">
-        <v>1996.996181719506</v>
+        <v>1314.1608917289</v>
       </c>
       <c r="F217">
-        <v>3223.30553961854</v>
+        <v>5871.356612950151</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4893,13 +4893,13 @@
         <v>11</v>
       </c>
       <c r="D218">
-        <v>2631.921809523632</v>
+        <v>3514.591380268258</v>
       </c>
       <c r="E218">
-        <v>2018.864883188808</v>
+        <v>1069.203535894279</v>
       </c>
       <c r="F218">
-        <v>3244.978735858456</v>
+        <v>5959.979224642237</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5333,13 +5333,13 @@
         <v>12</v>
       </c>
       <c r="D240">
-        <v>199.5894184980252</v>
+        <v>183.6395582018509</v>
       </c>
       <c r="E240">
-        <v>131.9115868764948</v>
+        <v>124.5374355980501</v>
       </c>
       <c r="F240">
-        <v>267.2672501195556</v>
+        <v>242.7416808056518</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5353,13 +5353,13 @@
         <v>12</v>
       </c>
       <c r="D241">
-        <v>183.0544521199902</v>
+        <v>166.4191727791676</v>
       </c>
       <c r="E241">
-        <v>107.4376729031087</v>
+        <v>106.6731335746875</v>
       </c>
       <c r="F241">
-        <v>258.6712313368717</v>
+        <v>226.1652119836478</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5373,13 +5373,13 @@
         <v>12</v>
       </c>
       <c r="D242">
-        <v>168.4389814930821</v>
+        <v>149.6437516020934</v>
       </c>
       <c r="E242">
-        <v>82.02075675534066</v>
+        <v>89.26371686542126</v>
       </c>
       <c r="F242">
-        <v>254.8572062308235</v>
+        <v>210.0237863387655</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -5393,13 +5393,13 @@
         <v>12</v>
       </c>
       <c r="D243">
-        <v>154.9618244847165</v>
+        <v>133.452491712068</v>
       </c>
       <c r="E243">
-        <v>57.12749847081555</v>
+        <v>72.45956994520317</v>
       </c>
       <c r="F243">
-        <v>252.7961504986175</v>
+        <v>194.4454134789328</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -5413,13 +5413,13 @@
         <v>12</v>
       </c>
       <c r="D244">
-        <v>140.1135243337012</v>
+        <v>117.9816710431512</v>
       </c>
       <c r="E244">
-        <v>32.75810732846342</v>
+        <v>56.40744150827211</v>
       </c>
       <c r="F244">
-        <v>247.468941338939</v>
+        <v>179.5559005780302</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -5433,13 +5433,13 @@
         <v>12</v>
       </c>
       <c r="D245">
-        <v>125.3919756620772</v>
+        <v>103.3639680725527</v>
       </c>
       <c r="E245">
-        <v>8.50670523530944</v>
+        <v>41.24962377724442</v>
       </c>
       <c r="F245">
-        <v>242.277246088845</v>
+        <v>165.478312367861</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -5453,13 +5453,13 @@
         <v>12</v>
       </c>
       <c r="D246">
-        <v>110.4616618899759</v>
+        <v>89.72779945475122</v>
       </c>
       <c r="E246">
-        <v>-15.59083093390691</v>
+        <v>27.12317734748984</v>
       </c>
       <c r="F246">
-        <v>236.5141547138587</v>
+        <v>152.3324215620126</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -5473,13 +5473,13 @@
         <v>12</v>
       </c>
       <c r="D247">
-        <v>95.23744516687839</v>
+        <v>77.1966789459064</v>
       </c>
       <c r="E247">
-        <v>-39.61833155217303</v>
+        <v>14.15920107232205</v>
       </c>
       <c r="F247">
-        <v>230.0932218859298</v>
+        <v>140.2341568194907</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -5493,13 +5493,13 @@
         <v>12</v>
       </c>
       <c r="D248">
-        <v>79.83570905120266</v>
+        <v>65.88860081891187</v>
       </c>
       <c r="E248">
-        <v>-63.59938347687392</v>
+        <v>2.482146489599216</v>
       </c>
       <c r="F248">
-        <v>223.2708015792792</v>
+        <v>129.2950551482245</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -5513,13 +5513,13 @@
         <v>12</v>
       </c>
       <c r="D249">
-        <v>64.21912740856399</v>
+        <v>55.91545084710179</v>
       </c>
       <c r="E249">
-        <v>-87.55522267476681</v>
+        <v>-7.790823479149061</v>
       </c>
       <c r="F249">
-        <v>215.9934774918948</v>
+        <v>119.6217251733526</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -5953,13 +5953,13 @@
         <v>13</v>
       </c>
       <c r="D271">
-        <v>412.6895554166636</v>
+        <v>471.3002741921912</v>
       </c>
       <c r="E271">
-        <v>303.2032106186781</v>
+        <v>370.7395803248789</v>
       </c>
       <c r="F271">
-        <v>522.175900214649</v>
+        <v>571.8609680595034</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -5973,13 +5973,13 @@
         <v>13</v>
       </c>
       <c r="D272">
-        <v>396.5886260127329</v>
+        <v>464.3452494508467</v>
       </c>
       <c r="E272">
-        <v>268.7446716357952</v>
+        <v>350.1818024465044</v>
       </c>
       <c r="F272">
-        <v>524.4325803896706</v>
+        <v>578.5086964551891</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -5993,13 +5993,13 @@
         <v>13</v>
       </c>
       <c r="D273">
-        <v>376.6231063537878</v>
+        <v>454.927843325645</v>
       </c>
       <c r="E273">
-        <v>216.8360111868104</v>
+        <v>329.9470692124457</v>
       </c>
       <c r="F273">
-        <v>536.4102015207652</v>
+        <v>579.9086174388442</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -6013,13 +6013,13 @@
         <v>13</v>
       </c>
       <c r="D274">
-        <v>337.1445606249843</v>
+        <v>444.0574014554041</v>
       </c>
       <c r="E274">
-        <v>154.4664140362639</v>
+        <v>310.9407841229996</v>
       </c>
       <c r="F274">
-        <v>519.8227072137047</v>
+        <v>577.1740187878087</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -6033,13 +6033,13 @@
         <v>13</v>
       </c>
       <c r="D275">
-        <v>332.1189680043268</v>
+        <v>434.8946304656557</v>
       </c>
       <c r="E275">
-        <v>98.67716996426424</v>
+        <v>292.5629647518427</v>
       </c>
       <c r="F275">
-        <v>565.5607660443893</v>
+        <v>577.2262961794686</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -6053,13 +6053,13 @@
         <v>13</v>
       </c>
       <c r="D276">
-        <v>349.3479219467475</v>
+        <v>424.831739480618</v>
       </c>
       <c r="E276">
-        <v>70.91713385572587</v>
+        <v>274.5362832341638</v>
       </c>
       <c r="F276">
-        <v>627.7787100377692</v>
+        <v>575.1271957270721</v>
       </c>
     </row>
     <row r="277" spans="1:6">
@@ -6073,13 +6073,13 @@
         <v>13</v>
       </c>
       <c r="D277">
-        <v>338.238806366438</v>
+        <v>415.0035132959222</v>
       </c>
       <c r="E277">
-        <v>23.24098247889771</v>
+        <v>257.020708367137</v>
       </c>
       <c r="F277">
-        <v>653.2366302539783</v>
+        <v>572.9863182247075</v>
       </c>
     </row>
     <row r="278" spans="1:6">
@@ -6093,13 +6093,13 @@
         <v>13</v>
       </c>
       <c r="D278">
-        <v>333.9672445138553</v>
+        <v>405.2299409713098</v>
       </c>
       <c r="E278">
-        <v>-20.46976967285747</v>
+        <v>239.847810426427</v>
       </c>
       <c r="F278">
-        <v>688.4042587005681</v>
+        <v>570.6120715161925</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -6113,13 +6113,13 @@
         <v>13</v>
       </c>
       <c r="D279">
-        <v>335.5752085192148</v>
+        <v>395.3559695665526</v>
       </c>
       <c r="E279">
-        <v>-61.30940006224074</v>
+        <v>222.9702028506661</v>
       </c>
       <c r="F279">
-        <v>732.4598171006703</v>
+        <v>567.7417362824391</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -6133,13 +6133,13 @@
         <v>13</v>
       </c>
       <c r="D280">
-        <v>361.6377365081229</v>
+        <v>385.5427546521365</v>
       </c>
       <c r="E280">
-        <v>-82.53028764683717</v>
+        <v>206.387056731695</v>
       </c>
       <c r="F280">
-        <v>805.805760663083</v>
+        <v>564.698452572578</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7193,13 +7193,13 @@
         <v>15</v>
       </c>
       <c r="D333">
-        <v>465.8451362280201</v>
+        <v>478.9641703154301</v>
       </c>
       <c r="E333">
-        <v>389.6196129944411</v>
+        <v>392.3191458501032</v>
       </c>
       <c r="F333">
-        <v>542.070659461599</v>
+        <v>565.609194780757</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -7213,13 +7213,13 @@
         <v>15</v>
       </c>
       <c r="D334">
-        <v>449.2376055693921</v>
+        <v>464.4611564096656</v>
       </c>
       <c r="E334">
-        <v>370.9419699968409</v>
+        <v>370.8175265445287</v>
       </c>
       <c r="F334">
-        <v>527.5332411419434</v>
+        <v>558.1047862748026</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -7233,13 +7233,13 @@
         <v>15</v>
       </c>
       <c r="D335">
-        <v>433.5130599535025</v>
+        <v>446.1103328466971</v>
       </c>
       <c r="E335">
-        <v>351.9217446540151</v>
+        <v>349.6285683123508</v>
       </c>
       <c r="F335">
-        <v>515.1043752529901</v>
+        <v>542.5920973810435</v>
       </c>
     </row>
     <row r="336" spans="1:6">
@@ -7253,13 +7253,13 @@
         <v>15</v>
       </c>
       <c r="D336">
-        <v>393.8401294148712</v>
+        <v>423.4414192226853</v>
       </c>
       <c r="E336">
-        <v>311.18013050748</v>
+        <v>312.3726567082036</v>
       </c>
       <c r="F336">
-        <v>476.5001283222624</v>
+        <v>534.5101817371669</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -7273,13 +7273,13 @@
         <v>15</v>
       </c>
       <c r="D337">
-        <v>383.1424092715629</v>
+        <v>404.6916810733838</v>
       </c>
       <c r="E337">
-        <v>288.7071361648658</v>
+        <v>287.1676578865628</v>
       </c>
       <c r="F337">
-        <v>477.57768237826</v>
+        <v>522.2157042602048</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -7293,13 +7293,13 @@
         <v>15</v>
       </c>
       <c r="D338">
-        <v>362.284068401948</v>
+        <v>386.5752166894511</v>
       </c>
       <c r="E338">
-        <v>264.9719344748141</v>
+        <v>260.6251076661142</v>
       </c>
       <c r="F338">
-        <v>459.596202329082</v>
+        <v>512.5253257127879</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -7313,13 +7313,13 @@
         <v>15</v>
       </c>
       <c r="D339">
-        <v>345.502952724602</v>
+        <v>368.1148764087008</v>
       </c>
       <c r="E339">
-        <v>244.181425688237</v>
+        <v>236.633383509399</v>
       </c>
       <c r="F339">
-        <v>446.824479760967</v>
+        <v>499.5963693080025</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -7333,13 +7333,13 @@
         <v>15</v>
       </c>
       <c r="D340">
-        <v>317.1533296336427</v>
+        <v>348.0308770213716</v>
       </c>
       <c r="E340">
-        <v>213.7290933774607</v>
+        <v>207.1758870642663</v>
       </c>
       <c r="F340">
-        <v>420.5775658898246</v>
+        <v>488.885866978477</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -7353,13 +7353,13 @@
         <v>15</v>
       </c>
       <c r="D341">
-        <v>300.3521870658567</v>
+        <v>328.9807952677596</v>
       </c>
       <c r="E341">
-        <v>191.3241349275164</v>
+        <v>181.0888650112962</v>
       </c>
       <c r="F341">
-        <v>409.380239204197</v>
+        <v>476.872725524223</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -7373,13 +7373,13 @@
         <v>15</v>
       </c>
       <c r="D342">
-        <v>278.7874768378804</v>
+        <v>310.0296832287134</v>
       </c>
       <c r="E342">
-        <v>166.7930297583747</v>
+        <v>153.9790063097144</v>
       </c>
       <c r="F342">
-        <v>390.7819239173861</v>
+        <v>466.0803601477124</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -7813,13 +7813,13 @@
         <v>16</v>
       </c>
       <c r="D364">
-        <v>335.8255444760789</v>
+        <v>325.2270984557464</v>
       </c>
       <c r="E364">
-        <v>269.1997009487806</v>
+        <v>250.2489384954106</v>
       </c>
       <c r="F364">
-        <v>402.4513880033772</v>
+        <v>400.2052584160823</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -7833,13 +7833,13 @@
         <v>16</v>
       </c>
       <c r="D365">
-        <v>297.1748383656798</v>
+        <v>291.029492664795</v>
       </c>
       <c r="E365">
-        <v>224.0217644382556</v>
+        <v>211.1270612688567</v>
       </c>
       <c r="F365">
-        <v>370.3279122931039</v>
+        <v>370.9319240607334</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -7853,13 +7853,13 @@
         <v>16</v>
       </c>
       <c r="D366">
-        <v>297.5902012691852</v>
+        <v>279.8940940163127</v>
       </c>
       <c r="E366">
-        <v>219.2496169507359</v>
+        <v>185.0017175833161</v>
       </c>
       <c r="F366">
-        <v>375.9307855876345</v>
+        <v>374.7864704493093</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -7873,13 +7873,13 @@
         <v>16</v>
       </c>
       <c r="D367">
-        <v>258.5258452893455</v>
+        <v>261.1151712169097</v>
       </c>
       <c r="E367">
-        <v>168.8742668735023</v>
+        <v>156.3737677727675</v>
       </c>
       <c r="F367">
-        <v>348.1774237051887</v>
+        <v>365.8565746610519</v>
       </c>
     </row>
     <row r="368" spans="1:6">
@@ -7893,13 +7893,13 @@
         <v>16</v>
       </c>
       <c r="D368">
-        <v>271.6087337293229</v>
+        <v>243.7032835443665</v>
       </c>
       <c r="E368">
-        <v>173.3036360202071</v>
+        <v>128.81504016342</v>
       </c>
       <c r="F368">
-        <v>369.9138314384386</v>
+        <v>358.591526925313</v>
       </c>
     </row>
     <row r="369" spans="1:6">
@@ -7913,13 +7913,13 @@
         <v>16</v>
       </c>
       <c r="D369">
-        <v>224.6399585750277</v>
+        <v>226.2187357526892</v>
       </c>
       <c r="E369">
-        <v>120.3318997108729</v>
+        <v>101.8961976363907</v>
       </c>
       <c r="F369">
-        <v>328.9480174391824</v>
+        <v>350.5412738689878</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -7933,13 +7933,13 @@
         <v>16</v>
       </c>
       <c r="D370">
-        <v>236.0321309649861</v>
+        <v>208.504665407932</v>
       </c>
       <c r="E370">
-        <v>123.3106429510457</v>
+        <v>75.35394243017237</v>
       </c>
       <c r="F370">
-        <v>348.7536189789264</v>
+        <v>341.6553883856917</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -7953,13 +7953,13 @@
         <v>16</v>
       </c>
       <c r="D371">
-        <v>192.5601939656527</v>
+        <v>191.049228504824</v>
       </c>
       <c r="E371">
-        <v>73.22549330577077</v>
+        <v>49.55504828561456</v>
       </c>
       <c r="F371">
-        <v>311.8948946255346</v>
+        <v>332.5434087240335</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -7973,13 +7973,13 @@
         <v>16</v>
       </c>
       <c r="D372">
-        <v>202.3865769715304</v>
+        <v>173.7230969067892</v>
       </c>
       <c r="E372">
-        <v>76.34797552084278</v>
+        <v>24.42792303943472</v>
       </c>
       <c r="F372">
-        <v>328.4251784222179</v>
+        <v>323.0182707741437</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -7993,13 +7993,13 @@
         <v>16</v>
       </c>
       <c r="D373">
-        <v>158.2996444670176</v>
+        <v>156.7162454382088</v>
       </c>
       <c r="E373">
-        <v>26.28014795146319</v>
+        <v>0.1251047329702715</v>
       </c>
       <c r="F373">
-        <v>290.3191409825721</v>
+        <v>313.3073861434473</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -8433,13 +8433,13 @@
         <v>17</v>
       </c>
       <c r="D395">
-        <v>66.6048697997728</v>
+        <v>64.73427452649214</v>
       </c>
       <c r="E395">
-        <v>53.36039244479735</v>
+        <v>51.20869494732912</v>
       </c>
       <c r="F395">
-        <v>79.84934715474824</v>
+        <v>78.25985410565517</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -8453,13 +8453,13 @@
         <v>17</v>
       </c>
       <c r="D396">
-        <v>61.93286375193517</v>
+        <v>62.53025203590181</v>
       </c>
       <c r="E396">
-        <v>48.60414808930386</v>
+        <v>47.78197453292123</v>
       </c>
       <c r="F396">
-        <v>75.26157941456648</v>
+        <v>77.2785295388824</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -8473,13 +8473,13 @@
         <v>17</v>
       </c>
       <c r="D397">
-        <v>59.50392243014151</v>
+        <v>60.95168775640862</v>
       </c>
       <c r="E397">
-        <v>45.01958492011045</v>
+        <v>44.68031291223593</v>
       </c>
       <c r="F397">
-        <v>73.98825994017258</v>
+        <v>77.2230626005813</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -8493,13 +8493,13 @@
         <v>17</v>
       </c>
       <c r="D398">
-        <v>57.76128376184843</v>
+        <v>58.56243108066826</v>
       </c>
       <c r="E398">
-        <v>41.83212650886309</v>
+        <v>41.99557162550673</v>
       </c>
       <c r="F398">
-        <v>73.69044101483378</v>
+        <v>75.1292905358298</v>
       </c>
     </row>
     <row r="399" spans="1:6">
@@ -8513,13 +8513,13 @@
         <v>17</v>
       </c>
       <c r="D399">
-        <v>55.38880490157696</v>
+        <v>54.97221395925344</v>
       </c>
       <c r="E399">
-        <v>39.16668638269095</v>
+        <v>38.36644987334402</v>
       </c>
       <c r="F399">
-        <v>71.61092342046297</v>
+        <v>71.57797804516285</v>
       </c>
     </row>
     <row r="400" spans="1:6">
@@ -8533,13 +8533,13 @@
         <v>17</v>
       </c>
       <c r="D400">
-        <v>51.95933140711031</v>
+        <v>50.64667372468716</v>
       </c>
       <c r="E400">
-        <v>35.70849753455852</v>
+        <v>33.69485266770398</v>
       </c>
       <c r="F400">
-        <v>68.21016527966211</v>
+        <v>67.59849478167034</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -8553,13 +8553,13 @@
         <v>17</v>
       </c>
       <c r="D401">
-        <v>47.81725776401279</v>
+        <v>46.29424572342602</v>
       </c>
       <c r="E401">
-        <v>31.24034566112872</v>
+        <v>29.07464105312554</v>
       </c>
       <c r="F401">
-        <v>64.39416986689686</v>
+        <v>63.51385039372649</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -8573,13 +8573,13 @@
         <v>17</v>
       </c>
       <c r="D402">
-        <v>43.57145237310063</v>
+        <v>42.35625008947019</v>
       </c>
       <c r="E402">
-        <v>26.71463933012021</v>
+        <v>25.0881124158253</v>
       </c>
       <c r="F402">
-        <v>60.42826541608105</v>
+        <v>59.62438776311508</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -8593,13 +8593,13 @@
         <v>17</v>
       </c>
       <c r="D403">
-        <v>39.64337003095682</v>
+        <v>38.8562425690764</v>
       </c>
       <c r="E403">
-        <v>22.71864298945479</v>
+        <v>21.58823911276099</v>
       </c>
       <c r="F403">
-        <v>56.56809707245885</v>
+        <v>56.12424602539181</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -8613,13 +8613,13 @@
         <v>17</v>
       </c>
       <c r="D404">
-        <v>36.1040540877796</v>
+        <v>35.5530435253917</v>
       </c>
       <c r="E404">
-        <v>19.17930649774767</v>
+        <v>18.27097900599039</v>
       </c>
       <c r="F404">
-        <v>53.02880167781154</v>
+        <v>52.83510804479302</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -9053,13 +9053,13 @@
         <v>18</v>
       </c>
       <c r="D426">
-        <v>152.9573406931705</v>
+        <v>187.7353016829568</v>
       </c>
       <c r="E426">
-        <v>107.5700867342677</v>
+        <v>150.1050581283569</v>
       </c>
       <c r="F426">
-        <v>198.3445946520734</v>
+        <v>225.3655452375567</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -9073,13 +9073,13 @@
         <v>18</v>
       </c>
       <c r="D427">
-        <v>134.3380008382035</v>
+        <v>181.12704949217</v>
       </c>
       <c r="E427">
-        <v>86.92562266056792</v>
+        <v>143.1596579592243</v>
       </c>
       <c r="F427">
-        <v>181.7503790158391</v>
+        <v>219.0944410251156</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -9093,13 +9093,13 @@
         <v>18</v>
       </c>
       <c r="D428">
-        <v>142.4582124616527</v>
+        <v>183.0394125905951</v>
       </c>
       <c r="E428">
-        <v>69.13260186335798</v>
+        <v>145.0726323645112</v>
       </c>
       <c r="F428">
-        <v>215.7838230599475</v>
+        <v>221.0061928166791</v>
       </c>
     </row>
     <row r="429" spans="1:6">
@@ -9113,13 +9113,13 @@
         <v>18</v>
       </c>
       <c r="D429">
-        <v>131.7037361877911</v>
+        <v>176.6230925794232</v>
       </c>
       <c r="E429">
-        <v>40.70174253354129</v>
+        <v>138.5214366396551</v>
       </c>
       <c r="F429">
-        <v>222.7057298420409</v>
+        <v>214.7247485191912</v>
       </c>
     </row>
     <row r="430" spans="1:6">
@@ -9133,13 +9133,13 @@
         <v>18</v>
       </c>
       <c r="D430">
-        <v>140.2438282600824</v>
+        <v>178.3742548192445</v>
       </c>
       <c r="E430">
-        <v>33.29808506567872</v>
+        <v>140.2876864702664</v>
       </c>
       <c r="F430">
-        <v>247.1895714544862</v>
+        <v>216.4608231682226</v>
       </c>
     </row>
     <row r="431" spans="1:6">
@@ -9153,13 +9153,13 @@
         <v>18</v>
       </c>
       <c r="D431">
-        <v>129.5736249195527</v>
+        <v>172.0983683390696</v>
       </c>
       <c r="E431">
-        <v>10.53254772915136</v>
+        <v>133.9442454846513</v>
       </c>
       <c r="F431">
-        <v>248.614702109954</v>
+        <v>210.2524911934879</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -9173,13 +9173,13 @@
         <v>18</v>
       </c>
       <c r="D432">
-        <v>138.1613409763331</v>
+        <v>173.7232665081525</v>
       </c>
       <c r="E432">
-        <v>7.238262285089462</v>
+        <v>135.5812905022648</v>
       </c>
       <c r="F432">
-        <v>269.0844196675768</v>
+        <v>211.8652425140402</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -9193,13 +9193,13 @@
         <v>18</v>
       </c>
       <c r="D433">
-        <v>127.5559984440692</v>
+        <v>167.5638453547212</v>
       </c>
       <c r="E433">
-        <v>-12.81451698843848</v>
+        <v>129.3799853514101</v>
       </c>
       <c r="F433">
-        <v>267.926513876577</v>
+        <v>205.7477053580323</v>
       </c>
     </row>
     <row r="434" spans="1:6">
@@ -9213,13 +9213,13 @@
         <v>18</v>
       </c>
       <c r="D434">
-        <v>136.1887767381317</v>
+        <v>169.0791798155753</v>
       </c>
       <c r="E434">
-        <v>-13.8067026791978</v>
+        <v>130.904299589472</v>
       </c>
       <c r="F434">
-        <v>286.1842561554611</v>
+        <v>207.2540600416786</v>
       </c>
     </row>
     <row r="435" spans="1:6">
@@ -9233,13 +9233,13 @@
         <v>18</v>
       </c>
       <c r="D435">
-        <v>125.6465418663185</v>
+        <v>163.0243428598162</v>
       </c>
       <c r="E435">
-        <v>-32.15640117379685</v>
+        <v>124.8183455840599</v>
       </c>
       <c r="F435">
-        <v>283.4494849064339</v>
+        <v>201.2303401355724</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -9673,13 +9673,13 @@
         <v>19</v>
       </c>
       <c r="D457">
-        <v>425.6379039563197</v>
+        <v>393.9247857844302</v>
       </c>
       <c r="E457">
-        <v>341.0405643286173</v>
+        <v>295.3688182401795</v>
       </c>
       <c r="F457">
-        <v>510.2352435840222</v>
+        <v>492.480753328681</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -9693,13 +9693,13 @@
         <v>19</v>
       </c>
       <c r="D458">
-        <v>433.8594656107435</v>
+        <v>388.5847576682219</v>
       </c>
       <c r="E458">
-        <v>317.0547322589445</v>
+        <v>236.2592488669327</v>
       </c>
       <c r="F458">
-        <v>550.6641989625425</v>
+        <v>540.910266469511</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -9713,13 +9713,13 @@
         <v>19</v>
       </c>
       <c r="D459">
-        <v>353.2849934394378</v>
+        <v>379.6117848366069</v>
       </c>
       <c r="E459">
-        <v>208.9821179837739</v>
+        <v>183.2752842528915</v>
       </c>
       <c r="F459">
-        <v>497.5878688951017</v>
+        <v>575.9482854203223</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -9733,13 +9733,13 @@
         <v>19</v>
       </c>
       <c r="D460">
-        <v>321.7154440382271</v>
+        <v>361.166099236711</v>
       </c>
       <c r="E460">
-        <v>154.1184688832898</v>
+        <v>140.2946784058946</v>
       </c>
       <c r="F460">
-        <v>489.3124191931645</v>
+        <v>582.0375200675275</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -9753,13 +9753,13 @@
         <v>19</v>
       </c>
       <c r="D461">
-        <v>326.6305933602583</v>
+        <v>358.5191869397602</v>
       </c>
       <c r="E461">
-        <v>101.6733884151305</v>
+        <v>103.2165403662391</v>
       </c>
       <c r="F461">
-        <v>551.5877983053861</v>
+        <v>613.8218335132813</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -9773,13 +9773,13 @@
         <v>19</v>
       </c>
       <c r="D462">
-        <v>337.5416391730722</v>
+        <v>338.5179355415157</v>
       </c>
       <c r="E462">
-        <v>71.64742759673049</v>
+        <v>64.05455028236673</v>
       </c>
       <c r="F462">
-        <v>603.4358507494138</v>
+        <v>612.9813208006647</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -9793,13 +9793,13 @@
         <v>19</v>
       </c>
       <c r="D463">
-        <v>282.8871939919171</v>
+        <v>334.5586734496432</v>
       </c>
       <c r="E463">
-        <v>-20.63374930135791</v>
+        <v>33.68481636103752</v>
       </c>
       <c r="F463">
-        <v>586.4081372851922</v>
+        <v>635.4325305382489</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -9813,13 +9813,13 @@
         <v>19</v>
       </c>
       <c r="D464">
-        <v>272.1627125225617</v>
+        <v>317.4120772505941</v>
       </c>
       <c r="E464">
-        <v>-64.07151601839519</v>
+        <v>-1.22329422341079</v>
       </c>
       <c r="F464">
-        <v>608.3969410635186</v>
+        <v>636.047448724599</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -9833,13 +9833,13 @@
         <v>19</v>
       </c>
       <c r="D465">
-        <v>285.5846269418893</v>
+        <v>310.1491133089419</v>
       </c>
       <c r="E465">
-        <v>-101.7398427873163</v>
+        <v>-29.29919952654916</v>
       </c>
       <c r="F465">
-        <v>672.9090966710949</v>
+        <v>649.5974261444329</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -9853,13 +9853,13 @@
         <v>19</v>
       </c>
       <c r="D466">
-        <v>304.2769617520086</v>
+        <v>296.2043904373405</v>
       </c>
       <c r="E466">
-        <v>-122.7339545669385</v>
+        <v>-60.17930321198259</v>
       </c>
       <c r="F466">
-        <v>731.2878780709557</v>
+        <v>652.5880840866637</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -10293,13 +10293,13 @@
         <v>20</v>
       </c>
       <c r="D488">
-        <v>166.479376560539</v>
+        <v>194.3439663663106</v>
       </c>
       <c r="E488">
-        <v>126.1934772406412</v>
+        <v>159.6925365268438</v>
       </c>
       <c r="F488">
-        <v>206.7652758804367</v>
+        <v>228.9953962057773</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -10313,13 +10313,13 @@
         <v>20</v>
       </c>
       <c r="D489">
-        <v>167.8184369857067</v>
+        <v>174.2341736574963</v>
       </c>
       <c r="E489">
-        <v>127.1331850114252</v>
+        <v>135.5671184537246</v>
       </c>
       <c r="F489">
-        <v>208.5036889599882</v>
+        <v>212.901228861268</v>
       </c>
     </row>
     <row r="490" spans="1:6">
@@ -10333,13 +10333,13 @@
         <v>20</v>
       </c>
       <c r="D490">
-        <v>160.6840218904189</v>
+        <v>149.0099264203932</v>
       </c>
       <c r="E490">
-        <v>119.8672899338902</v>
+        <v>108.2139714437198</v>
       </c>
       <c r="F490">
-        <v>201.5007538469475</v>
+        <v>189.8058813970667</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -10353,13 +10353,13 @@
         <v>20</v>
       </c>
       <c r="D491">
-        <v>143.409066211164</v>
+        <v>137.0347712402371</v>
       </c>
       <c r="E491">
-        <v>101.0148355919053</v>
+        <v>96.22425703220952</v>
       </c>
       <c r="F491">
-        <v>185.8032968304227</v>
+        <v>177.8452854482647</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -10373,13 +10373,13 @@
         <v>20</v>
       </c>
       <c r="D492">
-        <v>130.4484516777252</v>
+        <v>139.0974851476066</v>
       </c>
       <c r="E492">
-        <v>87.7278501057761</v>
+        <v>97.16067407514785</v>
       </c>
       <c r="F492">
-        <v>173.1690532496744</v>
+        <v>181.0342962200653</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -10393,13 +10393,13 @@
         <v>20</v>
       </c>
       <c r="D493">
-        <v>123.8306220744506</v>
+        <v>144.363923633623</v>
       </c>
       <c r="E493">
-        <v>81.08378203939327</v>
+        <v>101.7183681978975</v>
       </c>
       <c r="F493">
-        <v>166.5774621095079</v>
+        <v>187.0094790693484</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -10413,13 +10413,13 @@
         <v>20</v>
       </c>
       <c r="D494">
-        <v>122.0025322103988</v>
+        <v>143.299324929044</v>
       </c>
       <c r="E494">
-        <v>78.84832968813683</v>
+        <v>100.6604434590695</v>
       </c>
       <c r="F494">
-        <v>165.1567347326609</v>
+        <v>185.9382063990186</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -10433,13 +10433,13 @@
         <v>20</v>
       </c>
       <c r="D495">
-        <v>120.3264937477697</v>
+        <v>134.9461718992413</v>
       </c>
       <c r="E495">
-        <v>76.87265006679961</v>
+        <v>92.14262264668258</v>
       </c>
       <c r="F495">
-        <v>163.7803374287398</v>
+        <v>177.7497211518</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -10453,13 +10453,13 @@
         <v>20</v>
       </c>
       <c r="D496">
-        <v>116.2389392269507</v>
+        <v>124.6032378454258</v>
       </c>
       <c r="E496">
-        <v>72.74912580624991</v>
+        <v>81.68467143941251</v>
       </c>
       <c r="F496">
-        <v>159.7287526476515</v>
+        <v>167.5218042514391</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -10473,13 +10473,13 @@
         <v>20</v>
       </c>
       <c r="D497">
-        <v>109.7379777232587</v>
+        <v>117.2715922080957</v>
       </c>
       <c r="E497">
-        <v>66.27305308615837</v>
+        <v>74.35343321480659</v>
       </c>
       <c r="F497">
-        <v>153.202902360359</v>
+        <v>160.1897512013848</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -10913,13 +10913,13 @@
         <v>21</v>
       </c>
       <c r="D519">
-        <v>154.8980330131194</v>
+        <v>222.1221462836701</v>
       </c>
       <c r="E519">
-        <v>37.36395277249099</v>
+        <v>74.35245958017489</v>
       </c>
       <c r="F519">
-        <v>272.4321132537478</v>
+        <v>369.8918329871653</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -10933,13 +10933,13 @@
         <v>21</v>
       </c>
       <c r="D520">
-        <v>127.608579354715</v>
+        <v>219.2918516047765</v>
       </c>
       <c r="E520">
-        <v>-2.541146650257588</v>
+        <v>41.76494910882573</v>
       </c>
       <c r="F520">
-        <v>257.7583053596876</v>
+        <v>396.8187541007273</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -10953,13 +10953,13 @@
         <v>21</v>
       </c>
       <c r="D521">
-        <v>115.512031419671</v>
+        <v>220.404127787342</v>
       </c>
       <c r="E521">
-        <v>-35.51057316090342</v>
+        <v>20.51528504778292</v>
       </c>
       <c r="F521">
-        <v>266.5346360002453</v>
+        <v>420.2929705269011</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -10973,13 +10973,13 @@
         <v>21</v>
       </c>
       <c r="D522">
-        <v>100.4066258024195</v>
+        <v>219.967174822185</v>
       </c>
       <c r="E522">
-        <v>-66.57188907859944</v>
+        <v>-1.104361593622116</v>
       </c>
       <c r="F522">
-        <v>267.3851406834384</v>
+        <v>441.0387112379921</v>
       </c>
     </row>
     <row r="523" spans="1:6">
@@ -10993,13 +10993,13 @@
         <v>21</v>
       </c>
       <c r="D523">
-        <v>85.44942156530982</v>
+        <v>220.1388390198651</v>
       </c>
       <c r="E523">
-        <v>-96.27895980476342</v>
+        <v>-19.86245776839857</v>
       </c>
       <c r="F523">
-        <v>267.1778029353831</v>
+        <v>460.1401358081288</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -11013,13 +11013,13 @@
         <v>21</v>
       </c>
       <c r="D524">
-        <v>70.70482027207714</v>
+        <v>220.0713984174557</v>
       </c>
       <c r="E524">
-        <v>-124.6196544765303</v>
+        <v>-37.61573976852787</v>
       </c>
       <c r="F524">
-        <v>266.0292950206846</v>
+        <v>477.7585366034392</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -11033,13 +11033,13 @@
         <v>21</v>
       </c>
       <c r="D525">
-        <v>55.84265001395494</v>
+        <v>220.0978933998124</v>
       </c>
       <c r="E525">
-        <v>-152.0699697351694</v>
+        <v>-54.08375228306338</v>
       </c>
       <c r="F525">
-        <v>263.7552697630793</v>
+        <v>494.2795390826882</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -11053,13 +11053,13 @@
         <v>21</v>
       </c>
       <c r="D526">
-        <v>41.02892725841963</v>
+        <v>220.0874844777003</v>
       </c>
       <c r="E526">
-        <v>-178.6960725913569</v>
+        <v>-69.6709061043224</v>
       </c>
       <c r="F526">
-        <v>260.7539271081962</v>
+        <v>509.845875059723</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -11073,13 +11073,13 @@
         <v>21</v>
       </c>
       <c r="D527">
-        <v>26.208116723025</v>
+        <v>220.0915737675359</v>
       </c>
       <c r="E527">
-        <v>-204.6510131441621</v>
+        <v>-84.4404953861513</v>
       </c>
       <c r="F527">
-        <v>257.0672465902121</v>
+        <v>524.6236429212231</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -11093,13 +11093,13 @@
         <v>21</v>
       </c>
       <c r="D528">
-        <v>11.39354530826324</v>
+        <v>220.089967233149</v>
       </c>
       <c r="E528">
-        <v>-230.0217450902828</v>
+        <v>-98.53426710707927</v>
       </c>
       <c r="F528">
-        <v>252.8088357068093</v>
+        <v>538.7142015733773</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -11413,13 +11413,13 @@
         <v>22</v>
       </c>
       <c r="D544">
-        <v>183</v>
+        <v>1127</v>
       </c>
       <c r="E544">
-        <v>183</v>
+        <v>1127</v>
       </c>
       <c r="F544">
-        <v>183</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -11433,13 +11433,13 @@
         <v>22</v>
       </c>
       <c r="D545">
-        <v>158</v>
+        <v>1112</v>
       </c>
       <c r="E545">
-        <v>158</v>
+        <v>1112</v>
       </c>
       <c r="F545">
-        <v>158</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -11453,13 +11453,13 @@
         <v>22</v>
       </c>
       <c r="D546">
-        <v>149</v>
+        <v>1080</v>
       </c>
       <c r="E546">
-        <v>149</v>
+        <v>1080</v>
       </c>
       <c r="F546">
-        <v>149</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -11473,13 +11473,13 @@
         <v>22</v>
       </c>
       <c r="D547">
-        <v>138</v>
+        <v>978</v>
       </c>
       <c r="E547">
-        <v>138</v>
+        <v>978</v>
       </c>
       <c r="F547">
-        <v>138</v>
+        <v>978</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -11493,13 +11493,13 @@
         <v>22</v>
       </c>
       <c r="D548">
-        <v>152</v>
+        <v>1011</v>
       </c>
       <c r="E548">
-        <v>152</v>
+        <v>1011</v>
       </c>
       <c r="F548">
-        <v>152</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -11513,13 +11513,13 @@
         <v>22</v>
       </c>
       <c r="D549">
-        <v>86</v>
+        <v>746</v>
       </c>
       <c r="E549">
-        <v>86</v>
+        <v>746</v>
       </c>
       <c r="F549">
-        <v>86</v>
+        <v>746</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -11533,13 +11533,13 @@
         <v>22</v>
       </c>
       <c r="D550">
-        <v>87.31735581112233</v>
+        <v>1091.241253041963</v>
       </c>
       <c r="E550">
-        <v>-387.5401087617402</v>
+        <v>899.2342147824356</v>
       </c>
       <c r="F550">
-        <v>562.1748203839849</v>
+        <v>1283.248291301491</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11553,13 +11553,13 @@
         <v>22</v>
       </c>
       <c r="D551">
-        <v>86.12255548513022</v>
+        <v>1064.991465985721</v>
       </c>
       <c r="E551">
-        <v>-608.8510120471101</v>
+        <v>821.6909279238147</v>
       </c>
       <c r="F551">
-        <v>781.0961230173705</v>
+        <v>1308.292004047627</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -11573,13 +11573,13 @@
         <v>22</v>
       </c>
       <c r="D552">
-        <v>87.20620183711667</v>
+        <v>1097.525152875942</v>
       </c>
       <c r="E552">
-        <v>-756.2251223300754</v>
+        <v>851.5738936635059</v>
       </c>
       <c r="F552">
-        <v>930.6375260043086</v>
+        <v>1343.476412088378</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -11593,13 +11593,13 @@
         <v>22</v>
       </c>
       <c r="D553">
-        <v>86.22336864681061</v>
+        <v>1108.520574182302</v>
       </c>
       <c r="E553">
-        <v>-896.6813100551969</v>
+        <v>842.2425089274536</v>
       </c>
       <c r="F553">
-        <v>1069.128047348818</v>
+        <v>1374.798639437151</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -11613,13 +11613,13 @@
         <v>22</v>
       </c>
       <c r="D554">
-        <v>87.11476746728046</v>
+        <v>1117.120607394693</v>
       </c>
       <c r="E554">
-        <v>-1006.908198388898</v>
+        <v>844.5031800105257</v>
       </c>
       <c r="F554">
-        <v>1181.137733323459</v>
+        <v>1389.738034778861</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -11633,13 +11633,13 @@
         <v>22</v>
       </c>
       <c r="D555">
-        <v>86.30629674714982</v>
+        <v>1131.302300315005</v>
       </c>
       <c r="E555">
-        <v>-1117.579114660921</v>
+        <v>852.3054930092561</v>
       </c>
       <c r="F555">
-        <v>1290.191708155221</v>
+        <v>1410.299107620755</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -11653,13 +11653,13 @@
         <v>22</v>
       </c>
       <c r="D556">
-        <v>87.03955428608626</v>
+        <v>1138.479039158966</v>
       </c>
       <c r="E556">
-        <v>-1209.920092184857</v>
+        <v>853.8909091345847</v>
       </c>
       <c r="F556">
-        <v>1383.99920075703</v>
+        <v>1423.067169183347</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -11673,13 +11673,13 @@
         <v>22</v>
       </c>
       <c r="D557">
-        <v>86.37451273910204</v>
+        <v>1147.685708017813</v>
       </c>
       <c r="E557">
-        <v>-1303.840051033644</v>
+        <v>859.611267412496</v>
       </c>
       <c r="F557">
-        <v>1476.589076511848</v>
+        <v>1435.760148623129</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -11693,13 +11693,13 @@
         <v>22</v>
       </c>
       <c r="D558">
-        <v>86.97768452490688</v>
+        <v>1155.030987649662</v>
       </c>
       <c r="E558">
-        <v>-1385.12786906468</v>
+        <v>863.7123029937609</v>
       </c>
       <c r="F558">
-        <v>1559.083238114494</v>
+        <v>1446.349672305563</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -11713,13 +11713,13 @@
         <v>22</v>
       </c>
       <c r="D559">
-        <v>86.43062666838527</v>
+        <v>1161.44723180926</v>
       </c>
       <c r="E559">
-        <v>-1467.969645411311</v>
+        <v>867.7942319240601</v>
       </c>
       <c r="F559">
-        <v>1640.830898748082</v>
+        <v>1455.10023169446</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -12153,13 +12153,13 @@
         <v>23</v>
       </c>
       <c r="D581">
-        <v>502.0574425881016</v>
+        <v>474.4212795307023</v>
       </c>
       <c r="E581">
-        <v>387.2581422317555</v>
+        <v>341.607719470021</v>
       </c>
       <c r="F581">
-        <v>616.8567429444477</v>
+        <v>607.2348395913837</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -12173,13 +12173,13 @@
         <v>23</v>
       </c>
       <c r="D582">
-        <v>499.5915850273633</v>
+        <v>445.807849274787</v>
       </c>
       <c r="E582">
-        <v>347.0747967465412</v>
+        <v>278.9766282884893</v>
       </c>
       <c r="F582">
-        <v>652.1083733081854</v>
+        <v>612.6390702610846</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -12193,13 +12193,13 @@
         <v>23</v>
       </c>
       <c r="D583">
-        <v>552.5673035014638</v>
+        <v>464.8785012982419</v>
       </c>
       <c r="E583">
-        <v>315.6851528169148</v>
+        <v>237.8146038704564</v>
       </c>
       <c r="F583">
-        <v>789.4494541860129</v>
+        <v>691.9423987260272</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -12213,13 +12213,13 @@
         <v>23</v>
       </c>
       <c r="D584">
-        <v>435.7997477922586</v>
+        <v>302.1696539603073</v>
       </c>
       <c r="E584">
-        <v>152.5189168074734</v>
+        <v>56.58532201489933</v>
       </c>
       <c r="F584">
-        <v>719.0805787770438</v>
+        <v>547.7539859057152</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -12233,13 +12233,13 @@
         <v>23</v>
       </c>
       <c r="D585">
-        <v>544.697984268056</v>
+        <v>361.5167415606641</v>
       </c>
       <c r="E585">
-        <v>175.4819428924603</v>
+        <v>70.76959763234549</v>
       </c>
       <c r="F585">
-        <v>913.9140256436516</v>
+        <v>652.2638854889826</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -12253,13 +12253,13 @@
         <v>23</v>
       </c>
       <c r="D586">
-        <v>625.8085277111485</v>
+        <v>365.305063197321</v>
       </c>
       <c r="E586">
-        <v>187.7749965022495</v>
+        <v>46.98052709959376</v>
       </c>
       <c r="F586">
-        <v>1063.842058920048</v>
+        <v>683.6295992950484</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -12273,13 +12273,13 @@
         <v>23</v>
       </c>
       <c r="D587">
-        <v>690.2739738051266</v>
+        <v>369.6845178076505</v>
       </c>
       <c r="E587">
-        <v>172.9748049931904</v>
+        <v>15.95646335910533</v>
       </c>
       <c r="F587">
-        <v>1207.573142617063</v>
+        <v>723.4125722561957</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -12293,13 +12293,13 @@
         <v>23</v>
       </c>
       <c r="D588">
-        <v>637.4949344339926</v>
+        <v>229.3495119955409</v>
       </c>
       <c r="E588">
-        <v>60.02198638295226</v>
+        <v>-140.1729351301735</v>
       </c>
       <c r="F588">
-        <v>1214.967882485033</v>
+        <v>598.8719591212553</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -12313,13 +12313,13 @@
         <v>23</v>
       </c>
       <c r="D589">
-        <v>742.1539667684059</v>
+        <v>256.4411857717444</v>
       </c>
       <c r="E589">
-        <v>91.89855232658726</v>
+        <v>-141.4671796116433</v>
       </c>
       <c r="F589">
-        <v>1392.409381210225</v>
+        <v>654.3495511551321</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -12333,13 +12333,13 @@
         <v>23</v>
       </c>
       <c r="D590">
-        <v>878.2564920412606</v>
+        <v>279.4867620039834</v>
       </c>
       <c r="E590">
-        <v>161.6628395929974</v>
+        <v>-141.3653628607255</v>
       </c>
       <c r="F590">
-        <v>1594.850144489524</v>
+        <v>700.3388868686923</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -12653,13 +12653,13 @@
         <v>24</v>
       </c>
       <c r="D606">
-        <v>242</v>
+        <v>523</v>
       </c>
       <c r="E606">
-        <v>242</v>
+        <v>523</v>
       </c>
       <c r="F606">
-        <v>242</v>
+        <v>523</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -12673,13 +12673,13 @@
         <v>24</v>
       </c>
       <c r="D607">
-        <v>185</v>
+        <v>475</v>
       </c>
       <c r="E607">
-        <v>185</v>
+        <v>475</v>
       </c>
       <c r="F607">
-        <v>185</v>
+        <v>475</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -12693,13 +12693,13 @@
         <v>24</v>
       </c>
       <c r="D608">
-        <v>227</v>
+        <v>469</v>
       </c>
       <c r="E608">
-        <v>227</v>
+        <v>469</v>
       </c>
       <c r="F608">
-        <v>227</v>
+        <v>469</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -12713,13 +12713,13 @@
         <v>24</v>
       </c>
       <c r="D609">
-        <v>197</v>
+        <v>472</v>
       </c>
       <c r="E609">
-        <v>197</v>
+        <v>472</v>
       </c>
       <c r="F609">
-        <v>197</v>
+        <v>472</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -12733,13 +12733,13 @@
         <v>24</v>
       </c>
       <c r="D610">
-        <v>201</v>
+        <v>430</v>
       </c>
       <c r="E610">
-        <v>201</v>
+        <v>430</v>
       </c>
       <c r="F610">
-        <v>201</v>
+        <v>430</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -12753,13 +12753,13 @@
         <v>24</v>
       </c>
       <c r="D611">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="E611">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="F611">
-        <v>134</v>
+        <v>312</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -12773,13 +12773,13 @@
         <v>24</v>
       </c>
       <c r="D612">
-        <v>116.3696411938158</v>
+        <v>415.1451424075393</v>
       </c>
       <c r="E612">
-        <v>-28.43946668648761</v>
+        <v>292.3859126967185</v>
       </c>
       <c r="F612">
-        <v>261.1787490741193</v>
+        <v>537.90437211836</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -12793,13 +12793,13 @@
         <v>24</v>
       </c>
       <c r="D613">
-        <v>101.3829693414163</v>
+        <v>407.7253949975823</v>
       </c>
       <c r="E613">
-        <v>-80.98835219016854</v>
+        <v>257.6068826154437</v>
       </c>
       <c r="F613">
-        <v>283.7542908730011</v>
+        <v>557.8439073797209</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -12813,13 +12813,13 @@
         <v>24</v>
       </c>
       <c r="D614">
-        <v>76.04243518139253</v>
+        <v>400.3107475689024</v>
       </c>
       <c r="E614">
-        <v>-127.1327847726531</v>
+        <v>227.2339815665147</v>
       </c>
       <c r="F614">
-        <v>279.2176551354382</v>
+        <v>573.3875135712901</v>
       </c>
     </row>
     <row r="615" spans="1:6">
@@ -12833,13 +12833,13 @@
         <v>24</v>
       </c>
       <c r="D615">
-        <v>52.58018358207107</v>
+        <v>392.9011844745492</v>
       </c>
       <c r="E615">
-        <v>-174.1638348569671</v>
+        <v>199.6911789785823</v>
       </c>
       <c r="F615">
-        <v>279.3242020211093</v>
+        <v>586.1111899705161</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -12853,13 +12853,13 @@
         <v>24</v>
       </c>
       <c r="D616">
-        <v>30.74084488290293</v>
+        <v>385.4966901155777</v>
       </c>
       <c r="E616">
-        <v>-217.8016382003724</v>
+        <v>174.1688307142631</v>
       </c>
       <c r="F616">
-        <v>279.2833279661783</v>
+        <v>596.8245495168924</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -12873,13 +12873,13 @@
         <v>24</v>
       </c>
       <c r="D617">
-        <v>8.166493483659565</v>
+        <v>378.0972489409013</v>
       </c>
       <c r="E617">
-        <v>-259.2989020042652</v>
+        <v>150.1851660070916</v>
       </c>
       <c r="F617">
-        <v>275.6318889715843</v>
+        <v>606.0093318747111</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -12893,13 +12893,13 @@
         <v>24</v>
       </c>
       <c r="D618">
-        <v>-14.54820364507589</v>
+        <v>370.7028454471445</v>
       </c>
       <c r="E618">
-        <v>-299.6650747296039</v>
+        <v>127.4257575344304</v>
       </c>
       <c r="F618">
-        <v>270.5686674394522</v>
+        <v>613.9799333598586</v>
       </c>
     </row>
     <row r="619" spans="1:6">
@@ -12913,13 +12913,13 @@
         <v>24</v>
       </c>
       <c r="D619">
-        <v>-37.07466504959564</v>
+        <v>363.3134641784972</v>
       </c>
       <c r="E619">
-        <v>-338.839893266445</v>
+        <v>105.6718342793856</v>
       </c>
       <c r="F619">
-        <v>264.6905631672537</v>
+        <v>620.9550940776087</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -12933,13 +12933,13 @@
         <v>24</v>
       </c>
       <c r="D620">
-        <v>-59.60626601356421</v>
+        <v>355.9290897265679</v>
       </c>
       <c r="E620">
-        <v>-376.9861095579427</v>
+        <v>84.76383907100126</v>
       </c>
       <c r="F620">
-        <v>257.7735775308142</v>
+        <v>627.0943403821345</v>
       </c>
     </row>
     <row r="621" spans="1:6">
@@ -12953,13 +12953,13 @@
         <v>24</v>
       </c>
       <c r="D621">
-        <v>-82.16333183457505</v>
+        <v>348.5497067302391</v>
       </c>
       <c r="E621">
-        <v>-414.3044983375402</v>
+        <v>64.58111214459734</v>
       </c>
       <c r="F621">
-        <v>249.9778346683901</v>
+        <v>632.5183013158809</v>
       </c>
     </row>
     <row r="622" spans="1:6">
@@ -13393,13 +13393,13 @@
         <v>25</v>
       </c>
       <c r="D643">
-        <v>279.5753420846891</v>
+        <v>271.437815392405</v>
       </c>
       <c r="E643">
-        <v>188.4243982389908</v>
+        <v>156.0459967376468</v>
       </c>
       <c r="F643">
-        <v>370.7262859303873</v>
+        <v>386.8296340471632</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -13413,13 +13413,13 @@
         <v>25</v>
       </c>
       <c r="D644">
-        <v>255.107739483385</v>
+        <v>272.3370388268715</v>
       </c>
       <c r="E644">
-        <v>149.8468049147632</v>
+        <v>137.3389613061993</v>
       </c>
       <c r="F644">
-        <v>360.3686740520069</v>
+        <v>407.3351163475438</v>
       </c>
     </row>
     <row r="645" spans="1:6">
@@ -13433,13 +13433,13 @@
         <v>25</v>
       </c>
       <c r="D645">
-        <v>298.4511265662956</v>
+        <v>273.2623869832715</v>
       </c>
       <c r="E645">
-        <v>186.2294675269368</v>
+        <v>121.5308765821176</v>
       </c>
       <c r="F645">
-        <v>410.6727856056543</v>
+        <v>424.9938973844253</v>
       </c>
     </row>
     <row r="646" spans="1:6">
@@ -13453,13 +13453,13 @@
         <v>25</v>
       </c>
       <c r="D646">
-        <v>266.2591896318268</v>
+        <v>274.213562182852</v>
       </c>
       <c r="E646">
-        <v>152.2252548467331</v>
+        <v>107.7452368499956</v>
       </c>
       <c r="F646">
-        <v>380.2931244169205</v>
+        <v>440.6818875157084</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -13473,13 +13473,13 @@
         <v>25</v>
       </c>
       <c r="D647">
-        <v>304.9845362829328</v>
+        <v>275.1902701387677</v>
       </c>
       <c r="E647">
-        <v>189.158811265997</v>
+        <v>95.48300630386015</v>
       </c>
       <c r="F647">
-        <v>420.8102612998687</v>
+        <v>454.8975339736753</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -13493,13 +13493,13 @@
         <v>25</v>
       </c>
       <c r="D648">
-        <v>270.1414341319321</v>
+        <v>276.1922199174319</v>
       </c>
       <c r="E648">
-        <v>154.2024813109883</v>
+        <v>84.42712688620114</v>
       </c>
       <c r="F648">
-        <v>386.0803869528759</v>
+        <v>467.9573129486627</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -13513,13 +13513,13 @@
         <v>25</v>
       </c>
       <c r="D649">
-        <v>307.2367156772216</v>
+        <v>277.2191239003068</v>
       </c>
       <c r="E649">
-        <v>190.521639817459</v>
+        <v>74.36078139649828</v>
       </c>
       <c r="F649">
-        <v>423.9517915369843</v>
+        <v>480.0774664041154</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -13533,13 +13533,13 @@
         <v>25</v>
       </c>
       <c r="D650">
-        <v>271.5021644767227</v>
+        <v>278.2706977461314</v>
       </c>
       <c r="E650">
-        <v>155.0206580023263</v>
+        <v>65.12762583513194</v>
       </c>
       <c r="F650">
-        <v>387.9836709511191</v>
+        <v>491.4137696571309</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -13553,13 +13553,13 @@
         <v>25</v>
       </c>
       <c r="D651">
-        <v>308.0038649723908</v>
+        <v>279.3466603535774</v>
       </c>
       <c r="E651">
-        <v>191.0150214130234</v>
+        <v>56.61030384822274</v>
       </c>
       <c r="F651">
-        <v>424.9927085317582</v>
+        <v>502.0830168589321</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -13573,13 +13573,13 @@
         <v>25</v>
       </c>
       <c r="D652">
-        <v>271.9882307335558</v>
+        <v>280.4467338243322</v>
       </c>
       <c r="E652">
-        <v>155.3250997407546</v>
+        <v>48.71790507573985</v>
       </c>
       <c r="F652">
-        <v>388.651361726357</v>
+        <v>512.1755625729246</v>
       </c>
     </row>
     <row r="653" spans="1:6">
@@ -13893,13 +13893,13 @@
         <v>26</v>
       </c>
       <c r="D668">
-        <v>1127</v>
+        <v>183</v>
       </c>
       <c r="E668">
-        <v>1127</v>
+        <v>183</v>
       </c>
       <c r="F668">
-        <v>1127</v>
+        <v>183</v>
       </c>
     </row>
     <row r="669" spans="1:6">
@@ -13913,13 +13913,13 @@
         <v>26</v>
       </c>
       <c r="D669">
-        <v>1112</v>
+        <v>158</v>
       </c>
       <c r="E669">
-        <v>1112</v>
+        <v>158</v>
       </c>
       <c r="F669">
-        <v>1112</v>
+        <v>158</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -13933,13 +13933,13 @@
         <v>26</v>
       </c>
       <c r="D670">
-        <v>1080</v>
+        <v>149</v>
       </c>
       <c r="E670">
-        <v>1080</v>
+        <v>149</v>
       </c>
       <c r="F670">
-        <v>1080</v>
+        <v>149</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -13953,13 +13953,13 @@
         <v>26</v>
       </c>
       <c r="D671">
-        <v>978</v>
+        <v>138</v>
       </c>
       <c r="E671">
-        <v>978</v>
+        <v>138</v>
       </c>
       <c r="F671">
-        <v>978</v>
+        <v>138</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -13973,13 +13973,13 @@
         <v>26</v>
       </c>
       <c r="D672">
-        <v>1011</v>
+        <v>152</v>
       </c>
       <c r="E672">
-        <v>1011</v>
+        <v>152</v>
       </c>
       <c r="F672">
-        <v>1011</v>
+        <v>152</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -13993,13 +13993,13 @@
         <v>26</v>
       </c>
       <c r="D673">
-        <v>746</v>
+        <v>86</v>
       </c>
       <c r="E673">
-        <v>746</v>
+        <v>86</v>
       </c>
       <c r="F673">
-        <v>746</v>
+        <v>86</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -14013,13 +14013,13 @@
         <v>26</v>
       </c>
       <c r="D674">
-        <v>767.584130554985</v>
+        <v>147.4663304702742</v>
       </c>
       <c r="E674">
-        <v>374.7968814223129</v>
+        <v>84.45097226234441</v>
       </c>
       <c r="F674">
-        <v>1160.371379687657</v>
+        <v>210.481688678204</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -14033,13 +14033,13 @@
         <v>26</v>
       </c>
       <c r="D675">
-        <v>708.0698723213793</v>
+        <v>145.2135568146062</v>
       </c>
       <c r="E675">
-        <v>205.4086312270196</v>
+        <v>68.32018915925936</v>
       </c>
       <c r="F675">
-        <v>1210.731113415739</v>
+        <v>222.106924469953</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -14053,13 +14053,13 @@
         <v>26</v>
       </c>
       <c r="D676">
-        <v>796.8761348665543</v>
+        <v>142.9700647823041</v>
       </c>
       <c r="E676">
-        <v>247.8801592091505</v>
+        <v>54.50758948129524</v>
       </c>
       <c r="F676">
-        <v>1345.872110523958</v>
+        <v>231.432540083313</v>
       </c>
     </row>
     <row r="677" spans="1:6">
@@ -14073,13 +14073,13 @@
         <v>26</v>
       </c>
       <c r="D677">
-        <v>798.6550682683715</v>
+        <v>140.7357856775346</v>
       </c>
       <c r="E677">
-        <v>233.1929014268869</v>
+        <v>42.19434102358667</v>
       </c>
       <c r="F677">
-        <v>1364.117235109856</v>
+        <v>239.2772303314825</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -14093,13 +14093,13 @@
         <v>26</v>
       </c>
       <c r="D678">
-        <v>937.3889132068231</v>
+        <v>138.5106513129007</v>
       </c>
       <c r="E678">
-        <v>363.9942258033608</v>
+        <v>30.95868062396585</v>
       </c>
       <c r="F678">
-        <v>1510.783600610285</v>
+        <v>246.0626220018356</v>
       </c>
     </row>
     <row r="679" spans="1:6">
@@ -14113,13 +14113,13 @@
         <v>26</v>
       </c>
       <c r="D679">
-        <v>964.3917801180065</v>
+        <v>136.2945940056795</v>
       </c>
       <c r="E679">
-        <v>392.6189259665299</v>
+        <v>20.54896890764631</v>
       </c>
       <c r="F679">
-        <v>1536.164634269483</v>
+        <v>252.0402191037126</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -14133,13 +14133,13 @@
         <v>26</v>
       </c>
       <c r="D680">
-        <v>1070.832494108942</v>
+        <v>134.0875465740859</v>
       </c>
       <c r="E680">
-        <v>500.5333578336509</v>
+        <v>10.80052293098221</v>
       </c>
       <c r="F680">
-        <v>1641.131630384234</v>
+        <v>257.3745702171896</v>
       </c>
     </row>
     <row r="681" spans="1:6">
@@ -14153,13 +14153,13 @@
         <v>26</v>
       </c>
       <c r="D681">
-        <v>1085.079104673714</v>
+        <v>131.8894423335659</v>
       </c>
       <c r="E681">
-        <v>514.8543042493138</v>
+        <v>1.598438252803305</v>
       </c>
       <c r="F681">
-        <v>1655.303905098115</v>
+        <v>262.1804464143286</v>
       </c>
     </row>
     <row r="682" spans="1:6">
@@ -14173,13 +14173,13 @@
         <v>26</v>
       </c>
       <c r="D682">
-        <v>1159.529756759337</v>
+        <v>129.7002150931162</v>
       </c>
       <c r="E682">
-        <v>590.4336030107461</v>
+        <v>-7.141329893864793</v>
       </c>
       <c r="F682">
-        <v>1728.625910507927</v>
+        <v>266.5417600800972</v>
       </c>
     </row>
     <row r="683" spans="1:6">
@@ -14193,13 +14193,13 @@
         <v>26</v>
       </c>
       <c r="D683">
-        <v>1157.654095865386</v>
+        <v>127.5197991516309</v>
       </c>
       <c r="E683">
-        <v>589.5476391414361</v>
+        <v>-15.48252444868685</v>
       </c>
       <c r="F683">
-        <v>1725.760552589336</v>
+        <v>270.5221227519486</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -14633,13 +14633,13 @@
         <v>27</v>
       </c>
       <c r="D705">
-        <v>668.9822812028552</v>
+        <v>623.4382944156791</v>
       </c>
       <c r="E705">
-        <v>551.0286799329666</v>
+        <v>518.1592843926026</v>
       </c>
       <c r="F705">
-        <v>786.9358824727439</v>
+        <v>728.7173044387557</v>
       </c>
     </row>
     <row r="706" spans="1:6">
@@ -14653,13 +14653,13 @@
         <v>27</v>
       </c>
       <c r="D706">
-        <v>592.4469075027208</v>
+        <v>625.4509612615909</v>
       </c>
       <c r="E706">
-        <v>470.1408219598757</v>
+        <v>493.7863903584009</v>
       </c>
       <c r="F706">
-        <v>714.752993045566</v>
+        <v>757.1155321647809</v>
       </c>
     </row>
     <row r="707" spans="1:6">
@@ -14673,13 +14673,13 @@
         <v>27</v>
       </c>
       <c r="D707">
-        <v>766.8337263943084</v>
+        <v>748.0838251227663</v>
       </c>
       <c r="E707">
-        <v>630.6220548011801</v>
+        <v>613.0122603641722</v>
       </c>
       <c r="F707">
-        <v>903.0453979874368</v>
+        <v>883.1553898813603</v>
       </c>
     </row>
     <row r="708" spans="1:6">
@@ -14693,13 +14693,13 @@
         <v>27</v>
       </c>
       <c r="D708">
-        <v>698.3671279013273</v>
+        <v>690.4997095184214</v>
       </c>
       <c r="E708">
-        <v>556.3746618215225</v>
+        <v>555.098471675369</v>
       </c>
       <c r="F708">
-        <v>840.3595939811321</v>
+        <v>825.9009473614738</v>
       </c>
     </row>
     <row r="709" spans="1:6">
@@ -14713,13 +14713,13 @@
         <v>27</v>
       </c>
       <c r="D709">
-        <v>800.9074056618032</v>
+        <v>754.7958571615105</v>
       </c>
       <c r="E709">
-        <v>658.8478572617807</v>
+        <v>618.7286046887588</v>
       </c>
       <c r="F709">
-        <v>942.9669540618256</v>
+        <v>890.8631096342623</v>
       </c>
     </row>
     <row r="710" spans="1:6">
@@ -14733,13 +14733,13 @@
         <v>27</v>
       </c>
       <c r="D710">
-        <v>695.0633382064052</v>
+        <v>672.2044475750238</v>
       </c>
       <c r="E710">
-        <v>542.9343195121892</v>
+        <v>535.5789005141227</v>
       </c>
       <c r="F710">
-        <v>847.1923569006212</v>
+        <v>808.8299946359249</v>
       </c>
     </row>
     <row r="711" spans="1:6">
@@ -14753,13 +14753,13 @@
         <v>27</v>
       </c>
       <c r="D711">
-        <v>751.4102446675718</v>
+        <v>737.7052890657046</v>
       </c>
       <c r="E711">
-        <v>599.1122132454067</v>
+        <v>601.1014564733138</v>
       </c>
       <c r="F711">
-        <v>903.7082760897368</v>
+        <v>874.3091216580955</v>
       </c>
     </row>
     <row r="712" spans="1:6">
@@ -14773,13 +14773,13 @@
         <v>27</v>
       </c>
       <c r="D712">
-        <v>659.6830586052438</v>
+        <v>665.1832981765078</v>
       </c>
       <c r="E712">
-        <v>506.2047059169056</v>
+        <v>528.5983814888918</v>
       </c>
       <c r="F712">
-        <v>813.161411293582</v>
+        <v>801.7682148641238</v>
       </c>
     </row>
     <row r="713" spans="1:6">
@@ -14793,13 +14793,13 @@
         <v>27</v>
       </c>
       <c r="D713">
-        <v>722.2468894974254</v>
+        <v>738.3014068825728</v>
       </c>
       <c r="E713">
-        <v>565.776810080143</v>
+        <v>601.6553050737986</v>
       </c>
       <c r="F713">
-        <v>878.7169689147078</v>
+        <v>874.947508691347</v>
       </c>
     </row>
     <row r="714" spans="1:6">
@@ -14813,13 +14813,13 @@
         <v>27</v>
       </c>
       <c r="D714">
-        <v>665.9668462413414</v>
+        <v>668.2179731907379</v>
       </c>
       <c r="E714">
-        <v>509.4411950264554</v>
+        <v>531.5871522205881</v>
       </c>
       <c r="F714">
-        <v>822.4924974562274</v>
+        <v>804.8487941608877</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -15133,13 +15133,13 @@
         <v>28</v>
       </c>
       <c r="D730">
-        <v>523</v>
+        <v>242</v>
       </c>
       <c r="E730">
-        <v>523</v>
+        <v>242</v>
       </c>
       <c r="F730">
-        <v>523</v>
+        <v>242</v>
       </c>
     </row>
     <row r="731" spans="1:6">
@@ -15153,13 +15153,13 @@
         <v>28</v>
       </c>
       <c r="D731">
-        <v>475</v>
+        <v>185</v>
       </c>
       <c r="E731">
-        <v>475</v>
+        <v>185</v>
       </c>
       <c r="F731">
-        <v>475</v>
+        <v>185</v>
       </c>
     </row>
     <row r="732" spans="1:6">
@@ -15173,13 +15173,13 @@
         <v>28</v>
       </c>
       <c r="D732">
-        <v>469</v>
+        <v>227</v>
       </c>
       <c r="E732">
-        <v>469</v>
+        <v>227</v>
       </c>
       <c r="F732">
-        <v>469</v>
+        <v>227</v>
       </c>
     </row>
     <row r="733" spans="1:6">
@@ -15193,13 +15193,13 @@
         <v>28</v>
       </c>
       <c r="D733">
-        <v>472</v>
+        <v>197</v>
       </c>
       <c r="E733">
-        <v>472</v>
+        <v>197</v>
       </c>
       <c r="F733">
-        <v>472</v>
+        <v>197</v>
       </c>
     </row>
     <row r="734" spans="1:6">
@@ -15213,13 +15213,13 @@
         <v>28</v>
       </c>
       <c r="D734">
-        <v>430</v>
+        <v>201</v>
       </c>
       <c r="E734">
-        <v>430</v>
+        <v>201</v>
       </c>
       <c r="F734">
-        <v>430</v>
+        <v>201</v>
       </c>
     </row>
     <row r="735" spans="1:6">
@@ -15233,13 +15233,13 @@
         <v>28</v>
       </c>
       <c r="D735">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="E735">
-        <v>312</v>
+        <v>134</v>
       </c>
       <c r="F735">
-        <v>312</v>
+        <v>134</v>
       </c>
     </row>
     <row r="736" spans="1:6">
@@ -15253,13 +15253,13 @@
         <v>28</v>
       </c>
       <c r="D736">
-        <v>328.0647849810541</v>
+        <v>200.0273525003268</v>
       </c>
       <c r="E736">
-        <v>192.9545062785852</v>
+        <v>141.0569804160716</v>
       </c>
       <c r="F736">
-        <v>463.1750636835229</v>
+        <v>258.9977245845819</v>
       </c>
     </row>
     <row r="737" spans="1:6">
@@ -15273,13 +15273,13 @@
         <v>28</v>
       </c>
       <c r="D737">
-        <v>302.2265243480663</v>
+        <v>199.2359830207232</v>
       </c>
       <c r="E737">
-        <v>128.4406443737433</v>
+        <v>127.3054798936734</v>
       </c>
       <c r="F737">
-        <v>476.0124043223894</v>
+        <v>271.1664861477729</v>
       </c>
     </row>
     <row r="738" spans="1:6">
@@ -15293,13 +15293,13 @@
         <v>28</v>
       </c>
       <c r="D738">
-        <v>320.1168101921589</v>
+        <v>199.6971084426063</v>
       </c>
       <c r="E738">
-        <v>120.6477826975958</v>
+        <v>121.5980137497939</v>
       </c>
       <c r="F738">
-        <v>519.5858376867221</v>
+        <v>277.7962031354188</v>
       </c>
     </row>
     <row r="739" spans="1:6">
@@ -15313,13 +15313,13 @@
         <v>28</v>
       </c>
       <c r="D739">
-        <v>295.7644853022434</v>
+        <v>199.4284139071367</v>
       </c>
       <c r="E739">
-        <v>81.49537477806746</v>
+        <v>113.1380929346462</v>
       </c>
       <c r="F739">
-        <v>510.0335958264193</v>
+        <v>285.7187348796272</v>
       </c>
     </row>
     <row r="740" spans="1:6">
@@ -15333,13 +15333,13 @@
         <v>28</v>
       </c>
       <c r="D740">
-        <v>314.8614958015424</v>
+        <v>199.5849803204487</v>
       </c>
       <c r="E740">
-        <v>88.56701056420548</v>
+        <v>107.1856338171548</v>
       </c>
       <c r="F740">
-        <v>541.1559810388793</v>
+        <v>291.9843268237427</v>
       </c>
     </row>
     <row r="741" spans="1:6">
@@ -15353,13 +15353,13 @@
         <v>28</v>
       </c>
       <c r="D741">
-        <v>291.4919551306059</v>
+        <v>199.4937501741618</v>
       </c>
       <c r="E741">
-        <v>58.17600670898267</v>
+        <v>100.6273964535124</v>
       </c>
       <c r="F741">
-        <v>524.8079035522292</v>
+        <v>298.3601038948111</v>
       </c>
     </row>
     <row r="742" spans="1:6">
@@ -15373,13 +15373,13 @@
         <v>28</v>
       </c>
       <c r="D742">
-        <v>311.3865578979464</v>
+        <v>199.5469093378385</v>
       </c>
       <c r="E742">
-        <v>71.53308727772009</v>
+        <v>95.0208087480444</v>
       </c>
       <c r="F742">
-        <v>551.2400285181727</v>
+        <v>304.0730099276326</v>
       </c>
     </row>
     <row r="743" spans="1:6">
@@ -15393,13 +15393,13 @@
         <v>28</v>
       </c>
       <c r="D743">
-        <v>288.6671196226168</v>
+        <v>199.515933867582</v>
       </c>
       <c r="E743">
-        <v>45.23539547000956</v>
+        <v>89.39574212953207</v>
       </c>
       <c r="F743">
-        <v>532.0988437752242</v>
+        <v>309.6361256056319</v>
       </c>
     </row>
     <row r="744" spans="1:6">
@@ -15413,13 +15413,13 @@
         <v>28</v>
       </c>
       <c r="D744">
-        <v>309.088797941787</v>
+        <v>199.5339830559298</v>
       </c>
       <c r="E744">
-        <v>61.76206856304574</v>
+        <v>84.21625617352221</v>
       </c>
       <c r="F744">
-        <v>556.4155273205282</v>
+        <v>314.8517099383374</v>
       </c>
     </row>
     <row r="745" spans="1:6">
@@ -15433,13 +15433,13 @@
         <v>28</v>
       </c>
       <c r="D745">
-        <v>286.7994941353745</v>
+        <v>199.523465921006</v>
       </c>
       <c r="E745">
-        <v>37.61714019667323</v>
+        <v>79.16246023891925</v>
       </c>
       <c r="F745">
-        <v>535.9818480740757</v>
+        <v>319.8844716030928</v>
       </c>
     </row>
     <row r="746" spans="1:6">
@@ -15873,13 +15873,13 @@
         <v>29</v>
       </c>
       <c r="D767">
-        <v>153.9288048688051</v>
+        <v>161.4270959078605</v>
       </c>
       <c r="E767">
-        <v>106.0678951463736</v>
+        <v>115.6977454327331</v>
       </c>
       <c r="F767">
-        <v>201.7897145912366</v>
+        <v>207.1564463829878</v>
       </c>
     </row>
     <row r="768" spans="1:6">
@@ -15893,13 +15893,13 @@
         <v>29</v>
       </c>
       <c r="D768">
-        <v>144.4731905009683</v>
+        <v>158.0707211375051</v>
       </c>
       <c r="E768">
-        <v>96.49174102413909</v>
+        <v>102.3520325634578</v>
       </c>
       <c r="F768">
-        <v>192.4546399777975</v>
+        <v>213.7894097115523</v>
       </c>
     </row>
     <row r="769" spans="1:6">
@@ -15913,13 +15913,13 @@
         <v>29</v>
       </c>
       <c r="D769">
-        <v>122.2568702451526</v>
+        <v>136.9347337239716</v>
       </c>
       <c r="E769">
-        <v>71.86628293832993</v>
+        <v>71.08169130156909</v>
       </c>
       <c r="F769">
-        <v>172.6474575519753</v>
+        <v>202.7877761463742</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -15933,13 +15933,13 @@
         <v>29</v>
       </c>
       <c r="D770">
-        <v>124.4941638273094</v>
+        <v>163.5277084131225</v>
       </c>
       <c r="E770">
-        <v>71.96012332993787</v>
+        <v>77.84587940048938</v>
       </c>
       <c r="F770">
-        <v>177.0282043246809</v>
+        <v>249.2095374257556</v>
       </c>
     </row>
     <row r="771" spans="1:6">
@@ -15953,13 +15953,13 @@
         <v>29</v>
       </c>
       <c r="D771">
-        <v>172.5699331517621</v>
+        <v>149.7752418350317</v>
       </c>
       <c r="E771">
-        <v>105.8492586757061</v>
+        <v>60.60561578172178</v>
       </c>
       <c r="F771">
-        <v>239.290607627818</v>
+        <v>238.9448678883417</v>
       </c>
     </row>
     <row r="772" spans="1:6">
@@ -15973,13 +15973,13 @@
         <v>29</v>
       </c>
       <c r="D772">
-        <v>165.1765381103586</v>
+        <v>156.4908993096749</v>
       </c>
       <c r="E772">
-        <v>98.5854747629342</v>
+        <v>57.31439497905951</v>
       </c>
       <c r="F772">
-        <v>231.7676014577831</v>
+        <v>255.6674036402904</v>
       </c>
     </row>
     <row r="773" spans="1:6">
@@ -15993,13 +15993,13 @@
         <v>29</v>
       </c>
       <c r="D773">
-        <v>156.8896841825612</v>
+        <v>142.1215962350819</v>
       </c>
       <c r="E773">
-        <v>88.57955426023574</v>
+        <v>36.83128355830146</v>
       </c>
       <c r="F773">
-        <v>225.1998141048866</v>
+        <v>247.4119089118624</v>
       </c>
     </row>
     <row r="774" spans="1:6">
@@ -16013,13 +16013,13 @@
         <v>29</v>
       </c>
       <c r="D774">
-        <v>158.1305837497651</v>
+        <v>159.2240314216214</v>
       </c>
       <c r="E774">
-        <v>89.05302655663155</v>
+        <v>42.62635147748853</v>
       </c>
       <c r="F774">
-        <v>227.2081409428987</v>
+        <v>275.8217113657543</v>
       </c>
     </row>
     <row r="775" spans="1:6">
@@ -16033,13 +16033,13 @@
         <v>29</v>
       </c>
       <c r="D775">
-        <v>175.2187998806853</v>
+        <v>147.7624411757678</v>
       </c>
       <c r="E775">
-        <v>101.7382265422406</v>
+        <v>27.19958954366781</v>
       </c>
       <c r="F775">
-        <v>248.6993732191299</v>
+        <v>268.3252928078678</v>
       </c>
     </row>
     <row r="776" spans="1:6">
@@ -16053,13 +16053,13 @@
         <v>29</v>
       </c>
       <c r="D776">
-        <v>147.8682311873924</v>
+        <v>156.1628707041027</v>
       </c>
       <c r="E776">
-        <v>74.3638572032476</v>
+        <v>27.48806883696662</v>
       </c>
       <c r="F776">
-        <v>221.3726051715373</v>
+        <v>284.8376725712387</v>
       </c>
     </row>
     <row r="777" spans="1:6">
@@ -16493,13 +16493,13 @@
         <v>30</v>
       </c>
       <c r="D798">
-        <v>343.9026275391168</v>
+        <v>307.8799253079009</v>
       </c>
       <c r="E798">
-        <v>221.2427193587963</v>
+        <v>172.8156206453232</v>
       </c>
       <c r="F798">
-        <v>466.5625357194373</v>
+        <v>442.9442299704785</v>
       </c>
     </row>
     <row r="799" spans="1:6">
@@ -16513,13 +16513,13 @@
         <v>30</v>
       </c>
       <c r="D799">
-        <v>245.6285332748446</v>
+        <v>186.6762722497869</v>
       </c>
       <c r="E799">
-        <v>121.9784555248786</v>
+        <v>50.81104127646799</v>
       </c>
       <c r="F799">
-        <v>369.2786110248105</v>
+        <v>322.5415032231059</v>
       </c>
     </row>
     <row r="800" spans="1:6">
@@ -16533,13 +16533,13 @@
         <v>30</v>
       </c>
       <c r="D800">
-        <v>206.0765665695538</v>
+        <v>165.4369488790543</v>
       </c>
       <c r="E800">
-        <v>77.57165892945989</v>
+        <v>-18.0900672039615</v>
       </c>
       <c r="F800">
-        <v>334.5814742096478</v>
+        <v>348.9639649620701</v>
       </c>
     </row>
     <row r="801" spans="1:6">
@@ -16553,13 +16553,13 @@
         <v>30</v>
       </c>
       <c r="D801">
-        <v>165.1144139628932</v>
+        <v>155.4121659598924</v>
       </c>
       <c r="E801">
-        <v>31.76696002252746</v>
+        <v>-71.60287976347033</v>
       </c>
       <c r="F801">
-        <v>298.461867903259</v>
+        <v>382.4272116832551</v>
       </c>
     </row>
     <row r="802" spans="1:6">
@@ -16573,13 +16573,13 @@
         <v>30</v>
       </c>
       <c r="D802">
-        <v>122.9611837515965</v>
+        <v>146.6963107887762</v>
       </c>
       <c r="E802">
-        <v>-15.15343353921935</v>
+        <v>-116.3625871056032</v>
       </c>
       <c r="F802">
-        <v>261.0758010424124</v>
+        <v>409.7552086831556</v>
       </c>
     </row>
     <row r="803" spans="1:6">
@@ -16593,13 +16593,13 @@
         <v>30</v>
       </c>
       <c r="D803">
-        <v>79.84243482780394</v>
+        <v>138.1830037021951</v>
       </c>
       <c r="E803">
-        <v>-62.90725863141731</v>
+        <v>-155.6904419385244</v>
       </c>
       <c r="F803">
-        <v>222.5921282870252</v>
+        <v>432.0564493429146</v>
       </c>
     </row>
     <row r="804" spans="1:6">
@@ -16613,13 +16613,13 @@
         <v>30</v>
       </c>
       <c r="D804">
-        <v>35.98890419844772</v>
+        <v>129.7478964877813</v>
       </c>
       <c r="E804">
-        <v>-111.213446499011</v>
+        <v>-191.1895658349347</v>
       </c>
       <c r="F804">
-        <v>183.1912548959064</v>
+        <v>450.6853588104973</v>
       </c>
     </row>
     <row r="805" spans="1:6">
@@ -16633,13 +16633,13 @@
         <v>30</v>
       </c>
       <c r="D805">
-        <v>-8.36479319911556</v>
+        <v>121.376251752491</v>
       </c>
       <c r="E805">
-        <v>-159.7933045416734</v>
+        <v>-223.7757403539104</v>
       </c>
       <c r="F805">
-        <v>143.0637181434423</v>
+        <v>466.5282438588924</v>
       </c>
     </row>
     <row r="806" spans="1:6">
@@ -16653,13 +16653,13 @@
         <v>30</v>
       </c>
       <c r="D806">
-        <v>-52.981485060357</v>
+        <v>113.0655782585454</v>
       </c>
       <c r="E806">
-        <v>-208.3716815715542</v>
+        <v>-254.0365385033774</v>
       </c>
       <c r="F806">
-        <v>102.4087114508402</v>
+        <v>480.1676950204682</v>
       </c>
     </row>
     <row r="807" spans="1:6">
@@ -16673,13 +16673,13 @@
         <v>30</v>
       </c>
       <c r="D807">
-        <v>-97.62277522427375</v>
+        <v>104.8147645631731</v>
       </c>
       <c r="E807">
-        <v>-256.6781434209932</v>
+        <v>-282.3779510899255</v>
       </c>
       <c r="F807">
-        <v>61.43259297244568</v>
+        <v>492.0074802162717</v>
       </c>
     </row>
     <row r="808" spans="1:6">
@@ -17113,13 +17113,13 @@
         <v>31</v>
       </c>
       <c r="D829">
-        <v>125.9897692212088</v>
+        <v>133.1671751122375</v>
       </c>
       <c r="E829">
-        <v>84.01188870939069</v>
+        <v>103.3412444355765</v>
       </c>
       <c r="F829">
-        <v>167.9676497330268</v>
+        <v>162.9931057888985</v>
       </c>
     </row>
     <row r="830" spans="1:6">
@@ -17133,13 +17133,13 @@
         <v>31</v>
       </c>
       <c r="D830">
-        <v>128.461406144802</v>
+        <v>132.5541465041362</v>
       </c>
       <c r="E830">
-        <v>86.52255827457961</v>
+        <v>100.7129658013364</v>
       </c>
       <c r="F830">
-        <v>170.4002540150243</v>
+        <v>164.3953272069361</v>
       </c>
     </row>
     <row r="831" spans="1:6">
@@ -17153,13 +17153,13 @@
         <v>31</v>
       </c>
       <c r="D831">
-        <v>122.3358876306885</v>
+        <v>147.7093787692664</v>
       </c>
       <c r="E831">
-        <v>75.43856447018538</v>
+        <v>106.2114585542404</v>
       </c>
       <c r="F831">
-        <v>169.2332107911917</v>
+        <v>189.2072989842924</v>
       </c>
     </row>
     <row r="832" spans="1:6">
@@ -17173,13 +17173,13 @@
         <v>31</v>
       </c>
       <c r="D832">
-        <v>122.3519323261006</v>
+        <v>119.3330307883196</v>
       </c>
       <c r="E832">
-        <v>64.00018166728265</v>
+        <v>68.53798966474096</v>
       </c>
       <c r="F832">
-        <v>180.7036829849185</v>
+        <v>170.1280719118983</v>
       </c>
     </row>
     <row r="833" spans="1:6">
@@ -17193,13 +17193,13 @@
         <v>31</v>
       </c>
       <c r="D833">
-        <v>122.3800610103572</v>
+        <v>135.4627555731616</v>
       </c>
       <c r="E833">
-        <v>54.67771701633096</v>
+        <v>83.16786124938554</v>
       </c>
       <c r="F833">
-        <v>190.0824050043834</v>
+        <v>187.7576498969376</v>
       </c>
     </row>
     <row r="834" spans="1:6">
@@ -17213,13 +17213,13 @@
         <v>31</v>
       </c>
       <c r="D834">
-        <v>122.4201381713965</v>
+        <v>130.4900405155724</v>
       </c>
       <c r="E834">
-        <v>46.68375121821931</v>
+        <v>76.31571163104043</v>
       </c>
       <c r="F834">
-        <v>198.1565251245736</v>
+        <v>184.6643694001044</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -17233,13 +17233,13 @@
         <v>31</v>
       </c>
       <c r="D835">
-        <v>122.4720298168138</v>
+        <v>145.7283691289975</v>
       </c>
       <c r="E835">
-        <v>39.63066413860608</v>
+        <v>86.31956117625882</v>
       </c>
       <c r="F835">
-        <v>205.3133954950215</v>
+        <v>205.1371770817362</v>
       </c>
     </row>
     <row r="836" spans="1:6">
@@ -17253,13 +17253,13 @@
         <v>31</v>
       </c>
       <c r="D836">
-        <v>122.5356034568197</v>
+        <v>121.1312444993518</v>
       </c>
       <c r="E836">
-        <v>33.29292719740354</v>
+        <v>55.92057248797101</v>
       </c>
       <c r="F836">
-        <v>211.7782797162359</v>
+        <v>186.3419165107327</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -17273,13 +17273,13 @@
         <v>31</v>
       </c>
       <c r="D837">
-        <v>122.6107280873895</v>
+        <v>137.0684443174858</v>
       </c>
       <c r="E837">
-        <v>27.52523535707928</v>
+        <v>70.30079426544457</v>
       </c>
       <c r="F837">
-        <v>217.6962208176997</v>
+        <v>203.836094369527</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -17293,13 +17293,13 @@
         <v>31</v>
       </c>
       <c r="D838">
-        <v>122.6972741736016</v>
+        <v>129.0366849203203</v>
       </c>
       <c r="E838">
-        <v>22.22724492357763</v>
+        <v>60.33516760591857</v>
       </c>
       <c r="F838">
-        <v>223.1673034236256</v>
+        <v>197.7382022347221</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -17733,13 +17733,13 @@
         <v>32</v>
       </c>
       <c r="D860">
-        <v>103.5496089103752</v>
+        <v>95.23517217047282</v>
       </c>
       <c r="E860">
-        <v>74.70818282588155</v>
+        <v>68.76853620115277</v>
       </c>
       <c r="F860">
-        <v>132.3910349948689</v>
+        <v>121.7018081397929</v>
       </c>
     </row>
     <row r="861" spans="1:6">
@@ -17753,13 +17753,13 @@
         <v>32</v>
       </c>
       <c r="D861">
-        <v>88.83859423851183</v>
+        <v>98.10270699789105</v>
       </c>
       <c r="E861">
-        <v>58.87971120392369</v>
+        <v>71.24582957033718</v>
       </c>
       <c r="F861">
-        <v>118.7974772731</v>
+        <v>124.9595844254449</v>
       </c>
     </row>
     <row r="862" spans="1:6">
@@ -17773,13 +17773,13 @@
         <v>32</v>
       </c>
       <c r="D862">
-        <v>86.51460608174501</v>
+        <v>93.26320232442463</v>
       </c>
       <c r="E862">
-        <v>55.86053947700176</v>
+        <v>65.59333216247353</v>
       </c>
       <c r="F862">
-        <v>117.1686726864883</v>
+        <v>120.9330724863757</v>
       </c>
     </row>
     <row r="863" spans="1:6">
@@ -17793,13 +17793,13 @@
         <v>32</v>
       </c>
       <c r="D863">
-        <v>96.65037909825068</v>
+        <v>95.1518001154588</v>
       </c>
       <c r="E863">
-        <v>65.63889996438674</v>
+        <v>67.40883067030016</v>
       </c>
       <c r="F863">
-        <v>127.6618582321146</v>
+        <v>122.8947695606174</v>
       </c>
     </row>
     <row r="864" spans="1:6">
@@ -17813,13 +17813,13 @@
         <v>32</v>
       </c>
       <c r="D864">
-        <v>89.5330725393282</v>
+        <v>95.01810323743</v>
       </c>
       <c r="E864">
-        <v>58.41805584914582</v>
+        <v>67.14021056213208</v>
       </c>
       <c r="F864">
-        <v>120.6480892295106</v>
+        <v>122.8959959127279</v>
       </c>
     </row>
     <row r="865" spans="1:6">
@@ -17833,13 +17833,13 @@
         <v>32</v>
       </c>
       <c r="D865">
-        <v>92.39332022826518</v>
+        <v>93.79798912875619</v>
       </c>
       <c r="E865">
-        <v>61.12103373412891</v>
+        <v>65.889688845115</v>
       </c>
       <c r="F865">
-        <v>123.6656067224014</v>
+        <v>121.7062894123974</v>
       </c>
     </row>
     <row r="866" spans="1:6">
@@ -17853,13 +17853,13 @@
         <v>32</v>
       </c>
       <c r="D866">
-        <v>93.25689632105652</v>
+        <v>94.58916582959922</v>
       </c>
       <c r="E866">
-        <v>61.98460967843961</v>
+        <v>66.67686093445386</v>
       </c>
       <c r="F866">
-        <v>124.5291829636734</v>
+        <v>122.5014707247446</v>
       </c>
     </row>
     <row r="867" spans="1:6">
@@ -17873,13 +17873,13 @@
         <v>32</v>
       </c>
       <c r="D867">
-        <v>91.53105989771885</v>
+        <v>94.23082451985935</v>
       </c>
       <c r="E867">
-        <v>60.25799461093483</v>
+        <v>66.2957414253512</v>
       </c>
       <c r="F867">
-        <v>122.8041251845029</v>
+        <v>122.1659076143675</v>
       </c>
     </row>
     <row r="868" spans="1:6">
@@ -17893,13 +17893,13 @@
         <v>32</v>
       </c>
       <c r="D868">
-        <v>92.90619835930278</v>
+        <v>94.02659387541554</v>
       </c>
       <c r="E868">
-        <v>61.62021171219658</v>
+        <v>66.09117495867957</v>
       </c>
       <c r="F868">
-        <v>124.192185006409</v>
+        <v>121.9620127921515</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -17913,13 +17913,13 @@
         <v>32</v>
       </c>
       <c r="D869">
-        <v>92.49825494934223</v>
+        <v>94.25965983701647</v>
       </c>
       <c r="E869">
-        <v>61.21097829416036</v>
+        <v>66.32423854281096</v>
       </c>
       <c r="F869">
-        <v>123.7855316045241</v>
+        <v>122.195081131222</v>
       </c>
     </row>
     <row r="870" spans="1:6">
@@ -18353,13 +18353,13 @@
         <v>33</v>
       </c>
       <c r="D891">
-        <v>607.828605332954</v>
+        <v>746.8373096437922</v>
       </c>
       <c r="E891">
-        <v>509.038585491122</v>
+        <v>659.3622812287805</v>
       </c>
       <c r="F891">
-        <v>706.618625174786</v>
+        <v>834.3123380588039</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -18373,13 +18373,13 @@
         <v>33</v>
       </c>
       <c r="D892">
-        <v>569.1101669571578</v>
+        <v>715.3117340200615</v>
       </c>
       <c r="E892">
-        <v>457.6167058476734</v>
+        <v>621.950973191095</v>
       </c>
       <c r="F892">
-        <v>680.6036280666424</v>
+        <v>808.672494849028</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -18393,13 +18393,13 @@
         <v>33</v>
       </c>
       <c r="D893">
-        <v>660.9688327505698</v>
+        <v>713.9339036101029</v>
       </c>
       <c r="E893">
-        <v>536.6756763711364</v>
+        <v>620.5672086302505</v>
       </c>
       <c r="F893">
-        <v>785.2619891300033</v>
+        <v>807.3005985899553</v>
       </c>
     </row>
     <row r="894" spans="1:6">
@@ -18413,13 +18413,13 @@
         <v>33</v>
       </c>
       <c r="D894">
-        <v>561.229130232731</v>
+        <v>696.5238058924366</v>
       </c>
       <c r="E894">
-        <v>436.0143443353225</v>
+        <v>587.8168335240526</v>
       </c>
       <c r="F894">
-        <v>686.4439161301395</v>
+        <v>805.2307782608206</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -18433,13 +18433,13 @@
         <v>33</v>
       </c>
       <c r="D895">
-        <v>692.8249446460545</v>
+        <v>707.0517277486658</v>
       </c>
       <c r="E895">
-        <v>554.2512478028177</v>
+        <v>595.5963991577231</v>
       </c>
       <c r="F895">
-        <v>831.3986414892913</v>
+        <v>818.5070563396085</v>
       </c>
     </row>
     <row r="896" spans="1:6">
@@ -18453,13 +18453,13 @@
         <v>33</v>
       </c>
       <c r="D896">
-        <v>607.8749084514939</v>
+        <v>686.2965353478423</v>
       </c>
       <c r="E896">
-        <v>468.6851293118926</v>
+        <v>566.7414971494853</v>
       </c>
       <c r="F896">
-        <v>747.0646875910951</v>
+        <v>805.8515735461993</v>
       </c>
     </row>
     <row r="897" spans="1:6">
@@ -18473,13 +18473,13 @@
         <v>33</v>
       </c>
       <c r="D897">
-        <v>620.6766656896209</v>
+        <v>685.9775609123436</v>
       </c>
       <c r="E897">
-        <v>480.4830390702554</v>
+        <v>565.9906905907258</v>
       </c>
       <c r="F897">
-        <v>760.8702923089863</v>
+        <v>805.9644312339615</v>
       </c>
     </row>
     <row r="898" spans="1:6">
@@ -18493,13 +18493,13 @@
         <v>33</v>
       </c>
       <c r="D898">
-        <v>489.7736809694171</v>
+        <v>667.2395544789084</v>
       </c>
       <c r="E898">
-        <v>349.0435528548933</v>
+        <v>539.2300757365661</v>
       </c>
       <c r="F898">
-        <v>630.5038090839407</v>
+        <v>795.2490332212508</v>
       </c>
     </row>
     <row r="899" spans="1:6">
@@ -18513,13 +18513,13 @@
         <v>33</v>
       </c>
       <c r="D899">
-        <v>572.9752491587021</v>
+        <v>671.8853846178508</v>
       </c>
       <c r="E899">
-        <v>417.5482739583161</v>
+        <v>541.920548278028</v>
       </c>
       <c r="F899">
-        <v>728.4022243590881</v>
+        <v>801.8502209576736</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -18533,13 +18533,13 @@
         <v>33</v>
       </c>
       <c r="D900">
-        <v>478.3276847725798</v>
+        <v>655.2320432667939</v>
       </c>
       <c r="E900">
-        <v>322.0385732074255</v>
+        <v>518.0623631164228</v>
       </c>
       <c r="F900">
-        <v>634.6167963377341</v>
+        <v>792.4017234171649</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -18973,13 +18973,13 @@
         <v>34</v>
       </c>
       <c r="D922">
-        <v>1069.899344201921</v>
+        <v>1065.459922740931</v>
       </c>
       <c r="E922">
-        <v>879.522608289343</v>
+        <v>884.0101659823612</v>
       </c>
       <c r="F922">
-        <v>1260.276080114498</v>
+        <v>1246.9096794995</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -18993,13 +18993,13 @@
         <v>34</v>
       </c>
       <c r="D923">
-        <v>871.7368455428099</v>
+        <v>792.4696395412998</v>
       </c>
       <c r="E923">
-        <v>680.1813152601264</v>
+        <v>603.45849692005</v>
       </c>
       <c r="F923">
-        <v>1063.292375825493</v>
+        <v>981.4807821625495</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -19013,13 +19013,13 @@
         <v>34</v>
       </c>
       <c r="D924">
-        <v>879.3134071976651</v>
+        <v>822.3068287807819</v>
       </c>
       <c r="E924">
-        <v>671.4067076262418</v>
+        <v>582.4350678497678</v>
       </c>
       <c r="F924">
-        <v>1087.220106769088</v>
+        <v>1062.178589711796</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -19033,13 +19033,13 @@
         <v>34</v>
       </c>
       <c r="D925">
-        <v>667.9379405106358</v>
+        <v>581.6536593184641</v>
       </c>
       <c r="E925">
-        <v>457.4550952109798</v>
+        <v>276.1472664758652</v>
       </c>
       <c r="F925">
-        <v>878.4207858102918</v>
+        <v>887.1600521610629</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -19053,13 +19053,13 @@
         <v>34</v>
       </c>
       <c r="D926">
-        <v>766.9850998578517</v>
+        <v>624.5227027796943</v>
       </c>
       <c r="E926">
-        <v>520.7306510925803</v>
+        <v>226.0994450584415</v>
       </c>
       <c r="F926">
-        <v>1013.239548623123</v>
+        <v>1022.945960500947</v>
       </c>
     </row>
     <row r="927" spans="1:6">
@@ -19073,13 +19073,13 @@
         <v>34</v>
       </c>
       <c r="D927">
-        <v>580.0793061736579</v>
+        <v>397.5720074918045</v>
       </c>
       <c r="E927">
-        <v>334.4186832384746</v>
+        <v>-95.26343539689981</v>
       </c>
       <c r="F927">
-        <v>825.7399291088411</v>
+        <v>890.4074503805087</v>
       </c>
     </row>
     <row r="928" spans="1:6">
@@ -19093,13 +19093,13 @@
         <v>34</v>
       </c>
       <c r="D928">
-        <v>615.678198857815</v>
+        <v>452.762969133677</v>
       </c>
       <c r="E928">
-        <v>350.344624545661</v>
+        <v>-150.6062296755666</v>
       </c>
       <c r="F928">
-        <v>881.011773169969</v>
+        <v>1056.132167942921</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -19113,13 +19113,13 @@
         <v>34</v>
       </c>
       <c r="D929">
-        <v>472.3766875535398</v>
+        <v>237.2185990632096</v>
       </c>
       <c r="E929">
-        <v>205.4650284886303</v>
+        <v>-473.1070027427662</v>
       </c>
       <c r="F929">
-        <v>739.2883466184494</v>
+        <v>947.5442008691854</v>
       </c>
     </row>
     <row r="930" spans="1:6">
@@ -19133,13 +19133,13 @@
         <v>34</v>
       </c>
       <c r="D930">
-        <v>541.5818576309322</v>
+        <v>302.7897791711217</v>
       </c>
       <c r="E930">
-        <v>257.3540157819418</v>
+        <v>-525.4035433047965</v>
       </c>
       <c r="F930">
-        <v>825.8096994799225</v>
+        <v>1130.98310164704</v>
       </c>
     </row>
     <row r="931" spans="1:6">
@@ -19153,13 +19153,13 @@
         <v>34</v>
       </c>
       <c r="D931">
-        <v>411.0722537790718</v>
+        <v>96.85356522286611</v>
       </c>
       <c r="E931">
-        <v>127.2548182749919</v>
+        <v>-843.8884645585555</v>
       </c>
       <c r="F931">
-        <v>694.8896892831517</v>
+        <v>1037.595595004288</v>
       </c>
     </row>
     <row r="932" spans="1:6">
@@ -19593,13 +19593,13 @@
         <v>35</v>
       </c>
       <c r="D953">
-        <v>350.0248638538175</v>
+        <v>401.0482967461475</v>
       </c>
       <c r="E953">
-        <v>253.2246677117098</v>
+        <v>316.206396654528</v>
       </c>
       <c r="F953">
-        <v>446.8250599959251</v>
+        <v>485.8901968377669</v>
       </c>
     </row>
     <row r="954" spans="1:6">
@@ -19613,13 +19613,13 @@
         <v>35</v>
       </c>
       <c r="D954">
-        <v>324.1681424389663</v>
+        <v>379.3325830367971</v>
       </c>
       <c r="E954">
-        <v>197.622663364638</v>
+        <v>293.5848150150966</v>
       </c>
       <c r="F954">
-        <v>450.7136215132946</v>
+        <v>465.0803510584977</v>
       </c>
     </row>
     <row r="955" spans="1:6">
@@ -19633,13 +19633,13 @@
         <v>35</v>
       </c>
       <c r="D955">
-        <v>347.8684793055088</v>
+        <v>357.1774579725567</v>
       </c>
       <c r="E955">
-        <v>205.300482451121</v>
+        <v>270.0311154348987</v>
       </c>
       <c r="F955">
-        <v>490.4364761598966</v>
+        <v>444.3238005102148</v>
       </c>
     </row>
     <row r="956" spans="1:6">
@@ -19653,13 +19653,13 @@
         <v>35</v>
       </c>
       <c r="D956">
-        <v>302.0243427754033</v>
+        <v>334.6976704485238</v>
       </c>
       <c r="E956">
-        <v>146.7558397998157</v>
+        <v>245.6202865717692</v>
       </c>
       <c r="F956">
-        <v>457.292845750991</v>
+        <v>423.7750543252783</v>
       </c>
     </row>
     <row r="957" spans="1:6">
@@ -19673,13 +19673,13 @@
         <v>35</v>
       </c>
       <c r="D957">
-        <v>325.7272742275571</v>
+        <v>312.0089056713181</v>
       </c>
       <c r="E957">
-        <v>157.2202774897203</v>
+        <v>220.4483405790963</v>
       </c>
       <c r="F957">
-        <v>494.2342709653939</v>
+        <v>403.5694707635398</v>
       </c>
     </row>
     <row r="958" spans="1:6">
@@ -19693,13 +19693,13 @@
         <v>35</v>
       </c>
       <c r="D958">
-        <v>279.8859423631812</v>
+        <v>289.2273778059671</v>
       </c>
       <c r="E958">
-        <v>100.572344116535</v>
+        <v>194.6316585269915</v>
       </c>
       <c r="F958">
-        <v>459.1995406098274</v>
+        <v>383.8230970849427</v>
       </c>
     </row>
     <row r="959" spans="1:6">
@@ -19713,13 +19713,13 @@
         <v>35</v>
       </c>
       <c r="D959">
-        <v>303.5914601291267</v>
+        <v>266.4694214857884</v>
       </c>
       <c r="E959">
-        <v>112.7662917435046</v>
+        <v>168.3046192831427</v>
       </c>
       <c r="F959">
-        <v>494.4166285147488</v>
+        <v>364.634223688434</v>
       </c>
     </row>
     <row r="960" spans="1:6">
@@ -19733,13 +19733,13 @@
         <v>35</v>
       </c>
       <c r="D960">
-        <v>257.7529246706742</v>
+        <v>243.8510836198299</v>
       </c>
       <c r="E960">
-        <v>57.38018107938916</v>
+        <v>141.6160115457355</v>
       </c>
       <c r="F960">
-        <v>458.1256682619593</v>
+        <v>346.0861556939243</v>
       </c>
     </row>
     <row r="961" spans="1:6">
@@ -19753,13 +19753,13 @@
         <v>35</v>
       </c>
       <c r="D961">
-        <v>281.4610205039197</v>
+        <v>221.4877169288567</v>
       </c>
       <c r="E961">
-        <v>70.7839068607388</v>
+        <v>114.7248872124537</v>
       </c>
       <c r="F961">
-        <v>492.1381341471006</v>
+        <v>328.2505466452598</v>
       </c>
     </row>
     <row r="962" spans="1:6">
@@ -19773,13 +19773,13 @@
         <v>35</v>
       </c>
       <c r="D962">
-        <v>235.6252732168742</v>
+        <v>199.4935766322867</v>
       </c>
       <c r="E962">
-        <v>16.31677283207776</v>
+        <v>87.79646082833871</v>
       </c>
       <c r="F962">
-        <v>454.9337736016706</v>
+        <v>311.1906924362347</v>
       </c>
     </row>
     <row r="963" spans="1:6">
@@ -20213,13 +20213,13 @@
         <v>36</v>
       </c>
       <c r="D984">
-        <v>418.955745964456</v>
+        <v>399.0644434248356</v>
       </c>
       <c r="E984">
-        <v>347.2651110500044</v>
+        <v>286.7436287250949</v>
       </c>
       <c r="F984">
-        <v>490.6463808789076</v>
+        <v>511.3852581245762</v>
       </c>
     </row>
     <row r="985" spans="1:6">
@@ -20233,13 +20233,13 @@
         <v>36</v>
       </c>
       <c r="D985">
-        <v>378.0625787751025</v>
+        <v>365.7667774892235</v>
       </c>
       <c r="E985">
-        <v>276.6010478373987</v>
+        <v>252.030323219761</v>
       </c>
       <c r="F985">
-        <v>479.5241097128062</v>
+        <v>479.503231758686</v>
       </c>
     </row>
     <row r="986" spans="1:6">
@@ -20253,13 +20253,13 @@
         <v>36</v>
       </c>
       <c r="D986">
-        <v>391.8661873828224</v>
+        <v>391.4200100067086</v>
       </c>
       <c r="E986">
-        <v>269.2489637327724</v>
+        <v>265.506836271885</v>
       </c>
       <c r="F986">
-        <v>514.4834110328724</v>
+        <v>517.3331837415321</v>
       </c>
     </row>
     <row r="987" spans="1:6">
@@ -20273,13 +20273,13 @@
         <v>36</v>
       </c>
       <c r="D987">
-        <v>324.8890253752966</v>
+        <v>378.5115183251298</v>
       </c>
       <c r="E987">
-        <v>187.3486294876099</v>
+        <v>251.3648213897377</v>
       </c>
       <c r="F987">
-        <v>462.4294212629833</v>
+        <v>505.6582152605218</v>
       </c>
     </row>
     <row r="988" spans="1:6">
@@ -20293,13 +20293,13 @@
         <v>36</v>
       </c>
       <c r="D988">
-        <v>420.481429157112</v>
+        <v>385.7649535949994</v>
       </c>
       <c r="E988">
-        <v>265.2505064256659</v>
+        <v>255.4023515226592</v>
       </c>
       <c r="F988">
-        <v>575.712351888558</v>
+        <v>516.1275556673395</v>
       </c>
     </row>
     <row r="989" spans="1:6">
@@ -20313,13 +20313,13 @@
         <v>36</v>
       </c>
       <c r="D989">
-        <v>377.1334708824749</v>
+        <v>379.1931609882658</v>
       </c>
       <c r="E989">
-        <v>206.1526407675962</v>
+        <v>248.0950803301895</v>
       </c>
       <c r="F989">
-        <v>548.1143009973534</v>
+        <v>510.2912416463422</v>
       </c>
     </row>
     <row r="990" spans="1:6">
@@ -20333,13 +20333,13 @@
         <v>36</v>
       </c>
       <c r="D990">
-        <v>390.3668418759903</v>
+        <v>379.4369313948296</v>
       </c>
       <c r="E990">
-        <v>206.1449120797463</v>
+        <v>247.2498168138446</v>
       </c>
       <c r="F990">
-        <v>574.5887716722343</v>
+        <v>511.6240459758145</v>
       </c>
     </row>
     <row r="991" spans="1:6">
@@ -20353,13 +20353,13 @@
         <v>36</v>
       </c>
       <c r="D991">
-        <v>325.864502515508</v>
+        <v>374.672124324289</v>
       </c>
       <c r="E991">
-        <v>131.3495249700313</v>
+        <v>242.0899367009451</v>
       </c>
       <c r="F991">
-        <v>520.3794800609847</v>
+        <v>507.2543119476329</v>
       </c>
     </row>
     <row r="992" spans="1:6">
@@ -20373,13 +20373,13 @@
         <v>36</v>
       </c>
       <c r="D992">
-        <v>421.9459801633054</v>
+        <v>372.1691204113039</v>
       </c>
       <c r="E992">
-        <v>214.4506978479577</v>
+        <v>239.1506870724834</v>
       </c>
       <c r="F992">
-        <v>629.4412624786531</v>
+        <v>505.1875537501244</v>
       </c>
     </row>
     <row r="993" spans="1:6">
@@ -20393,13 +20393,13 @@
         <v>36</v>
       </c>
       <c r="D993">
-        <v>376.1198560688812</v>
+        <v>367.8255460191306</v>
       </c>
       <c r="E993">
-        <v>156.6370993631597</v>
+        <v>234.6006618591535</v>
       </c>
       <c r="F993">
-        <v>595.6026127746028</v>
+        <v>501.0504301791076</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -20833,13 +20833,13 @@
         <v>37</v>
       </c>
       <c r="D1015">
-        <v>644.048602891276</v>
+        <v>801.4442171489641</v>
       </c>
       <c r="E1015">
-        <v>474.2313735548514</v>
+        <v>518.364011549322</v>
       </c>
       <c r="F1015">
-        <v>813.8658322277006</v>
+        <v>1084.524422748606</v>
       </c>
     </row>
     <row r="1016" spans="1:6">
@@ -20853,13 +20853,13 @@
         <v>37</v>
       </c>
       <c r="D1016">
-        <v>574.0297688010579</v>
+        <v>803.2550872774589</v>
       </c>
       <c r="E1016">
-        <v>339.7571042604057</v>
+        <v>458.2160601075016</v>
       </c>
       <c r="F1016">
-        <v>808.3024333417102</v>
+        <v>1148.294114447416</v>
       </c>
     </row>
     <row r="1017" spans="1:6">
@@ -20873,13 +20873,13 @@
         <v>37</v>
       </c>
       <c r="D1017">
-        <v>644.0188467411701</v>
+        <v>805.1243716432094</v>
       </c>
       <c r="E1017">
-        <v>354.6741056096571</v>
+        <v>408.611334459201</v>
       </c>
       <c r="F1017">
-        <v>933.3635878726832</v>
+        <v>1201.637408827218</v>
       </c>
     </row>
     <row r="1018" spans="1:6">
@@ -20893,13 +20893,13 @@
         <v>37</v>
       </c>
       <c r="D1018">
-        <v>574.059512305588</v>
+        <v>807.0515070149484</v>
       </c>
       <c r="E1018">
-        <v>242.7479545251245</v>
+        <v>365.8477998905262</v>
       </c>
       <c r="F1018">
-        <v>905.3710700860515</v>
+        <v>1248.255214139371</v>
       </c>
     </row>
     <row r="1019" spans="1:6">
@@ -20913,13 +20913,13 @@
         <v>37</v>
       </c>
       <c r="D1019">
-        <v>643.9891158768418</v>
+        <v>809.0359355920955</v>
       </c>
       <c r="E1019">
-        <v>271.6950738905546</v>
+        <v>328.0158154418005</v>
       </c>
       <c r="F1019">
-        <v>1016.283157863129</v>
+        <v>1290.056055742391</v>
       </c>
     </row>
     <row r="1020" spans="1:6">
@@ -20933,13 +20933,13 @@
         <v>37</v>
       </c>
       <c r="D1020">
-        <v>574.0892305350865</v>
+        <v>811.0771049523951</v>
       </c>
       <c r="E1020">
-        <v>168.3171258656954</v>
+        <v>293.9742994660683</v>
       </c>
       <c r="F1020">
-        <v>979.8613352044775</v>
+        <v>1328.179910438722</v>
       </c>
     </row>
     <row r="1021" spans="1:6">
@@ -20953,13 +20953,13 @@
         <v>37</v>
       </c>
       <c r="D1021">
-        <v>643.9594102768039</v>
+        <v>813.1744680000581</v>
       </c>
       <c r="E1021">
-        <v>204.0897536321291</v>
+        <v>262.9753210705398</v>
       </c>
       <c r="F1021">
-        <v>1083.829066921478</v>
+        <v>1363.373614929576</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -20973,13 +20973,13 @@
         <v>37</v>
       </c>
       <c r="D1022">
-        <v>574.1189235110312</v>
+        <v>815.3274829144045</v>
       </c>
       <c r="E1022">
-        <v>105.5736864189527</v>
+        <v>234.4961909551753</v>
       </c>
       <c r="F1022">
-        <v>1042.66416060311</v>
+        <v>1396.158774873634</v>
       </c>
     </row>
     <row r="1023" spans="1:6">
@@ -20993,13 +20993,13 @@
         <v>37</v>
       </c>
       <c r="D1023">
-        <v>643.9297299195877</v>
+        <v>817.535613099</v>
       </c>
       <c r="E1023">
-        <v>145.5646401929878</v>
+        <v>208.1539704416168</v>
       </c>
       <c r="F1023">
-        <v>1142.294819646188</v>
+        <v>1426.917255756383</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -21013,13 +21013,13 @@
         <v>37</v>
       </c>
       <c r="D1024">
-        <v>574.1485912548818</v>
+        <v>819.7983271312842</v>
       </c>
       <c r="E1024">
-        <v>50.29912512517683</v>
+        <v>183.65773627585</v>
       </c>
       <c r="F1024">
-        <v>1097.998057384587</v>
+        <v>1455.938917986718</v>
       </c>
     </row>
     <row r="1025" spans="1:6">
@@ -21453,13 +21453,13 @@
         <v>38</v>
       </c>
       <c r="D1046">
-        <v>38.40088548879572</v>
+        <v>51.63679070919777</v>
       </c>
       <c r="E1046">
-        <v>19.63517542078272</v>
+        <v>31.47193220961378</v>
       </c>
       <c r="F1046">
-        <v>57.16659555680872</v>
+        <v>71.80164920878175</v>
       </c>
     </row>
     <row r="1047" spans="1:6">
@@ -21473,13 +21473,13 @@
         <v>38</v>
       </c>
       <c r="D1047">
-        <v>24.9471682410928</v>
+        <v>36.64457616978514</v>
       </c>
       <c r="E1047">
-        <v>6.20479104985785</v>
+        <v>12.56662776164107</v>
       </c>
       <c r="F1047">
-        <v>43.68954543232776</v>
+        <v>60.72252457792921</v>
       </c>
     </row>
     <row r="1048" spans="1:6">
@@ -21493,13 +21493,13 @@
         <v>38</v>
       </c>
       <c r="D1048">
-        <v>33.67996510275131</v>
+        <v>46.72661158290834</v>
       </c>
       <c r="E1048">
-        <v>12.60260160098737</v>
+        <v>21.58961029063884</v>
       </c>
       <c r="F1048">
-        <v>54.75732860451525</v>
+        <v>71.86361287517784</v>
       </c>
     </row>
     <row r="1049" spans="1:6">
@@ -21513,13 +21513,13 @@
         <v>38</v>
       </c>
       <c r="D1049">
-        <v>24.01378169812636</v>
+        <v>39.63858704739645</v>
       </c>
       <c r="E1049">
-        <v>2.972472950631609</v>
+        <v>11.39791008391549</v>
       </c>
       <c r="F1049">
-        <v>45.05509044562112</v>
+        <v>67.87926401087741</v>
       </c>
     </row>
     <row r="1050" spans="1:6">
@@ -21533,13 +21533,13 @@
         <v>38</v>
       </c>
       <c r="D1050">
-        <v>26.67996679277979</v>
+        <v>53.8755256056148</v>
       </c>
       <c r="E1050">
-        <v>2.951581827465329</v>
+        <v>23.85083797340774</v>
       </c>
       <c r="F1050">
-        <v>50.40835175809424</v>
+        <v>83.90021323782187</v>
       </c>
     </row>
     <row r="1051" spans="1:6">
@@ -21553,13 +21553,13 @@
         <v>38</v>
       </c>
       <c r="D1051">
-        <v>20.26648182067539</v>
+        <v>42.28473859658386</v>
       </c>
       <c r="E1051">
-        <v>-3.752997831542384</v>
+        <v>9.652801840981404</v>
       </c>
       <c r="F1051">
-        <v>44.28596147289316</v>
+        <v>74.91667535218633</v>
       </c>
     </row>
     <row r="1052" spans="1:6">
@@ -21573,13 +21573,13 @@
         <v>38</v>
       </c>
       <c r="D1052">
-        <v>22.43653064463696</v>
+        <v>48.74694439415841</v>
       </c>
       <c r="E1052">
-        <v>-2.923888483082411</v>
+        <v>14.92988228546482</v>
       </c>
       <c r="F1052">
-        <v>47.79694977235633</v>
+        <v>82.56400650285201</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -21593,13 +21593,13 @@
         <v>38</v>
       </c>
       <c r="D1053">
-        <v>19.52216069555174</v>
+        <v>35.76455690829734</v>
       </c>
       <c r="E1053">
-        <v>-5.949283369708017</v>
+        <v>0.2643781469690154</v>
       </c>
       <c r="F1053">
-        <v>44.99360476081149</v>
+        <v>71.26473566962568</v>
       </c>
     </row>
     <row r="1054" spans="1:6">
@@ -21613,13 +21613,13 @@
         <v>38</v>
       </c>
       <c r="D1054">
-        <v>20.48450736962889</v>
+        <v>48.68691624322402</v>
       </c>
       <c r="E1054">
-        <v>-5.731256609997683</v>
+        <v>12.02328636823055</v>
       </c>
       <c r="F1054">
-        <v>46.70027134925547</v>
+        <v>85.35054611821749</v>
       </c>
     </row>
     <row r="1055" spans="1:6">
@@ -21633,13 +21633,13 @@
         <v>38</v>
       </c>
       <c r="D1055">
-        <v>18.94037537328056</v>
+        <v>42.28897413782207</v>
       </c>
       <c r="E1055">
-        <v>-7.5581010864775</v>
+        <v>3.468324515757125</v>
       </c>
       <c r="F1055">
-        <v>45.43885183303862</v>
+        <v>81.10962375988703</v>
       </c>
     </row>
     <row r="1056" spans="1:6">
@@ -22073,13 +22073,13 @@
         <v>39</v>
       </c>
       <c r="D1077">
-        <v>436.7430992248441</v>
+        <v>477.9538845842234</v>
       </c>
       <c r="E1077">
-        <v>326.6043894238786</v>
+        <v>343.5408856885985</v>
       </c>
       <c r="F1077">
-        <v>546.8818090258096</v>
+        <v>612.3668834798484</v>
       </c>
     </row>
     <row r="1078" spans="1:6">
@@ -22093,13 +22093,13 @@
         <v>39</v>
       </c>
       <c r="D1078">
-        <v>388.3374222859213</v>
+        <v>474.4066525974324</v>
       </c>
       <c r="E1078">
-        <v>271.7121018276132</v>
+        <v>321.162746217495</v>
       </c>
       <c r="F1078">
-        <v>504.9627427442293</v>
+        <v>627.6505589773697</v>
       </c>
     </row>
     <row r="1079" spans="1:6">
@@ -22113,13 +22113,13 @@
         <v>39</v>
       </c>
       <c r="D1079">
-        <v>365.0534447816411</v>
+        <v>470.121739605265</v>
       </c>
       <c r="E1079">
-        <v>223.842510102978</v>
+        <v>301.5559847307535</v>
       </c>
       <c r="F1079">
-        <v>506.2643794603043</v>
+        <v>638.6874944797765</v>
       </c>
     </row>
     <row r="1080" spans="1:6">
@@ -22133,13 +22133,13 @@
         <v>39</v>
       </c>
       <c r="D1080">
-        <v>292.175780943949</v>
+        <v>464.7546322664849</v>
       </c>
       <c r="E1080">
-        <v>131.5848813665551</v>
+        <v>283.5317129455682</v>
       </c>
       <c r="F1080">
-        <v>452.7666805213428</v>
+        <v>645.9775515874016</v>
       </c>
     </row>
     <row r="1081" spans="1:6">
@@ -22153,13 +22153,13 @@
         <v>39</v>
       </c>
       <c r="D1081">
-        <v>353.2686604677879</v>
+        <v>460.2442498668979</v>
       </c>
       <c r="E1081">
-        <v>133.2411774221634</v>
+        <v>266.1073841556159</v>
       </c>
       <c r="F1081">
-        <v>573.2961435134125</v>
+        <v>654.38111557818</v>
       </c>
     </row>
     <row r="1082" spans="1:6">
@@ -22173,13 +22173,13 @@
         <v>39</v>
       </c>
       <c r="D1082">
-        <v>313.019192159744</v>
+        <v>455.3825728965386</v>
       </c>
       <c r="E1082">
-        <v>73.85119440106061</v>
+        <v>249.5764244892929</v>
       </c>
       <c r="F1082">
-        <v>552.1871899184274</v>
+        <v>661.1887213037843</v>
       </c>
     </row>
     <row r="1083" spans="1:6">
@@ -22193,13 +22193,13 @@
         <v>39</v>
       </c>
       <c r="D1083">
-        <v>292.539604484342</v>
+        <v>450.5839080022128</v>
       </c>
       <c r="E1083">
-        <v>21.44040032456684</v>
+        <v>233.6551350137745</v>
       </c>
       <c r="F1083">
-        <v>563.638808644117</v>
+        <v>667.512680990651</v>
       </c>
     </row>
     <row r="1084" spans="1:6">
@@ -22213,13 +22213,13 @@
         <v>39</v>
       </c>
       <c r="D1084">
-        <v>261.8304439429926</v>
+        <v>445.8127178725058</v>
       </c>
       <c r="E1084">
-        <v>-40.10528017892977</v>
+        <v>218.2776323170546</v>
       </c>
       <c r="F1084">
-        <v>563.766168064915</v>
+        <v>673.3478034279569</v>
       </c>
     </row>
     <row r="1085" spans="1:6">
@@ -22233,13 +22233,13 @@
         <v>39</v>
       </c>
       <c r="D1085">
-        <v>307.8026628932593</v>
+        <v>441.0110878859884</v>
       </c>
       <c r="E1085">
-        <v>-39.2698828503128</v>
+        <v>203.3738582451612</v>
       </c>
       <c r="F1085">
-        <v>654.8752086368313</v>
+        <v>678.6483175268156</v>
       </c>
     </row>
     <row r="1086" spans="1:6">
@@ -22253,13 +22253,13 @@
         <v>39</v>
       </c>
       <c r="D1086">
-        <v>281.2669002935863</v>
+        <v>436.2240932894732</v>
       </c>
       <c r="E1086">
-        <v>-89.774466050358</v>
+        <v>188.8820491007312</v>
       </c>
       <c r="F1086">
-        <v>652.3082666375306</v>
+        <v>683.5661374782153</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -22693,13 +22693,13 @@
         <v>40</v>
       </c>
       <c r="D1108">
-        <v>91.15760010000491</v>
+        <v>104.9378099123354</v>
       </c>
       <c r="E1108">
-        <v>63.16287226450133</v>
+        <v>74.04022723670326</v>
       </c>
       <c r="F1108">
-        <v>119.1523279355085</v>
+        <v>135.8353925879675</v>
       </c>
     </row>
     <row r="1109" spans="1:6">
@@ -22713,13 +22713,13 @@
         <v>40</v>
       </c>
       <c r="D1109">
-        <v>93.01047654669443</v>
+        <v>104.2960196690439</v>
       </c>
       <c r="E1109">
-        <v>65.05745332366901</v>
+        <v>73.26672684327647</v>
       </c>
       <c r="F1109">
-        <v>120.9634997697199</v>
+        <v>135.3253124948114</v>
       </c>
     </row>
     <row r="1110" spans="1:6">
@@ -22733,13 +22733,13 @@
         <v>40</v>
       </c>
       <c r="D1110">
-        <v>80.99940447793847</v>
+        <v>96.41779076810643</v>
       </c>
       <c r="E1110">
-        <v>53.07805605511798</v>
+        <v>63.98247474690883</v>
       </c>
       <c r="F1110">
-        <v>108.920752900759</v>
+        <v>128.853106789304</v>
       </c>
     </row>
     <row r="1111" spans="1:6">
@@ -22753,13 +22753,13 @@
         <v>40</v>
       </c>
       <c r="D1111">
-        <v>60.58322827214988</v>
+        <v>100.5814683144552</v>
       </c>
       <c r="E1111">
-        <v>32.21684726207633</v>
+        <v>63.37136422869817</v>
       </c>
       <c r="F1111">
-        <v>88.94960928222343</v>
+        <v>137.7915724002122</v>
       </c>
     </row>
     <row r="1112" spans="1:6">
@@ -22773,13 +22773,13 @@
         <v>40</v>
       </c>
       <c r="D1112">
-        <v>58.95730328704489</v>
+        <v>101.5927962126868</v>
       </c>
       <c r="E1112">
-        <v>27.41330932055419</v>
+        <v>63.99995580289711</v>
       </c>
       <c r="F1112">
-        <v>90.50129725353558</v>
+        <v>139.1856366224764</v>
       </c>
     </row>
     <row r="1113" spans="1:6">
@@ -22793,13 +22793,13 @@
         <v>40</v>
       </c>
       <c r="D1113">
-        <v>72.49026773964636</v>
+        <v>99.43412604302019</v>
       </c>
       <c r="E1113">
-        <v>37.84450664313353</v>
+        <v>61.32108704909711</v>
       </c>
       <c r="F1113">
-        <v>107.1360288361592</v>
+        <v>137.5471650369433</v>
       </c>
     </row>
     <row r="1114" spans="1:6">
@@ -22813,13 +22813,13 @@
         <v>40</v>
       </c>
       <c r="D1114">
-        <v>64.06552541047066</v>
+        <v>96.37740031810962</v>
       </c>
       <c r="E1114">
-        <v>29.54309912518652</v>
+        <v>56.62399374094993</v>
       </c>
       <c r="F1114">
-        <v>98.5879516957548</v>
+        <v>136.1308068952693</v>
       </c>
     </row>
     <row r="1115" spans="1:6">
@@ -22833,13 +22833,13 @@
         <v>40</v>
       </c>
       <c r="D1115">
-        <v>47.22961510810192</v>
+        <v>98.32653290106106</v>
       </c>
       <c r="E1115">
-        <v>12.61331213594472</v>
+        <v>56.56657363987718</v>
       </c>
       <c r="F1115">
-        <v>81.84591808025914</v>
+        <v>140.086492162245</v>
       </c>
     </row>
     <row r="1116" spans="1:6">
@@ -22853,13 +22853,13 @@
         <v>40</v>
       </c>
       <c r="D1116">
-        <v>38.86923235114238</v>
+        <v>98.19742109295532</v>
       </c>
       <c r="E1116">
-        <v>2.47136385542283</v>
+        <v>55.86854498495332</v>
       </c>
       <c r="F1116">
-        <v>75.26710084686192</v>
+        <v>140.5262972009573</v>
       </c>
     </row>
     <row r="1117" spans="1:6">
@@ -22873,13 +22873,13 @@
         <v>40</v>
       </c>
       <c r="D1117">
-        <v>44.42289858420335</v>
+        <v>96.3351489829775</v>
       </c>
       <c r="E1117">
-        <v>5.720379285339618</v>
+        <v>53.19580442734052</v>
       </c>
       <c r="F1117">
-        <v>83.12541788306707</v>
+        <v>139.4744935386145</v>
       </c>
     </row>
     <row r="1118" spans="1:6">
@@ -23313,13 +23313,13 @@
         <v>41</v>
       </c>
       <c r="D1139">
-        <v>329.7205130700493</v>
+        <v>418.0113894682007</v>
       </c>
       <c r="E1139">
-        <v>260.4238108107457</v>
+        <v>354.8101980650288</v>
       </c>
       <c r="F1139">
-        <v>399.0172153293528</v>
+        <v>481.2125808713726</v>
       </c>
     </row>
     <row r="1140" spans="1:6">
@@ -23333,13 +23333,13 @@
         <v>41</v>
       </c>
       <c r="D1140">
-        <v>313.7543139729636</v>
+        <v>393.7114085887328</v>
       </c>
       <c r="E1140">
-        <v>239.7247572861444</v>
+        <v>328.1888938020118</v>
       </c>
       <c r="F1140">
-        <v>387.7838706597828</v>
+        <v>459.2339233754538</v>
       </c>
     </row>
     <row r="1141" spans="1:6">
@@ -23353,13 +23353,13 @@
         <v>41</v>
       </c>
       <c r="D1141">
-        <v>364.9631757961843</v>
+        <v>384.3630079948556</v>
       </c>
       <c r="E1141">
-        <v>281.0898192936932</v>
+        <v>318.8179876812038</v>
       </c>
       <c r="F1141">
-        <v>448.8365322986755</v>
+        <v>449.9080283085074</v>
       </c>
     </row>
     <row r="1142" spans="1:6">
@@ -23373,13 +23373,13 @@
         <v>41</v>
       </c>
       <c r="D1142">
-        <v>319.3297345457096</v>
+        <v>395.5005667611156</v>
       </c>
       <c r="E1142">
-        <v>231.9965127810718</v>
+        <v>320.3843168596803</v>
       </c>
       <c r="F1142">
-        <v>406.6629563103473</v>
+        <v>470.6168166625509</v>
       </c>
     </row>
     <row r="1143" spans="1:6">
@@ -23393,13 +23393,13 @@
         <v>41</v>
       </c>
       <c r="D1143">
-        <v>360.2784097677679</v>
+        <v>409.2814517681246</v>
       </c>
       <c r="E1143">
-        <v>258.6498374908919</v>
+        <v>329.8910881857788</v>
       </c>
       <c r="F1143">
-        <v>461.9069820446439</v>
+        <v>488.6718153504704</v>
       </c>
     </row>
     <row r="1144" spans="1:6">
@@ -23413,13 +23413,13 @@
         <v>41</v>
       </c>
       <c r="D1144">
-        <v>317.4673460193403</v>
+        <v>401.8315244387766</v>
       </c>
       <c r="E1144">
-        <v>215.3097030853287</v>
+        <v>317.9456160518367</v>
       </c>
       <c r="F1144">
-        <v>419.6249889533519</v>
+        <v>485.7174328257166</v>
       </c>
     </row>
     <row r="1145" spans="1:6">
@@ -23433,13 +23433,13 @@
         <v>41</v>
       </c>
       <c r="D1145">
-        <v>320.5518707292177</v>
+        <v>392.4937861886674</v>
       </c>
       <c r="E1145">
-        <v>216.553250951935</v>
+        <v>308.4108307180895</v>
       </c>
       <c r="F1145">
-        <v>424.5504905065004</v>
+        <v>476.5767416592453</v>
       </c>
     </row>
     <row r="1146" spans="1:6">
@@ -23453,13 +23453,13 @@
         <v>41</v>
       </c>
       <c r="D1146">
-        <v>269.0865279379323</v>
+        <v>392.523826070836</v>
       </c>
       <c r="E1146">
-        <v>163.9400808803456</v>
+        <v>304.6476732579502</v>
       </c>
       <c r="F1146">
-        <v>374.2329749955189</v>
+        <v>480.3999788837219</v>
       </c>
     </row>
     <row r="1147" spans="1:6">
@@ -23473,13 +23473,13 @@
         <v>41</v>
       </c>
       <c r="D1147">
-        <v>301.6536738033789</v>
+        <v>401.8668776847701</v>
       </c>
       <c r="E1147">
-        <v>185.5631226179833</v>
+        <v>311.1593815311537</v>
       </c>
       <c r="F1147">
-        <v>417.7442249887745</v>
+        <v>492.5743738383865</v>
       </c>
     </row>
     <row r="1148" spans="1:6">
@@ -23493,13 +23493,13 @@
         <v>41</v>
       </c>
       <c r="D1148">
-        <v>294.741368284004</v>
+        <v>402.3523910044014</v>
       </c>
       <c r="E1148">
-        <v>174.101774508905</v>
+        <v>307.0254819124735</v>
       </c>
       <c r="F1148">
-        <v>415.380962059103</v>
+        <v>497.6793000963293</v>
       </c>
     </row>
     <row r="1149" spans="1:6">
@@ -23933,13 +23933,13 @@
         <v>42</v>
       </c>
       <c r="D1170">
-        <v>269.973641644725</v>
+        <v>296.8814468829211</v>
       </c>
       <c r="E1170">
-        <v>220.3522410503479</v>
+        <v>236.0937371033379</v>
       </c>
       <c r="F1170">
-        <v>319.5950422391021</v>
+        <v>357.6691566625042</v>
       </c>
     </row>
     <row r="1171" spans="1:6">
@@ -23953,13 +23953,13 @@
         <v>42</v>
       </c>
       <c r="D1171">
-        <v>271.4663306107647</v>
+        <v>304.7157692007742</v>
       </c>
       <c r="E1171">
-        <v>221.8857656316171</v>
+        <v>242.5274733297431</v>
       </c>
       <c r="F1171">
-        <v>321.0468955899122</v>
+        <v>366.9040650718053</v>
       </c>
     </row>
     <row r="1172" spans="1:6">
@@ -23973,13 +23973,13 @@
         <v>42</v>
       </c>
       <c r="D1172">
-        <v>273.8905437789693</v>
+        <v>279.6740089898384</v>
       </c>
       <c r="E1172">
-        <v>214.9640873267934</v>
+        <v>216.4012188740082</v>
       </c>
       <c r="F1172">
-        <v>332.8170002311453</v>
+        <v>342.9467991056686</v>
       </c>
     </row>
     <row r="1173" spans="1:6">
@@ -23993,13 +23993,13 @@
         <v>42</v>
       </c>
       <c r="D1173">
-        <v>227.0270770855615</v>
+        <v>297.1235410933646</v>
       </c>
       <c r="E1173">
-        <v>168.1150669686321</v>
+        <v>220.8424337158792</v>
       </c>
       <c r="F1173">
-        <v>285.9390872024908</v>
+        <v>373.4046484708499</v>
       </c>
     </row>
     <row r="1174" spans="1:6">
@@ -24013,13 +24013,13 @@
         <v>42</v>
       </c>
       <c r="D1174">
-        <v>272.209497950749</v>
+        <v>294.7793314286717</v>
       </c>
       <c r="E1174">
-        <v>208.217808058097</v>
+        <v>218.2768030463825</v>
       </c>
       <c r="F1174">
-        <v>336.2011878434009</v>
+        <v>371.2818598109609</v>
       </c>
     </row>
     <row r="1175" spans="1:6">
@@ -24033,13 +24033,13 @@
         <v>42</v>
       </c>
       <c r="D1175">
-        <v>264.162205664106</v>
+        <v>298.9499558571388</v>
       </c>
       <c r="E1175">
-        <v>200.0446253437007</v>
+        <v>220.0622919559153</v>
       </c>
       <c r="F1175">
-        <v>328.2797859845112</v>
+        <v>377.8376197583623</v>
       </c>
     </row>
     <row r="1176" spans="1:6">
@@ -24053,13 +24053,13 @@
         <v>42</v>
       </c>
       <c r="D1176">
-        <v>226.8399114764712</v>
+        <v>285.1633507952341</v>
       </c>
       <c r="E1176">
-        <v>161.0084340305522</v>
+        <v>204.6969974131578</v>
       </c>
       <c r="F1176">
-        <v>292.6713889223902</v>
+        <v>365.6297041773103</v>
       </c>
     </row>
     <row r="1177" spans="1:6">
@@ -24073,13 +24073,13 @@
         <v>42</v>
       </c>
       <c r="D1177">
-        <v>209.7014552986111</v>
+        <v>297.597531262172</v>
       </c>
       <c r="E1177">
-        <v>139.7094922997548</v>
+        <v>210.9410387696295</v>
       </c>
       <c r="F1177">
-        <v>279.6934182974674</v>
+        <v>384.2540237547144</v>
       </c>
     </row>
     <row r="1178" spans="1:6">
@@ -24093,13 +24093,13 @@
         <v>42</v>
       </c>
       <c r="D1178">
-        <v>252.5337511177404</v>
+        <v>293.4466940061199</v>
       </c>
       <c r="E1178">
-        <v>178.2036244811182</v>
+        <v>206.3027940180914</v>
       </c>
       <c r="F1178">
-        <v>326.8638777543626</v>
+        <v>380.5905939941484</v>
       </c>
     </row>
     <row r="1179" spans="1:6">
@@ -24113,13 +24113,13 @@
         <v>42</v>
       </c>
       <c r="D1179">
-        <v>268.3708342990946</v>
+        <v>296.3594661316067</v>
       </c>
       <c r="E1179">
-        <v>193.3417716771815</v>
+        <v>206.5471933976069</v>
       </c>
       <c r="F1179">
-        <v>343.3998969210076</v>
+        <v>386.1717388656065</v>
       </c>
     </row>
     <row r="1180" spans="1:6">
@@ -24553,13 +24553,13 @@
         <v>43</v>
       </c>
       <c r="D1201">
-        <v>425.0294463472616</v>
+        <v>418.6106916104255</v>
       </c>
       <c r="E1201">
-        <v>332.1623320807746</v>
+        <v>291.8773267422203</v>
       </c>
       <c r="F1201">
-        <v>517.8965606137485</v>
+        <v>545.3440564786306</v>
       </c>
     </row>
     <row r="1202" spans="1:6">
@@ -24573,13 +24573,13 @@
         <v>43</v>
       </c>
       <c r="D1202">
-        <v>435.0138041704184</v>
+        <v>370.9230053883909</v>
       </c>
       <c r="E1202">
-        <v>323.3977801419183</v>
+        <v>205.1339533522498</v>
       </c>
       <c r="F1202">
-        <v>546.6298281989186</v>
+        <v>536.7120574245321</v>
       </c>
     </row>
     <row r="1203" spans="1:6">
@@ -24593,13 +24593,13 @@
         <v>43</v>
       </c>
       <c r="D1203">
-        <v>493.667951231942</v>
+        <v>408.4241526790782</v>
       </c>
       <c r="E1203">
-        <v>352.5063196282141</v>
+        <v>200.9229140937725</v>
       </c>
       <c r="F1203">
-        <v>634.82958283567</v>
+        <v>615.9253912643838</v>
       </c>
     </row>
     <row r="1204" spans="1:6">
@@ -24613,13 +24613,13 @@
         <v>43</v>
       </c>
       <c r="D1204">
-        <v>406.6709413736039</v>
+        <v>361.9221053049058</v>
       </c>
       <c r="E1204">
-        <v>241.1877198730156</v>
+        <v>129.1622859953341</v>
       </c>
       <c r="F1204">
-        <v>572.1541628741921</v>
+        <v>594.6819246144776</v>
       </c>
     </row>
     <row r="1205" spans="1:6">
@@ -24633,13 +24633,13 @@
         <v>43</v>
       </c>
       <c r="D1205">
-        <v>464.3876383850837</v>
+        <v>398.3437707068772</v>
       </c>
       <c r="E1205">
-        <v>257.8668541332931</v>
+        <v>135.146886234345</v>
       </c>
       <c r="F1205">
-        <v>670.9084226368742</v>
+        <v>661.5406551794094</v>
       </c>
     </row>
     <row r="1206" spans="1:6">
@@ -24653,13 +24653,13 @@
         <v>43</v>
       </c>
       <c r="D1206">
-        <v>464.1946199366143</v>
+        <v>352.9963855313997</v>
       </c>
       <c r="E1206">
-        <v>245.2667079101132</v>
+        <v>69.98319497383267</v>
       </c>
       <c r="F1206">
-        <v>683.1225319631153</v>
+        <v>636.0095760889667</v>
       </c>
     </row>
     <row r="1207" spans="1:6">
@@ -24673,13 +24673,13 @@
         <v>43</v>
       </c>
       <c r="D1207">
-        <v>513.1260173098894</v>
+        <v>388.3678239763502</v>
       </c>
       <c r="E1207">
-        <v>285.5966341926444</v>
+        <v>80.58306400224996</v>
       </c>
       <c r="F1207">
-        <v>740.6554004271345</v>
+        <v>696.1525839504504</v>
       </c>
     </row>
     <row r="1208" spans="1:6">
@@ -24693,13 +24693,13 @@
         <v>43</v>
       </c>
       <c r="D1208">
-        <v>419.7898510314337</v>
+        <v>344.1449401014015</v>
       </c>
       <c r="E1208">
-        <v>185.3396779619307</v>
+        <v>19.69706171118548</v>
       </c>
       <c r="F1208">
-        <v>654.2400241009366</v>
+        <v>668.5928184916175</v>
       </c>
     </row>
     <row r="1209" spans="1:6">
@@ -24713,13 +24713,13 @@
         <v>43</v>
       </c>
       <c r="D1209">
-        <v>456.1146006029227</v>
+        <v>378.4946206119293</v>
       </c>
       <c r="E1209">
-        <v>203.4142393864276</v>
+        <v>32.87158334904461</v>
       </c>
       <c r="F1209">
-        <v>708.8149618194177</v>
+        <v>724.117657874814</v>
       </c>
     </row>
     <row r="1210" spans="1:6">
@@ -24733,13 +24733,13 @@
         <v>43</v>
       </c>
       <c r="D1210">
-        <v>443.0018729970644</v>
+        <v>335.3668713131765</v>
       </c>
       <c r="E1210">
-        <v>180.5604882432717</v>
+        <v>-24.78417302654776</v>
       </c>
       <c r="F1210">
-        <v>705.4432577508571</v>
+        <v>695.5179156529009</v>
       </c>
     </row>
     <row r="1211" spans="1:6">
@@ -25173,13 +25173,13 @@
         <v>44</v>
       </c>
       <c r="D1232">
-        <v>323.9617721221106</v>
+        <v>251.6363818449015</v>
       </c>
       <c r="E1232">
-        <v>264.4495477319385</v>
+        <v>179.0477910775771</v>
       </c>
       <c r="F1232">
-        <v>383.4739965122827</v>
+        <v>324.2249726122259</v>
       </c>
     </row>
     <row r="1233" spans="1:6">
@@ -25193,13 +25193,13 @@
         <v>44</v>
       </c>
       <c r="D1233">
-        <v>211.5846546076804</v>
+        <v>242.2115774445869</v>
       </c>
       <c r="E1233">
-        <v>142.7420238238434</v>
+        <v>169.2065571771964</v>
       </c>
       <c r="F1233">
-        <v>280.4272853915173</v>
+        <v>315.2165977119774</v>
       </c>
     </row>
     <row r="1234" spans="1:6">
@@ -25213,13 +25213,13 @@
         <v>44</v>
       </c>
       <c r="D1234">
-        <v>243.0086913924773</v>
+        <v>232.4944988241868</v>
       </c>
       <c r="E1234">
-        <v>167.8061923912161</v>
+        <v>158.7085998283837</v>
       </c>
       <c r="F1234">
-        <v>318.2111903937385</v>
+        <v>306.28039781999</v>
       </c>
     </row>
     <row r="1235" spans="1:6">
@@ -25233,13 +25233,13 @@
         <v>44</v>
       </c>
       <c r="D1235">
-        <v>212.3982066794908</v>
+        <v>222.5010629156645</v>
       </c>
       <c r="E1235">
-        <v>136.581907892715</v>
+        <v>147.5035559609777</v>
       </c>
       <c r="F1235">
-        <v>288.2145054662665</v>
+        <v>297.4985698703513</v>
       </c>
     </row>
     <row r="1236" spans="1:6">
@@ -25253,13 +25253,13 @@
         <v>44</v>
       </c>
       <c r="D1236">
-        <v>215.0876011356518</v>
+        <v>212.2474010186568</v>
       </c>
       <c r="E1236">
-        <v>135.2470016832547</v>
+        <v>135.5573236897718</v>
       </c>
       <c r="F1236">
-        <v>294.9282005880489</v>
+        <v>288.9374783475417</v>
       </c>
     </row>
     <row r="1237" spans="1:6">
@@ -25273,13 +25273,13 @@
         <v>44</v>
       </c>
       <c r="D1237">
-        <v>203.7305846702025</v>
+        <v>201.7498328331757</v>
       </c>
       <c r="E1237">
-        <v>121.2841995758169</v>
+        <v>122.8539199125237</v>
       </c>
       <c r="F1237">
-        <v>286.176969764588</v>
+        <v>280.6457457538277</v>
       </c>
     </row>
     <row r="1238" spans="1:6">
@@ -25293,13 +25293,13 @@
         <v>44</v>
       </c>
       <c r="D1238">
-        <v>200.1003343260783</v>
+        <v>191.0248405240357</v>
       </c>
       <c r="E1238">
-        <v>114.1658243323427</v>
+        <v>109.395746751379</v>
       </c>
       <c r="F1238">
-        <v>286.0348443198139</v>
+        <v>272.6539342966923</v>
       </c>
     </row>
     <row r="1239" spans="1:6">
@@ -25313,13 +25313,13 @@
         <v>44</v>
       </c>
       <c r="D1239">
-        <v>193.2986748059043</v>
+        <v>180.0890428543249</v>
       </c>
       <c r="E1239">
-        <v>104.2650712297745</v>
+        <v>95.20222201847911</v>
       </c>
       <c r="F1239">
-        <v>282.3322783820341</v>
+        <v>264.9758636901706</v>
       </c>
     </row>
     <row r="1240" spans="1:6">
@@ -25333,13 +25333,13 @@
         <v>44</v>
       </c>
       <c r="D1240">
-        <v>188.2941866265333</v>
+        <v>168.9591694247043</v>
       </c>
       <c r="E1240">
-        <v>96.03894934802214</v>
+        <v>80.30712291575036</v>
       </c>
       <c r="F1240">
-        <v>280.5494239050444</v>
+        <v>257.6112159336582</v>
       </c>
     </row>
     <row r="1241" spans="1:6">
@@ -25353,13 +25353,13 @@
         <v>44</v>
       </c>
       <c r="D1241">
-        <v>182.5762211005211</v>
+        <v>157.6520350547279</v>
       </c>
       <c r="E1241">
-        <v>87.25778577114967</v>
+        <v>64.75522458608823</v>
       </c>
       <c r="F1241">
-        <v>277.8946564298926</v>
+        <v>250.5488455233676</v>
       </c>
     </row>
     <row r="1242" spans="1:6">
@@ -25793,13 +25793,13 @@
         <v>45</v>
       </c>
       <c r="D1263">
-        <v>520.2347874992964</v>
+        <v>492.6000713209228</v>
       </c>
       <c r="E1263">
-        <v>417.7182092934808</v>
+        <v>376.3499401625838</v>
       </c>
       <c r="F1263">
-        <v>622.7513657051121</v>
+        <v>608.8502024792618</v>
       </c>
     </row>
     <row r="1264" spans="1:6">
@@ -25813,13 +25813,13 @@
         <v>45</v>
       </c>
       <c r="D1264">
-        <v>458.8067603213497</v>
+        <v>484.2484023920895</v>
       </c>
       <c r="E1264">
-        <v>356.6610548722811</v>
+        <v>367.9972227333963</v>
       </c>
       <c r="F1264">
-        <v>560.9524657704181</v>
+        <v>600.4995820507827</v>
       </c>
     </row>
     <row r="1265" spans="1:6">
@@ -25833,13 +25833,13 @@
         <v>45</v>
       </c>
       <c r="D1265">
-        <v>503.4739044880025</v>
+        <v>475.8967334632596</v>
       </c>
       <c r="E1265">
-        <v>400.9569505052727</v>
+        <v>359.6445053138171</v>
       </c>
       <c r="F1265">
-        <v>605.9908584707322</v>
+        <v>592.148961612702</v>
       </c>
     </row>
     <row r="1266" spans="1:6">
@@ -25853,13 +25853,13 @@
         <v>45</v>
       </c>
       <c r="D1266">
-        <v>442.0466292996806</v>
+        <v>467.5450645344331</v>
       </c>
       <c r="E1266">
-        <v>339.9005414450459</v>
+        <v>351.291787903846</v>
       </c>
       <c r="F1266">
-        <v>544.1927171543153</v>
+        <v>583.7983411650202</v>
       </c>
     </row>
     <row r="1267" spans="1:6">
@@ -25873,13 +25873,13 @@
         <v>45</v>
       </c>
       <c r="D1267">
-        <v>486.7130214820385</v>
+        <v>459.19339560561</v>
       </c>
       <c r="E1267">
-        <v>384.1956917343384</v>
+        <v>342.9390705034826</v>
       </c>
       <c r="F1267">
-        <v>589.2303512297385</v>
+        <v>575.4477207077375</v>
       </c>
     </row>
     <row r="1268" spans="1:6">
@@ -25893,13 +25893,13 @@
         <v>45</v>
       </c>
       <c r="D1268">
-        <v>425.2864982726815</v>
+        <v>450.8417266767902</v>
       </c>
       <c r="E1268">
-        <v>323.1400280245914</v>
+        <v>334.5863531127266</v>
       </c>
       <c r="F1268">
-        <v>527.4329685207716</v>
+        <v>567.0971002408539</v>
       </c>
     </row>
     <row r="1269" spans="1:6">
@@ -25913,13 +25913,13 @@
         <v>45</v>
       </c>
       <c r="D1269">
-        <v>469.9521384814043</v>
+        <v>442.4900577479739</v>
       </c>
       <c r="E1269">
-        <v>367.4344329806771</v>
+        <v>326.2336357315778</v>
       </c>
       <c r="F1269">
-        <v>572.4698439821315</v>
+        <v>558.74647976437</v>
       </c>
     </row>
     <row r="1270" spans="1:6">
@@ -25933,13 +25933,13 @@
         <v>45</v>
       </c>
       <c r="D1270">
-        <v>408.5263672403526</v>
+        <v>434.1383888191609</v>
       </c>
       <c r="E1270">
-        <v>306.3795146109175</v>
+        <v>317.880918360036</v>
       </c>
       <c r="F1270">
-        <v>510.6732198697877</v>
+        <v>550.3958592782858</v>
       </c>
     </row>
     <row r="1271" spans="1:6">
@@ -25953,13 +25953,13 @@
         <v>45</v>
       </c>
       <c r="D1271">
-        <v>453.1912554861001</v>
+        <v>425.7867198903513</v>
       </c>
       <c r="E1271">
-        <v>350.6731742442888</v>
+        <v>309.5282009981008</v>
       </c>
       <c r="F1271">
-        <v>555.7093367279116</v>
+        <v>542.0452387826017</v>
       </c>
     </row>
     <row r="1272" spans="1:6">
@@ -25973,13 +25973,13 @@
         <v>45</v>
       </c>
       <c r="D1272">
-        <v>391.7662362026938</v>
+        <v>417.435050961545</v>
       </c>
       <c r="E1272">
-        <v>289.6190012040237</v>
+        <v>301.1754836457721</v>
       </c>
       <c r="F1272">
-        <v>493.913471201364</v>
+        <v>533.6946182773179</v>
       </c>
     </row>
     <row r="1273" spans="1:6">
@@ -26413,13 +26413,13 @@
         <v>46</v>
       </c>
       <c r="D1294">
-        <v>362.9666074103972</v>
+        <v>386.3013711099874</v>
       </c>
       <c r="E1294">
-        <v>293.6358319598446</v>
+        <v>297.1412704044783</v>
       </c>
       <c r="F1294">
-        <v>432.2973828609498</v>
+        <v>475.4614718154965</v>
       </c>
     </row>
     <row r="1295" spans="1:6">
@@ -26433,13 +26433,13 @@
         <v>46</v>
       </c>
       <c r="D1295">
-        <v>326.3104891430181</v>
+        <v>382.3698212542085</v>
       </c>
       <c r="E1295">
-        <v>250.1519319329867</v>
+        <v>287.3725237136069</v>
       </c>
       <c r="F1295">
-        <v>402.4690463530494</v>
+        <v>477.36711879481</v>
       </c>
     </row>
     <row r="1296" spans="1:6">
@@ -26453,13 +26453,13 @@
         <v>46</v>
       </c>
       <c r="D1296">
-        <v>297.8584443400115</v>
+        <v>378.4384587034322</v>
       </c>
       <c r="E1296">
-        <v>221.690714102873</v>
+        <v>277.9492187122535</v>
       </c>
       <c r="F1296">
-        <v>374.02617457715</v>
+        <v>478.9276986946109</v>
       </c>
     </row>
     <row r="1297" spans="1:6">
@@ -26473,13 +26473,13 @@
         <v>46</v>
       </c>
       <c r="D1297">
-        <v>189.4626509858883</v>
+        <v>374.5072833389466</v>
       </c>
       <c r="E1297">
-        <v>106.6545286913005</v>
+        <v>268.8175121882534</v>
       </c>
       <c r="F1297">
-        <v>272.270773280476</v>
+        <v>480.1970544896399</v>
       </c>
     </row>
     <row r="1298" spans="1:6">
@@ -26493,13 +26493,13 @@
         <v>46</v>
       </c>
       <c r="D1298">
-        <v>240.2919356498757</v>
+        <v>370.5762950421151</v>
       </c>
       <c r="E1298">
-        <v>123.92689445233</v>
+        <v>259.9362960382198</v>
       </c>
       <c r="F1298">
-        <v>356.6569768474213</v>
+        <v>481.2162940460105</v>
       </c>
     </row>
     <row r="1299" spans="1:6">
@@ -26513,13 +26513,13 @@
         <v>46</v>
       </c>
       <c r="D1299">
-        <v>200.1178360696161</v>
+        <v>366.6454936943762</v>
       </c>
       <c r="E1299">
-        <v>60.38677397947902</v>
+        <v>251.2733391819936</v>
       </c>
       <c r="F1299">
-        <v>339.8488981597533</v>
+        <v>482.0176482067588</v>
       </c>
     </row>
     <row r="1300" spans="1:6">
@@ -26533,13 +26533,13 @@
         <v>46</v>
       </c>
       <c r="D1300">
-        <v>214.0307774125823</v>
+        <v>362.7148791772436</v>
       </c>
       <c r="E1300">
-        <v>59.86582010314143</v>
+        <v>242.8028138244118</v>
       </c>
       <c r="F1300">
-        <v>368.1957347220232</v>
+        <v>482.6269445300754</v>
       </c>
     </row>
     <row r="1301" spans="1:6">
@@ -26553,13 +26553,13 @@
         <v>46</v>
       </c>
       <c r="D1301">
-        <v>127.7862813225878</v>
+        <v>358.7844513723059</v>
       </c>
       <c r="E1301">
-        <v>-43.22367016921896</v>
+        <v>234.5036433687545</v>
       </c>
       <c r="F1301">
-        <v>298.7962328143946</v>
+        <v>483.0652593758573</v>
       </c>
     </row>
     <row r="1302" spans="1:6">
@@ -26573,13 +26573,13 @@
         <v>46</v>
       </c>
       <c r="D1302">
-        <v>166.663566481325</v>
+        <v>354.8542101612271</v>
       </c>
       <c r="E1302">
-        <v>-34.11726774329526</v>
+        <v>226.358361144499</v>
       </c>
       <c r="F1302">
-        <v>367.4444007059453</v>
+        <v>483.3500591779552</v>
       </c>
     </row>
     <row r="1303" spans="1:6">
@@ -26593,13 +26593,13 @@
         <v>46</v>
       </c>
       <c r="D1303">
-        <v>123.6236641436935</v>
+        <v>350.9241554257459</v>
       </c>
       <c r="E1303">
-        <v>-105.6686331130445</v>
+        <v>218.3522992127841</v>
       </c>
       <c r="F1303">
-        <v>352.9159614004316</v>
+        <v>483.4960116387078</v>
       </c>
     </row>
     <row r="1304" spans="1:6">
@@ -27033,13 +27033,13 @@
         <v>47</v>
       </c>
       <c r="D1325">
-        <v>163.0949587342374</v>
+        <v>185.7116723412725</v>
       </c>
       <c r="E1325">
-        <v>122.0629448191718</v>
+        <v>152.5230451740454</v>
       </c>
       <c r="F1325">
-        <v>204.126972649303</v>
+        <v>218.9002995084995</v>
       </c>
     </row>
     <row r="1326" spans="1:6">
@@ -27053,13 +27053,13 @@
         <v>47</v>
       </c>
       <c r="D1326">
-        <v>164.9121600764011</v>
+        <v>199.808979701409</v>
       </c>
       <c r="E1326">
-        <v>120.3047011100038</v>
+        <v>162.79579578694</v>
       </c>
       <c r="F1326">
-        <v>209.5196190427983</v>
+        <v>236.822163615878</v>
       </c>
     </row>
     <row r="1327" spans="1:6">
@@ -27073,13 +27073,13 @@
         <v>47</v>
       </c>
       <c r="D1327">
-        <v>199.4664036639873</v>
+        <v>201.4753626516599</v>
       </c>
       <c r="E1327">
-        <v>152.0852538616017</v>
+        <v>160.5225420656242</v>
       </c>
       <c r="F1327">
-        <v>246.8475534663729</v>
+        <v>242.4281832376957</v>
       </c>
     </row>
     <row r="1328" spans="1:6">
@@ -27093,13 +27093,13 @@
         <v>47</v>
       </c>
       <c r="D1328">
-        <v>137.3476352694198</v>
+        <v>205.3496998808947</v>
       </c>
       <c r="E1328">
-        <v>87.18288162976236</v>
+        <v>163.7371238426265</v>
       </c>
       <c r="F1328">
-        <v>187.5123889090771</v>
+        <v>246.9622759191628</v>
       </c>
     </row>
     <row r="1329" spans="1:6">
@@ -27113,13 +27113,13 @@
         <v>47</v>
       </c>
       <c r="D1329">
-        <v>171.4200199409377</v>
+        <v>193.0169975275558</v>
       </c>
       <c r="E1329">
-        <v>114.6609806504617</v>
+        <v>151.3610068742734</v>
       </c>
       <c r="F1329">
-        <v>228.1790592314138</v>
+        <v>234.6729881808382</v>
       </c>
     </row>
     <row r="1330" spans="1:6">
@@ -27133,13 +27133,13 @@
         <v>47</v>
       </c>
       <c r="D1330">
-        <v>153.4859886298561</v>
+        <v>197.3298159581896</v>
       </c>
       <c r="E1330">
-        <v>96.56715651973191</v>
+        <v>154.2739989245718</v>
       </c>
       <c r="F1330">
-        <v>210.4048207399803</v>
+        <v>240.3856329918075</v>
       </c>
     </row>
     <row r="1331" spans="1:6">
@@ -27153,13 +27153,13 @@
         <v>47</v>
       </c>
       <c r="D1331">
-        <v>173.5741221564206</v>
+        <v>200.1716515424424</v>
       </c>
       <c r="E1331">
-        <v>114.5901203753429</v>
+        <v>156.433391101801</v>
       </c>
       <c r="F1331">
-        <v>232.5581239374982</v>
+        <v>243.9099119830838</v>
       </c>
     </row>
     <row r="1332" spans="1:6">
@@ -27173,13 +27173,13 @@
         <v>47</v>
       </c>
       <c r="D1332">
-        <v>143.7552386546078</v>
+        <v>203.8009940878715</v>
       </c>
       <c r="E1332">
-        <v>84.74471166226115</v>
+        <v>160.0824111410576</v>
       </c>
       <c r="F1332">
-        <v>202.7657656469545</v>
+        <v>247.5195770346855</v>
       </c>
     </row>
     <row r="1333" spans="1:6">
@@ -27193,13 +27193,13 @@
         <v>47</v>
       </c>
       <c r="D1333">
-        <v>163.6991601632733</v>
+        <v>196.7815970013373</v>
       </c>
       <c r="E1333">
-        <v>101.8620649056471</v>
+        <v>153.0249298214258</v>
       </c>
       <c r="F1333">
-        <v>225.5362554208995</v>
+        <v>240.5382641812488</v>
       </c>
     </row>
     <row r="1334" spans="1:6">
@@ -27213,13 +27213,13 @@
         <v>47</v>
       </c>
       <c r="D1334">
-        <v>147.2112906593259</v>
+        <v>196.9322429317394</v>
       </c>
       <c r="E1334">
-        <v>85.25831985095149</v>
+        <v>152.448477644194</v>
       </c>
       <c r="F1334">
-        <v>209.1642614677002</v>
+        <v>241.4160082192849</v>
       </c>
     </row>
     <row r="1335" spans="1:6">
@@ -27653,13 +27653,13 @@
         <v>48</v>
       </c>
       <c r="D1356">
-        <v>192.9191767353147</v>
+        <v>217.1732185155246</v>
       </c>
       <c r="E1356">
-        <v>151.7620667422897</v>
+        <v>170.6679718325169</v>
       </c>
       <c r="F1356">
-        <v>234.0762867283398</v>
+        <v>263.6784651985323</v>
       </c>
     </row>
     <row r="1357" spans="1:6">
@@ -27673,13 +27673,13 @@
         <v>48</v>
       </c>
       <c r="D1357">
-        <v>172.6445279029037</v>
+        <v>215.0860906295342</v>
       </c>
       <c r="E1357">
-        <v>129.427011614421</v>
+        <v>165.9388271252492</v>
       </c>
       <c r="F1357">
-        <v>215.8620441913865</v>
+        <v>264.2333541338193</v>
       </c>
     </row>
     <row r="1358" spans="1:6">
@@ -27693,13 +27693,13 @@
         <v>48</v>
       </c>
       <c r="D1358">
-        <v>169.0983821466614</v>
+        <v>216.2662590071309</v>
       </c>
       <c r="E1358">
-        <v>118.4986111367802</v>
+        <v>152.8839319819028</v>
       </c>
       <c r="F1358">
-        <v>219.6981531565424</v>
+        <v>279.6485860323589</v>
       </c>
     </row>
     <row r="1359" spans="1:6">
@@ -27713,13 +27713,13 @@
         <v>48</v>
       </c>
       <c r="D1359">
-        <v>148.9276022709933</v>
+        <v>217.7489353043125</v>
       </c>
       <c r="E1359">
-        <v>90.3803272961334</v>
+        <v>142.9482709890788</v>
       </c>
       <c r="F1359">
-        <v>207.4748772458532</v>
+        <v>292.5495996195462</v>
       </c>
     </row>
     <row r="1360" spans="1:6">
@@ -27733,13 +27733,13 @@
         <v>48</v>
       </c>
       <c r="D1360">
-        <v>143.5679502807886</v>
+        <v>217.2842654397517</v>
       </c>
       <c r="E1360">
-        <v>66.87467887715994</v>
+        <v>138.4001220255395</v>
       </c>
       <c r="F1360">
-        <v>220.2612216844173</v>
+        <v>296.1684088539639</v>
       </c>
     </row>
     <row r="1361" spans="1:6">
@@ -27753,13 +27753,13 @@
         <v>48</v>
       </c>
       <c r="D1361">
-        <v>135.9272881664048</v>
+        <v>216.2959438695451</v>
       </c>
       <c r="E1361">
-        <v>48.5744159649544</v>
+        <v>134.2259955022699</v>
       </c>
       <c r="F1361">
-        <v>223.2801603678552</v>
+        <v>298.3658922368203</v>
       </c>
     </row>
     <row r="1362" spans="1:6">
@@ -27773,13 +27773,13 @@
         <v>48</v>
       </c>
       <c r="D1362">
-        <v>123.1516271492</v>
+        <v>216.4085817584289</v>
       </c>
       <c r="E1362">
-        <v>28.58153552549648</v>
+        <v>128.5845977419627</v>
       </c>
       <c r="F1362">
-        <v>217.7217187729034</v>
+        <v>304.2325657748951</v>
       </c>
     </row>
     <row r="1363" spans="1:6">
@@ -27793,13 +27793,13 @@
         <v>48</v>
       </c>
       <c r="D1363">
-        <v>115.9973283070417</v>
+        <v>217.0331166955616</v>
       </c>
       <c r="E1363">
-        <v>6.905857793729567</v>
+        <v>122.7824351256867</v>
       </c>
       <c r="F1363">
-        <v>225.0887988203539</v>
+        <v>311.2837982654365</v>
       </c>
     </row>
     <row r="1364" spans="1:6">
@@ -27813,13 +27813,13 @@
         <v>48</v>
       </c>
       <c r="D1364">
-        <v>106.7120130799904</v>
+        <v>217.0727263490271</v>
       </c>
       <c r="E1364">
-        <v>-16.12343174697178</v>
+        <v>118.3214898923783</v>
       </c>
       <c r="F1364">
-        <v>229.5474579069526</v>
+        <v>315.8239628056758</v>
       </c>
     </row>
     <row r="1365" spans="1:6">
@@ -27833,13 +27833,13 @@
         <v>48</v>
       </c>
       <c r="D1365">
-        <v>105.1579259614893</v>
+        <v>216.6973304207984</v>
       </c>
       <c r="E1365">
-        <v>-29.93023298210902</v>
+        <v>114.3641494326538</v>
       </c>
       <c r="F1365">
-        <v>240.2460849050876</v>
+        <v>319.030511408943</v>
       </c>
     </row>
     <row r="1366" spans="1:6">
@@ -28273,13 +28273,13 @@
         <v>49</v>
       </c>
       <c r="D1387">
-        <v>871.8156802873574</v>
+        <v>1006.357027059779</v>
       </c>
       <c r="E1387">
-        <v>682.3234031425031</v>
+        <v>831.6382398907054</v>
       </c>
       <c r="F1387">
-        <v>1061.307957432212</v>
+        <v>1181.075814228852</v>
       </c>
     </row>
     <row r="1388" spans="1:6">
@@ -28293,13 +28293,13 @@
         <v>49</v>
       </c>
       <c r="D1388">
-        <v>740.742339048596</v>
+        <v>829.5958488252076</v>
       </c>
       <c r="E1388">
-        <v>481.2845052548685</v>
+        <v>646.163951530491</v>
       </c>
       <c r="F1388">
-        <v>1000.200172842324</v>
+        <v>1013.027746119924</v>
       </c>
     </row>
     <row r="1389" spans="1:6">
@@ -28313,13 +28313,13 @@
         <v>49</v>
       </c>
       <c r="D1389">
-        <v>847.635456494505</v>
+        <v>782.1285346351185</v>
       </c>
       <c r="E1389">
-        <v>519.0237633264037</v>
+        <v>598.4419750168768</v>
       </c>
       <c r="F1389">
-        <v>1176.247149662606</v>
+        <v>965.8150942533603</v>
       </c>
     </row>
     <row r="1390" spans="1:6">
@@ -28333,13 +28333,13 @@
         <v>49</v>
       </c>
       <c r="D1390">
-        <v>798.8024473528327</v>
+        <v>654.5116144719466</v>
       </c>
       <c r="E1390">
-        <v>444.6347695142712</v>
+        <v>451.946462821425</v>
       </c>
       <c r="F1390">
-        <v>1152.970125191394</v>
+        <v>857.0767661224681</v>
       </c>
     </row>
     <row r="1391" spans="1:6">
@@ -28353,13 +28353,13 @@
         <v>49</v>
       </c>
       <c r="D1391">
-        <v>790.4133721733491</v>
+        <v>740.7456960035538</v>
       </c>
       <c r="E1391">
-        <v>420.6224547199549</v>
+        <v>511.1812268567176</v>
       </c>
       <c r="F1391">
-        <v>1160.204289626743</v>
+        <v>970.31016515039</v>
       </c>
     </row>
     <row r="1392" spans="1:6">
@@ -28373,13 +28373,13 @@
         <v>49</v>
       </c>
       <c r="D1392">
-        <v>799.6810508624566</v>
+        <v>752.360464141291</v>
       </c>
       <c r="E1392">
-        <v>411.6447098961885</v>
+        <v>459.7735134874964</v>
       </c>
       <c r="F1392">
-        <v>1187.717391828725</v>
+        <v>1044.947414795085</v>
       </c>
     </row>
     <row r="1393" spans="1:6">
@@ -28393,13 +28393,13 @@
         <v>49</v>
       </c>
       <c r="D1393">
-        <v>793.1053176166223</v>
+        <v>806.1870116580508</v>
       </c>
       <c r="E1393">
-        <v>386.4220451134168</v>
+        <v>490.2064933012151</v>
       </c>
       <c r="F1393">
-        <v>1199.788590119828</v>
+        <v>1122.167530014886</v>
       </c>
     </row>
     <row r="1394" spans="1:6">
@@ -28413,13 +28413,13 @@
         <v>49</v>
       </c>
       <c r="D1394">
-        <v>775.8656541613459</v>
+        <v>716.4528374864888</v>
       </c>
       <c r="E1394">
-        <v>343.8953217067717</v>
+        <v>381.6349591295112</v>
       </c>
       <c r="F1394">
-        <v>1207.83598661592</v>
+        <v>1051.270715843466</v>
       </c>
     </row>
     <row r="1395" spans="1:6">
@@ -28433,13 +28433,13 @@
         <v>49</v>
       </c>
       <c r="D1395">
-        <v>844.4564559385411</v>
+        <v>673.0742041373614</v>
       </c>
       <c r="E1395">
-        <v>386.6535025040354</v>
+        <v>330.1920513269585</v>
       </c>
       <c r="F1395">
-        <v>1302.259409373047</v>
+        <v>1015.956356947764</v>
       </c>
     </row>
     <row r="1396" spans="1:6">
@@ -28453,13 +28453,13 @@
         <v>49</v>
       </c>
       <c r="D1396">
-        <v>731.0011740514767</v>
+        <v>613.1807714661018</v>
       </c>
       <c r="E1396">
-        <v>256.4879435638862</v>
+        <v>245.8999685540947</v>
       </c>
       <c r="F1396">
-        <v>1205.514404539067</v>
+        <v>980.4615743781088</v>
       </c>
     </row>
     <row r="1397" spans="1:6">
@@ -29513,13 +29513,13 @@
         <v>51</v>
       </c>
       <c r="D1449">
-        <v>959.6908488866359</v>
+        <v>1518.709323549719</v>
       </c>
       <c r="E1449">
-        <v>776.880258737324</v>
+        <v>1328.498570522771</v>
       </c>
       <c r="F1449">
-        <v>1142.501439035948</v>
+        <v>1708.920076576667</v>
       </c>
     </row>
     <row r="1450" spans="1:6">
@@ -29533,13 +29533,13 @@
         <v>51</v>
       </c>
       <c r="D1450">
-        <v>696.6422718926669</v>
+        <v>1407.397563908386</v>
       </c>
       <c r="E1450">
-        <v>446.2142774579492</v>
+        <v>1159.357395861121</v>
       </c>
       <c r="F1450">
-        <v>947.0702663273847</v>
+        <v>1655.43773195565</v>
       </c>
     </row>
     <row r="1451" spans="1:6">
@@ -29553,13 +29553,13 @@
         <v>51</v>
       </c>
       <c r="D1451">
-        <v>901.3156591571359</v>
+        <v>1467.228328335257</v>
       </c>
       <c r="E1451">
-        <v>506.1252397078518</v>
+        <v>1216.906108092103</v>
       </c>
       <c r="F1451">
-        <v>1296.50607860642</v>
+        <v>1717.55054857841</v>
       </c>
     </row>
     <row r="1452" spans="1:6">
@@ -29573,13 +29573,13 @@
         <v>51</v>
       </c>
       <c r="D1452">
-        <v>505.6894891216161</v>
+        <v>1393.996768673265</v>
       </c>
       <c r="E1452">
-        <v>31.96641156696683</v>
+        <v>1114.965016767539</v>
       </c>
       <c r="F1452">
-        <v>979.4125666762653</v>
+        <v>1673.02852057899</v>
       </c>
     </row>
     <row r="1453" spans="1:6">
@@ -29593,13 +29593,13 @@
         <v>51</v>
       </c>
       <c r="D1453">
-        <v>607.665128950066</v>
+        <v>1507.266335460544</v>
       </c>
       <c r="E1453">
-        <v>-2.625086422054665</v>
+        <v>1203.232920008689</v>
       </c>
       <c r="F1453">
-        <v>1217.955344322187</v>
+        <v>1811.299750912399</v>
       </c>
     </row>
     <row r="1454" spans="1:6">
@@ -29613,13 +29613,13 @@
         <v>51</v>
       </c>
       <c r="D1454">
-        <v>444.4675471107607</v>
+        <v>1414.108665100102</v>
       </c>
       <c r="E1454">
-        <v>-253.422415780195</v>
+        <v>1070.115650967393</v>
       </c>
       <c r="F1454">
-        <v>1142.357510001716</v>
+        <v>1758.10167923281</v>
       </c>
     </row>
     <row r="1455" spans="1:6">
@@ -29633,13 +29633,13 @@
         <v>51</v>
       </c>
       <c r="D1455">
-        <v>738.8597521273562</v>
+        <v>1469.763457206879</v>
       </c>
       <c r="E1455">
-        <v>-78.02481635170477</v>
+        <v>1122.133018338803</v>
       </c>
       <c r="F1455">
-        <v>1555.744320606417</v>
+        <v>1817.393896074955</v>
       </c>
     </row>
     <row r="1456" spans="1:6">
@@ -29653,13 +29653,13 @@
         <v>51</v>
       </c>
       <c r="D1456">
-        <v>463.5322876932188</v>
+        <v>1396.309632432834</v>
       </c>
       <c r="E1456">
-        <v>-424.3200798852241</v>
+        <v>1029.341759622878</v>
       </c>
       <c r="F1456">
-        <v>1351.384655271662</v>
+        <v>1763.277505242789</v>
       </c>
     </row>
     <row r="1457" spans="1:6">
@@ -29673,13 +29673,13 @@
         <v>51</v>
       </c>
       <c r="D1457">
-        <v>583.2911383046637</v>
+        <v>1497.453605258481</v>
       </c>
       <c r="E1457">
-        <v>-402.3328530150258</v>
+        <v>1114.025797912492</v>
       </c>
       <c r="F1457">
-        <v>1568.915129624353</v>
+        <v>1880.88141260447</v>
       </c>
     </row>
     <row r="1458" spans="1:6">
@@ -29693,13 +29693,13 @@
         <v>51</v>
       </c>
       <c r="D1458">
-        <v>462.915064521448</v>
+        <v>1418.65820971792</v>
       </c>
       <c r="E1458">
-        <v>-587.5506533238042</v>
+        <v>1003.303969722068</v>
       </c>
       <c r="F1458">
-        <v>1513.3807823667</v>
+        <v>1834.012449713772</v>
       </c>
     </row>
     <row r="1459" spans="1:6">
@@ -30133,13 +30133,13 @@
         <v>52</v>
       </c>
       <c r="D1480">
-        <v>313.2201881974586</v>
+        <v>303.5842903663371</v>
       </c>
       <c r="E1480">
-        <v>271.0206757534019</v>
+        <v>234.9938924231579</v>
       </c>
       <c r="F1480">
-        <v>355.4197006415153</v>
+        <v>372.1746883095163</v>
       </c>
     </row>
     <row r="1481" spans="1:6">
@@ -30153,13 +30153,13 @@
         <v>52</v>
       </c>
       <c r="D1481">
-        <v>323.6646368292955</v>
+        <v>314.3008322633795</v>
       </c>
       <c r="E1481">
-        <v>281.5311346112649</v>
+        <v>240.8979745205347</v>
       </c>
       <c r="F1481">
-        <v>365.7981390473262</v>
+        <v>387.7036900062243</v>
       </c>
     </row>
     <row r="1482" spans="1:6">
@@ -30173,13 +30173,13 @@
         <v>52</v>
       </c>
       <c r="D1482">
-        <v>347.6057611674655</v>
+        <v>301.4110607650746</v>
       </c>
       <c r="E1482">
-        <v>301.6244499772825</v>
+        <v>226.6106008912401</v>
       </c>
       <c r="F1482">
-        <v>393.5870723576484</v>
+        <v>376.2115206389091</v>
       </c>
     </row>
     <row r="1483" spans="1:6">
@@ -30193,13 +30193,13 @@
         <v>52</v>
       </c>
       <c r="D1483">
-        <v>263.5262600585482</v>
+        <v>304.8012232167536</v>
       </c>
       <c r="E1483">
-        <v>208.303600228837</v>
+        <v>228.8115995235974</v>
       </c>
       <c r="F1483">
-        <v>318.7489198882594</v>
+        <v>380.7908469099098</v>
       </c>
     </row>
     <row r="1484" spans="1:6">
@@ -30213,13 +30213,13 @@
         <v>52</v>
       </c>
       <c r="D1484">
-        <v>298.9833313408161</v>
+        <v>296.9330599070004</v>
       </c>
       <c r="E1484">
-        <v>240.6538324645564</v>
+        <v>220.7443203608767</v>
       </c>
       <c r="F1484">
-        <v>357.3128302170758</v>
+        <v>373.121799453124</v>
       </c>
     </row>
     <row r="1485" spans="1:6">
@@ -30233,13 +30233,13 @@
         <v>52</v>
       </c>
       <c r="D1485">
-        <v>261.6999469098095</v>
+        <v>296.8467999668895</v>
       </c>
       <c r="E1485">
-        <v>203.2604263638672</v>
+        <v>220.3126807550171</v>
       </c>
       <c r="F1485">
-        <v>320.1394674557517</v>
+        <v>373.380919178762</v>
       </c>
     </row>
     <row r="1486" spans="1:6">
@@ -30253,13 +30253,13 @@
         <v>52</v>
       </c>
       <c r="D1486">
-        <v>278.9217559244964</v>
+        <v>291.3811333749522</v>
       </c>
       <c r="E1486">
-        <v>219.9830795354943</v>
+        <v>214.8551617304724</v>
       </c>
       <c r="F1486">
-        <v>337.8604323134984</v>
+        <v>367.907105019432</v>
       </c>
     </row>
     <row r="1487" spans="1:6">
@@ -30273,13 +30273,13 @@
         <v>52</v>
       </c>
       <c r="D1487">
-        <v>227.5644041394267</v>
+        <v>289.6340417387154</v>
       </c>
       <c r="E1487">
-        <v>168.3284295632349</v>
+        <v>212.9925778500299</v>
       </c>
       <c r="F1487">
-        <v>286.8003787156185</v>
+        <v>366.2755056274009</v>
       </c>
     </row>
     <row r="1488" spans="1:6">
@@ -30293,13 +30293,13 @@
         <v>52</v>
       </c>
       <c r="D1488">
-        <v>294.7068934911073</v>
+        <v>285.3164370223761</v>
       </c>
       <c r="E1488">
-        <v>231.4442635165315</v>
+        <v>208.7022926975168</v>
       </c>
       <c r="F1488">
-        <v>357.9695234656831</v>
+        <v>361.9305813472355</v>
       </c>
     </row>
     <row r="1489" spans="1:6">
@@ -30313,13 +30313,13 @@
         <v>52</v>
       </c>
       <c r="D1489">
-        <v>278.8583916048573</v>
+        <v>282.7757319556666</v>
       </c>
       <c r="E1489">
-        <v>215.1046285740798</v>
+        <v>206.1176326876893</v>
       </c>
       <c r="F1489">
-        <v>342.6121546356348</v>
+        <v>359.433831223644</v>
       </c>
     </row>
     <row r="1490" spans="1:6">
@@ -30753,13 +30753,13 @@
         <v>53</v>
       </c>
       <c r="D1511">
-        <v>341.6644175683278</v>
+        <v>380.3702709063389</v>
       </c>
       <c r="E1511">
-        <v>280.7937609096333</v>
+        <v>342.5993612319547</v>
       </c>
       <c r="F1511">
-        <v>402.5350742270224</v>
+        <v>418.1411805807231</v>
       </c>
     </row>
     <row r="1512" spans="1:6">
@@ -30773,13 +30773,13 @@
         <v>53</v>
       </c>
       <c r="D1512">
-        <v>281.7568836887611</v>
+        <v>380.6821237286299</v>
       </c>
       <c r="E1512">
-        <v>215.8724932095726</v>
+        <v>337.4317337850443</v>
       </c>
       <c r="F1512">
-        <v>347.6412741679497</v>
+        <v>423.9325136722155</v>
       </c>
     </row>
     <row r="1513" spans="1:6">
@@ -30793,13 +30793,13 @@
         <v>53</v>
       </c>
       <c r="D1513">
-        <v>314.2628539011732</v>
+        <v>381.2522143506407</v>
       </c>
       <c r="E1513">
-        <v>236.4038933559553</v>
+        <v>337.376904095896</v>
       </c>
       <c r="F1513">
-        <v>392.1218144463912</v>
+        <v>425.1275246053854</v>
       </c>
     </row>
     <row r="1514" spans="1:6">
@@ -30813,13 +30813,13 @@
         <v>53</v>
       </c>
       <c r="D1514">
-        <v>223.8550545126907</v>
+        <v>400.2594263761908</v>
       </c>
       <c r="E1514">
-        <v>145.9328735630613</v>
+        <v>344.4238819408509</v>
       </c>
       <c r="F1514">
-        <v>301.7772354623202</v>
+        <v>456.0949708115308</v>
       </c>
     </row>
     <row r="1515" spans="1:6">
@@ -30833,13 +30833,13 @@
         <v>53</v>
       </c>
       <c r="D1515">
-        <v>291.7100876307587</v>
+        <v>384.3792197301332</v>
       </c>
       <c r="E1515">
-        <v>186.2954298457446</v>
+        <v>327.8549255382287</v>
       </c>
       <c r="F1515">
-        <v>397.1247454157728</v>
+        <v>440.9035139220377</v>
       </c>
     </row>
     <row r="1516" spans="1:6">
@@ -30853,13 +30853,13 @@
         <v>53</v>
       </c>
       <c r="D1516">
-        <v>207.2864820514017</v>
+        <v>381.7627556844943</v>
       </c>
       <c r="E1516">
-        <v>102.12657096109</v>
+        <v>322.7210458959315</v>
       </c>
       <c r="F1516">
-        <v>312.4463931417133</v>
+        <v>440.8044654730571</v>
       </c>
     </row>
     <row r="1517" spans="1:6">
@@ -30873,13 +30873,13 @@
         <v>53</v>
       </c>
       <c r="D1517">
-        <v>241.9611602058532</v>
+        <v>378.7896290481066</v>
       </c>
       <c r="E1517">
-        <v>123.1744839488645</v>
+        <v>319.5190110055943</v>
       </c>
       <c r="F1517">
-        <v>360.7478364628419</v>
+        <v>438.0602470906189</v>
       </c>
     </row>
     <row r="1518" spans="1:6">
@@ -30893,13 +30893,13 @@
         <v>53</v>
       </c>
       <c r="D1518">
-        <v>178.4377975914773</v>
+        <v>397.7275090892214</v>
       </c>
       <c r="E1518">
-        <v>58.63342076564305</v>
+        <v>329.2502463871091</v>
       </c>
       <c r="F1518">
-        <v>298.2421744173115</v>
+        <v>466.2047717913336</v>
       </c>
     </row>
     <row r="1519" spans="1:6">
@@ -30913,13 +30913,13 @@
         <v>53</v>
       </c>
       <c r="D1519">
-        <v>213.370216351012</v>
+        <v>387.3211837954286</v>
       </c>
       <c r="E1519">
-        <v>80.69918577425491</v>
+        <v>318.7722148914551</v>
       </c>
       <c r="F1519">
-        <v>346.0412469277691</v>
+        <v>455.8701526994021</v>
       </c>
     </row>
     <row r="1520" spans="1:6">
@@ -30933,13 +30933,13 @@
         <v>53</v>
       </c>
       <c r="D1520">
-        <v>148.475132331602</v>
+        <v>383.6360411192066</v>
       </c>
       <c r="E1520">
-        <v>15.68506637626589</v>
+        <v>313.5032965854555</v>
       </c>
       <c r="F1520">
-        <v>281.265198286938</v>
+        <v>453.7687856529577</v>
       </c>
     </row>
     <row r="1521" spans="1:6">
@@ -31373,13 +31373,13 @@
         <v>54</v>
       </c>
       <c r="D1542">
-        <v>443.2834680775916</v>
+        <v>781.926929622759</v>
       </c>
       <c r="E1542">
-        <v>267.708139547012</v>
+        <v>645.4447092756791</v>
       </c>
       <c r="F1542">
-        <v>618.8587966081711</v>
+        <v>918.4091499698388</v>
       </c>
     </row>
     <row r="1543" spans="1:6">
@@ -31393,13 +31393,13 @@
         <v>54</v>
       </c>
       <c r="D1543">
-        <v>455.1813178628951</v>
+        <v>777.4967422182344</v>
       </c>
       <c r="E1543">
-        <v>196.4879233224672</v>
+        <v>636.9319928156359</v>
       </c>
       <c r="F1543">
-        <v>713.874712403323</v>
+        <v>918.061491620833</v>
       </c>
     </row>
     <row r="1544" spans="1:6">
@@ -31413,13 +31413,13 @@
         <v>54</v>
       </c>
       <c r="D1544">
-        <v>466.4448017627635</v>
+        <v>774.6719466641238</v>
       </c>
       <c r="E1544">
-        <v>144.1133663922334</v>
+        <v>629.0499936962706</v>
       </c>
       <c r="F1544">
-        <v>788.7762371332935</v>
+        <v>920.293899631977</v>
       </c>
     </row>
     <row r="1545" spans="1:6">
@@ -31433,13 +31433,13 @@
         <v>54</v>
       </c>
       <c r="D1545">
-        <v>326.5348216390083</v>
+        <v>769.0147892920567</v>
       </c>
       <c r="E1545">
-        <v>-42.20546131282651</v>
+        <v>622.3397574244333</v>
       </c>
       <c r="F1545">
-        <v>695.2751045908432</v>
+        <v>915.68982115968</v>
       </c>
     </row>
     <row r="1546" spans="1:6">
@@ -31453,13 +31453,13 @@
         <v>54</v>
       </c>
       <c r="D1546">
-        <v>332.0662707476999</v>
+        <v>774.1637709731394</v>
       </c>
       <c r="E1546">
-        <v>-131.2900137288834</v>
+        <v>627.6629917905835</v>
       </c>
       <c r="F1546">
-        <v>795.4225552242833</v>
+        <v>920.6645501556953</v>
       </c>
     </row>
     <row r="1547" spans="1:6">
@@ -31473,13 +31473,13 @@
         <v>54</v>
       </c>
       <c r="D1547">
-        <v>372.5376602513367</v>
+        <v>771.6980442326296</v>
       </c>
       <c r="E1547">
-        <v>-175.5191062945371</v>
+        <v>623.1411595792958</v>
       </c>
       <c r="F1547">
-        <v>920.5944267972104</v>
+        <v>920.2549288859634</v>
       </c>
     </row>
     <row r="1548" spans="1:6">
@@ -31493,13 +31493,13 @@
         <v>54</v>
       </c>
       <c r="D1548">
-        <v>429.8333261062996</v>
+        <v>774.3748414300782</v>
       </c>
       <c r="E1548">
-        <v>-189.811444604269</v>
+        <v>625.9223320255525</v>
       </c>
       <c r="F1548">
-        <v>1049.478096816868</v>
+        <v>922.8273508346039</v>
       </c>
     </row>
     <row r="1549" spans="1:6">
@@ -31513,13 +31513,13 @@
         <v>54</v>
       </c>
       <c r="D1549">
-        <v>389.5467449571679</v>
+        <v>771.482466194271</v>
       </c>
       <c r="E1549">
-        <v>-284.5386408535974</v>
+        <v>622.0265115338552</v>
       </c>
       <c r="F1549">
-        <v>1063.632130767933</v>
+        <v>920.9384208546867</v>
       </c>
     </row>
     <row r="1550" spans="1:6">
@@ -31533,13 +31533,13 @@
         <v>54</v>
       </c>
       <c r="D1550">
-        <v>429.663828470094</v>
+        <v>773.8688117181014</v>
       </c>
       <c r="E1550">
-        <v>-314.3017254579853</v>
+        <v>624.6050600764603</v>
       </c>
       <c r="F1550">
-        <v>1173.629382398173</v>
+        <v>923.1325633597424</v>
       </c>
     </row>
     <row r="1551" spans="1:6">
@@ -31553,13 +31553,13 @@
         <v>54</v>
       </c>
       <c r="D1551">
-        <v>498.8435698155949</v>
+        <v>771.7956930841351</v>
       </c>
       <c r="E1551">
-        <v>-309.4883015830683</v>
+        <v>621.654128398308</v>
       </c>
       <c r="F1551">
-        <v>1307.175441214258</v>
+        <v>921.9372577699622</v>
       </c>
     </row>
     <row r="1552" spans="1:6">
@@ -31993,13 +31993,13 @@
         <v>55</v>
       </c>
       <c r="D1573">
-        <v>10651.98680187113</v>
+        <v>15645.88871000743</v>
       </c>
       <c r="E1573">
-        <v>6321.192588673413</v>
+        <v>9517.895143495574</v>
       </c>
       <c r="F1573">
-        <v>14982.78101506884</v>
+        <v>21773.88227651929</v>
       </c>
     </row>
     <row r="1574" spans="1:6">
@@ -32013,13 +32013,13 @@
         <v>55</v>
       </c>
       <c r="D1574">
-        <v>9557.313608721035</v>
+        <v>15472.1694860382</v>
       </c>
       <c r="E1574">
-        <v>3321.182352356648</v>
+        <v>7398.952166457957</v>
       </c>
       <c r="F1574">
-        <v>15793.44486508542</v>
+        <v>23545.38680561845</v>
       </c>
     </row>
     <row r="1575" spans="1:6">
@@ -32033,13 +32033,13 @@
         <v>55</v>
       </c>
       <c r="D1575">
-        <v>9501.909028893311</v>
+        <v>15353.1837449022</v>
       </c>
       <c r="E1575">
-        <v>1305.569309947779</v>
+        <v>5871.548861135432</v>
       </c>
       <c r="F1575">
-        <v>17698.24874783884</v>
+        <v>24834.81862866897</v>
       </c>
     </row>
     <row r="1576" spans="1:6">
@@ -32053,13 +32053,13 @@
         <v>55</v>
       </c>
       <c r="D1576">
-        <v>9219.008249330978</v>
+        <v>15215.07383356261</v>
       </c>
       <c r="E1576">
-        <v>-243.5902524491994</v>
+        <v>4462.355391148036</v>
       </c>
       <c r="F1576">
-        <v>18681.60675111115</v>
+        <v>25967.79227597719</v>
       </c>
     </row>
     <row r="1577" spans="1:6">
@@ -32073,13 +32073,13 @@
         <v>55</v>
       </c>
       <c r="D1577">
-        <v>8162.768007142389</v>
+        <v>15083.64600907451</v>
       </c>
       <c r="E1577">
-        <v>-2486.770037094922</v>
+        <v>3209.698836678428</v>
       </c>
       <c r="F1577">
-        <v>18812.3060513797</v>
+        <v>26957.59318147058</v>
       </c>
     </row>
     <row r="1578" spans="1:6">
@@ -32093,13 +32093,13 @@
         <v>55</v>
       </c>
       <c r="D1578">
-        <v>7843.286311002303</v>
+        <v>14949.8834278772</v>
       </c>
       <c r="E1578">
-        <v>-4087.780333595123</v>
+        <v>2047.082616612695</v>
       </c>
       <c r="F1578">
-        <v>19774.35295559973</v>
+        <v>27852.68423914169</v>
       </c>
     </row>
     <row r="1579" spans="1:6">
@@ -32113,13 +32113,13 @@
         <v>55</v>
       </c>
       <c r="D1579">
-        <v>7053.778609750463</v>
+        <v>14816.93662310009</v>
       </c>
       <c r="E1579">
-        <v>-6086.812654118583</v>
+        <v>963.010736707789</v>
       </c>
       <c r="F1579">
-        <v>20194.36987361951</v>
+        <v>28670.86250949238</v>
       </c>
     </row>
     <row r="1580" spans="1:6">
@@ -32133,13 +32133,13 @@
         <v>55</v>
       </c>
       <c r="D1580">
-        <v>6987.401943724903</v>
+        <v>14683.70478170005</v>
       </c>
       <c r="E1580">
-        <v>-7358.345209667206</v>
+        <v>-60.62143222863233</v>
       </c>
       <c r="F1580">
-        <v>21333.14909711701</v>
+        <v>29428.03099562873</v>
       </c>
     </row>
     <row r="1581" spans="1:6">
@@ -32153,13 +32153,13 @@
         <v>55</v>
       </c>
       <c r="D1581">
-        <v>6388.724719486252</v>
+        <v>14550.57253361308</v>
       </c>
       <c r="E1581">
-        <v>-9000.482890839037</v>
+        <v>-1033.196013604631</v>
       </c>
       <c r="F1581">
-        <v>21777.93232981154</v>
+        <v>30134.3410808308</v>
       </c>
     </row>
     <row r="1582" spans="1:6">
@@ -32173,13 +32173,13 @@
         <v>55</v>
       </c>
       <c r="D1582">
-        <v>6162.083698272785</v>
+        <v>14417.40548709247</v>
       </c>
       <c r="E1582">
-        <v>-10240.09194953131</v>
+        <v>-1962.898168500349</v>
       </c>
       <c r="F1582">
-        <v>22564.25934607688</v>
+        <v>30797.70914268529</v>
       </c>
     </row>
   </sheetData>
